--- a/tests/eindhoven-500/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_middellaag.xlsx
+++ b/tests/eindhoven-500/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_conc_middellaag.xlsx
@@ -400,13 +400,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.6215666997669426</v>
+        <v>0.6215666997669428</v>
       </c>
       <c r="C2">
         <v>0.8087796434414749</v>
       </c>
       <c r="D2">
-        <v>0.463517911363077</v>
+        <v>0.4635179113630769</v>
       </c>
       <c r="E2">
         <v>0.7331223583787192</v>
@@ -418,7 +418,7 @@
         <v>0.7221632001495436</v>
       </c>
       <c r="H2">
-        <v>0.7051829511221135</v>
+        <v>0.7051829511221134</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -429,10 +429,10 @@
         <v>0.6036604384906538</v>
       </c>
       <c r="C3">
-        <v>0.8919244252484637</v>
+        <v>0.8919244252484636</v>
       </c>
       <c r="D3">
-        <v>0.5735379138762114</v>
+        <v>0.5735379138762113</v>
       </c>
       <c r="E3">
         <v>0.7924548708408298</v>
@@ -441,10 +441,10 @@
         <v>0.57660336696369</v>
       </c>
       <c r="G3">
-        <v>0.7946039111004122</v>
+        <v>0.7946039111004123</v>
       </c>
       <c r="H3">
-        <v>0.7627066062642043</v>
+        <v>0.7627066062642042</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -452,10 +452,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.5413383369605936</v>
+        <v>0.5413383369605937</v>
       </c>
       <c r="C4">
-        <v>0.7991554944826501</v>
+        <v>0.79915549448265</v>
       </c>
       <c r="D4">
         <v>0.3548627398042136</v>
@@ -464,13 +464,13 @@
         <v>0.7094978488344654</v>
       </c>
       <c r="F4">
-        <v>0.4947602260979274</v>
+        <v>0.4947602260979275</v>
       </c>
       <c r="G4">
-        <v>0.700471543002712</v>
+        <v>0.7004715430027117</v>
       </c>
       <c r="H4">
-        <v>0.6776299896266021</v>
+        <v>0.677629989626602</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -478,7 +478,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.5413383369605936</v>
+        <v>0.5413383369605937</v>
       </c>
       <c r="C5">
         <v>0.7991554944826501</v>
@@ -490,10 +490,10 @@
         <v>0.7094978488344655</v>
       </c>
       <c r="F5">
-        <v>0.4947602260979274</v>
+        <v>0.4947602260979275</v>
       </c>
       <c r="G5">
-        <v>0.700471543002712</v>
+        <v>0.7004715430027117</v>
       </c>
       <c r="H5">
         <v>0.6776299896266021</v>
@@ -504,7 +504,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.5413383369605936</v>
+        <v>0.5413383369605937</v>
       </c>
       <c r="C6">
         <v>0.7991554944826501</v>
@@ -516,13 +516,13 @@
         <v>0.7094978488344654</v>
       </c>
       <c r="F6">
-        <v>0.4947602260979274</v>
+        <v>0.4947602260979275</v>
       </c>
       <c r="G6">
-        <v>0.700471543002712</v>
+        <v>0.7004715430027117</v>
       </c>
       <c r="H6">
-        <v>0.6776299896266021</v>
+        <v>0.6776299896266019</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -536,7 +536,7 @@
         <v>0.7032662463243646</v>
       </c>
       <c r="D7">
-        <v>0.6320165467849841</v>
+        <v>0.632016546784984</v>
       </c>
       <c r="E7">
         <v>0.6618079109104622</v>
@@ -545,10 +545,10 @@
         <v>0.609372313844689</v>
       </c>
       <c r="G7">
-        <v>0.6534151896453276</v>
+        <v>0.6534151896453277</v>
       </c>
       <c r="H7">
-        <v>0.6429014790031972</v>
+        <v>0.6429014790031973</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -562,7 +562,7 @@
         <v>0.7032662463243646</v>
       </c>
       <c r="D8">
-        <v>0.6320165467849841</v>
+        <v>0.6320165467849839</v>
       </c>
       <c r="E8">
         <v>0.6618079109104622</v>
@@ -574,7 +574,7 @@
         <v>0.6534151896453276</v>
       </c>
       <c r="H8">
-        <v>0.6429014790031972</v>
+        <v>0.6429014790031973</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -588,7 +588,7 @@
         <v>0.544936974835711</v>
       </c>
       <c r="D9">
-        <v>0.7035364694753985</v>
+        <v>0.7035364694753984</v>
       </c>
       <c r="E9">
         <v>0.5575318919646577</v>
@@ -597,10 +597,10 @@
         <v>0.6368778025150977</v>
       </c>
       <c r="G9">
-        <v>0.5436965975497434</v>
+        <v>0.5436965975497435</v>
       </c>
       <c r="H9">
-        <v>0.5529529551383285</v>
+        <v>0.5529529551383284</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -614,19 +614,19 @@
         <v>0.7032662463243646</v>
       </c>
       <c r="D10">
-        <v>0.6320165467849842</v>
+        <v>0.632016546784984</v>
       </c>
       <c r="E10">
         <v>0.6618079109104622</v>
       </c>
       <c r="F10">
-        <v>0.6093723138446889</v>
+        <v>0.609372313844689</v>
       </c>
       <c r="G10">
-        <v>0.6534151896453276</v>
+        <v>0.6534151896453277</v>
       </c>
       <c r="H10">
-        <v>0.6429014790031972</v>
+        <v>0.6429014790031973</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -640,7 +640,7 @@
         <v>0.7032662463243646</v>
       </c>
       <c r="D11">
-        <v>0.6320165467849842</v>
+        <v>0.6320165467849839</v>
       </c>
       <c r="E11">
         <v>0.6618079109104622</v>
@@ -649,10 +649,10 @@
         <v>0.6093723138446889</v>
       </c>
       <c r="G11">
-        <v>0.6534151896453276</v>
+        <v>0.6534151896453277</v>
       </c>
       <c r="H11">
-        <v>0.6429014790031972</v>
+        <v>0.6429014790031973</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -663,10 +663,10 @@
         <v>0.5501123774539026</v>
       </c>
       <c r="C12">
-        <v>0.7551848416443132</v>
+        <v>0.755184841644313</v>
       </c>
       <c r="D12">
-        <v>0.42385882961712</v>
+        <v>0.4238588296171199</v>
       </c>
       <c r="E12">
         <v>0.6770156472485566</v>
@@ -678,7 +678,7 @@
         <v>0.6715759450015349</v>
       </c>
       <c r="H12">
-        <v>0.6512870994466364</v>
+        <v>0.6512870994466363</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -692,7 +692,7 @@
         <v>0.8919244252484636</v>
       </c>
       <c r="D13">
-        <v>0.5735379138762114</v>
+        <v>0.5735379138762113</v>
       </c>
       <c r="E13">
         <v>0.7924548708408297</v>
@@ -701,7 +701,7 @@
         <v>0.57660336696369</v>
       </c>
       <c r="G13">
-        <v>0.7946039111004122</v>
+        <v>0.7946039111004123</v>
       </c>
       <c r="H13">
         <v>0.7627066062642042</v>
@@ -715,10 +715,10 @@
         <v>0.5501123774539026</v>
       </c>
       <c r="C14">
-        <v>0.7551848416443132</v>
+        <v>0.755184841644313</v>
       </c>
       <c r="D14">
-        <v>0.42385882961712</v>
+        <v>0.4238588296171199</v>
       </c>
       <c r="E14">
         <v>0.6770156472485566</v>
@@ -744,7 +744,7 @@
         <v>0.7032662463243646</v>
       </c>
       <c r="D15">
-        <v>0.6320165467849841</v>
+        <v>0.6320165467849838</v>
       </c>
       <c r="E15">
         <v>0.6618079109104621</v>
@@ -753,7 +753,7 @@
         <v>0.609372313844689</v>
       </c>
       <c r="G15">
-        <v>0.6534151896453276</v>
+        <v>0.6534151896453277</v>
       </c>
       <c r="H15">
         <v>0.6429014790031972</v>
@@ -764,22 +764,22 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.659266294791121</v>
+        <v>0.6592662947911211</v>
       </c>
       <c r="C16">
-        <v>0.6406977342717868</v>
+        <v>0.6406977342717867</v>
       </c>
       <c r="D16">
-        <v>0.506624266694955</v>
+        <v>0.5066242666949549</v>
       </c>
       <c r="E16">
         <v>0.621361965006015</v>
       </c>
       <c r="F16">
-        <v>0.6110309277526876</v>
+        <v>0.6110309277526877</v>
       </c>
       <c r="G16">
-        <v>0.5939486568200979</v>
+        <v>0.593948656820098</v>
       </c>
       <c r="H16">
         <v>0.6022054952084811</v>
@@ -790,16 +790,16 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.5501123774539026</v>
+        <v>0.5501123774539028</v>
       </c>
       <c r="C17">
         <v>0.7551848416443133</v>
       </c>
       <c r="D17">
-        <v>0.42385882961712</v>
+        <v>0.4238588296171199</v>
       </c>
       <c r="E17">
-        <v>0.6770156472485566</v>
+        <v>0.6770156472485565</v>
       </c>
       <c r="F17">
         <v>0.5183018079406877</v>
@@ -808,7 +808,7 @@
         <v>0.6715759450015349</v>
       </c>
       <c r="H17">
-        <v>0.6512870994466364</v>
+        <v>0.6512870994466363</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -822,7 +822,7 @@
         <v>0.8919244252484636</v>
       </c>
       <c r="D18">
-        <v>0.5735379138762116</v>
+        <v>0.5735379138762113</v>
       </c>
       <c r="E18">
         <v>0.7924548708408298</v>
@@ -831,7 +831,7 @@
         <v>0.57660336696369</v>
       </c>
       <c r="G18">
-        <v>0.7946039111004122</v>
+        <v>0.7946039111004123</v>
       </c>
       <c r="H18">
         <v>0.7627066062642043</v>
@@ -842,10 +842,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.659266294791121</v>
+        <v>0.6592662947911211</v>
       </c>
       <c r="C19">
-        <v>0.6406977342717868</v>
+        <v>0.6406977342717867</v>
       </c>
       <c r="D19">
         <v>0.5066242666949548</v>
@@ -857,7 +857,7 @@
         <v>0.6110309277526876</v>
       </c>
       <c r="G19">
-        <v>0.5939486568200979</v>
+        <v>0.593948656820098</v>
       </c>
       <c r="H19">
         <v>0.6022054952084811</v>
@@ -868,22 +868,22 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.659266294791121</v>
+        <v>0.6592662947911211</v>
       </c>
       <c r="C20">
-        <v>0.6406977342717868</v>
+        <v>0.6406977342717867</v>
       </c>
       <c r="D20">
-        <v>0.506624266694955</v>
+        <v>0.5066242666949549</v>
       </c>
       <c r="E20">
-        <v>0.6213619650060151</v>
+        <v>0.621361965006015</v>
       </c>
       <c r="F20">
         <v>0.6110309277526876</v>
       </c>
       <c r="G20">
-        <v>0.5939486568200979</v>
+        <v>0.5939486568200981</v>
       </c>
       <c r="H20">
         <v>0.6022054952084811</v>
@@ -894,10 +894,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.659266294791121</v>
+        <v>0.6592662947911211</v>
       </c>
       <c r="C21">
-        <v>0.6406977342717868</v>
+        <v>0.6406977342717867</v>
       </c>
       <c r="D21">
         <v>0.5066242666949548</v>
@@ -909,7 +909,7 @@
         <v>0.6110309277526876</v>
       </c>
       <c r="G21">
-        <v>0.5939486568200979</v>
+        <v>0.5939486568200981</v>
       </c>
       <c r="H21">
         <v>0.6022054952084811</v>
@@ -932,7 +932,7 @@
         <v>0.9631862724555603</v>
       </c>
       <c r="F22">
-        <v>0.5862965481334331</v>
+        <v>0.5862965481334332</v>
       </c>
       <c r="G22">
         <v>0.9215164875326183</v>
@@ -952,10 +952,10 @@
         <v>0.8087796434414749</v>
       </c>
       <c r="D23">
-        <v>0.463517911363077</v>
+        <v>0.4635179113630768</v>
       </c>
       <c r="E23">
-        <v>0.7331223583787193</v>
+        <v>0.7331223583787192</v>
       </c>
       <c r="F23">
         <v>0.5789242513682565</v>
@@ -964,7 +964,7 @@
         <v>0.7221632001495436</v>
       </c>
       <c r="H23">
-        <v>0.7051829511221135</v>
+        <v>0.7051829511221133</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -975,7 +975,7 @@
         <v>0.4663964200091676</v>
       </c>
       <c r="C24">
-        <v>0.6628649134602578</v>
+        <v>0.662864913460258</v>
       </c>
       <c r="D24">
         <v>0.3065279798541584</v>
@@ -990,7 +990,7 @@
         <v>0.5878915797025557</v>
       </c>
       <c r="H24">
-        <v>0.570306221535705</v>
+        <v>0.5703062215357051</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>0.5878915797025557</v>
       </c>
       <c r="H25">
-        <v>0.570306221535705</v>
+        <v>0.5703062215357051</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1027,7 +1027,7 @@
         <v>0.4663964200091676</v>
       </c>
       <c r="C26">
-        <v>0.6628649134602579</v>
+        <v>0.6628649134602581</v>
       </c>
       <c r="D26">
         <v>0.3065279798541584</v>
@@ -1042,7 +1042,7 @@
         <v>0.5878915797025557</v>
       </c>
       <c r="H26">
-        <v>0.570306221535705</v>
+        <v>0.5703062215357051</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1053,10 +1053,10 @@
         <v>0.6614715440028497</v>
       </c>
       <c r="C27">
-        <v>0.8466889498839595</v>
+        <v>0.8466889498839594</v>
       </c>
       <c r="D27">
-        <v>0.3373138814390252</v>
+        <v>0.3373138814390251</v>
       </c>
       <c r="E27">
         <v>0.76285976809141</v>
@@ -1065,10 +1065,10 @@
         <v>0.5860618912073484</v>
       </c>
       <c r="G27">
-        <v>0.7342232266495156</v>
+        <v>0.7342232266495157</v>
       </c>
       <c r="H27">
-        <v>0.7233034728935778</v>
+        <v>0.7233034728935777</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1079,7 +1079,7 @@
         <v>0.6614715440028497</v>
       </c>
       <c r="C28">
-        <v>0.8466889498839595</v>
+        <v>0.8466889498839594</v>
       </c>
       <c r="D28">
         <v>0.3373138814390252</v>
@@ -1091,10 +1091,10 @@
         <v>0.5860618912073483</v>
       </c>
       <c r="G28">
-        <v>0.7342232266495154</v>
+        <v>0.7342232266495156</v>
       </c>
       <c r="H28">
-        <v>0.7233034728935778</v>
+        <v>0.7233034728935777</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1105,7 +1105,7 @@
         <v>0.6614715440028497</v>
       </c>
       <c r="C29">
-        <v>0.8466889498839596</v>
+        <v>0.8466889498839595</v>
       </c>
       <c r="D29">
         <v>0.3373138814390252</v>
@@ -1120,7 +1120,7 @@
         <v>0.7342232266495156</v>
       </c>
       <c r="H29">
-        <v>0.7233034728935778</v>
+        <v>0.7233034728935777</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1128,16 +1128,16 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0.8000242503311438</v>
+        <v>0.800024250331144</v>
       </c>
       <c r="C30">
-        <v>0.7833363867280314</v>
+        <v>0.7833363867280312</v>
       </c>
       <c r="D30">
-        <v>0.9414323880976344</v>
+        <v>0.9414323880976342</v>
       </c>
       <c r="E30">
-        <v>0.7717334490927471</v>
+        <v>0.771733449092747</v>
       </c>
       <c r="F30">
         <v>0.8363987219585732</v>
@@ -1146,7 +1146,7 @@
         <v>0.781133578710911</v>
       </c>
       <c r="H30">
-        <v>0.781980673535037</v>
+        <v>0.7819806735350369</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1154,13 +1154,13 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0.8000242503311438</v>
+        <v>0.800024250331144</v>
       </c>
       <c r="C31">
-        <v>0.7833363867280314</v>
+        <v>0.7833363867280311</v>
       </c>
       <c r="D31">
-        <v>0.9414323880976343</v>
+        <v>0.9414323880976342</v>
       </c>
       <c r="E31">
         <v>0.7717334490927471</v>
@@ -1169,10 +1169,10 @@
         <v>0.8363987219585732</v>
       </c>
       <c r="G31">
-        <v>0.781133578710911</v>
+        <v>0.7811335787109109</v>
       </c>
       <c r="H31">
-        <v>0.781980673535037</v>
+        <v>0.7819806735350369</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1180,25 +1180,25 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0.783598954669842</v>
+        <v>0.7835989546698421</v>
       </c>
       <c r="C32">
-        <v>0.9852373311551232</v>
+        <v>0.9852373311551231</v>
       </c>
       <c r="D32">
         <v>0.8385878995208663</v>
       </c>
       <c r="E32">
-        <v>0.8846565872241927</v>
+        <v>0.8846565872241925</v>
       </c>
       <c r="F32">
         <v>0.7947464499851491</v>
       </c>
       <c r="G32">
-        <v>0.8970271091313043</v>
+        <v>0.8970271091313042</v>
       </c>
       <c r="H32">
-        <v>0.8726271629756657</v>
+        <v>0.8726271629756654</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1206,25 +1206,25 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0.8000242503311438</v>
+        <v>0.800024250331144</v>
       </c>
       <c r="C33">
-        <v>0.7833363867280314</v>
+        <v>0.7833363867280312</v>
       </c>
       <c r="D33">
         <v>0.9414323880976341</v>
       </c>
       <c r="E33">
-        <v>0.7717334490927471</v>
+        <v>0.771733449092747</v>
       </c>
       <c r="F33">
         <v>0.8363987219585732</v>
       </c>
       <c r="G33">
-        <v>0.781133578710911</v>
+        <v>0.7811335787109109</v>
       </c>
       <c r="H33">
-        <v>0.781980673535037</v>
+        <v>0.7819806735350369</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1232,19 +1232,19 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>0.8659439152763267</v>
+        <v>0.8659439152763269</v>
       </c>
       <c r="C34">
-        <v>1.314695401626655</v>
+        <v>1.314695401626654</v>
       </c>
       <c r="D34">
-        <v>0.6486405823032274</v>
+        <v>0.6486405823032273</v>
       </c>
       <c r="E34">
         <v>1.113052866770598</v>
       </c>
       <c r="F34">
-        <v>0.819979080702392</v>
+        <v>0.8199790807023923</v>
       </c>
       <c r="G34">
         <v>1.1171664350052</v>
@@ -1258,7 +1258,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>0.9179925972856321</v>
+        <v>0.9179925972856323</v>
       </c>
       <c r="C35">
         <v>1.288952324875098</v>
@@ -1284,25 +1284,25 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>0.6936306451711344</v>
+        <v>0.6936306451711345</v>
       </c>
       <c r="C36">
-        <v>0.8396042331955268</v>
+        <v>0.8396042331955266</v>
       </c>
       <c r="D36">
-        <v>0.7811029028374215</v>
+        <v>0.7811029028374212</v>
       </c>
       <c r="E36">
         <v>0.7692349074078439</v>
       </c>
       <c r="F36">
-        <v>0.7230162642562417</v>
+        <v>0.7230162642562418</v>
       </c>
       <c r="G36">
-        <v>0.788895413857277</v>
+        <v>0.7888954138572768</v>
       </c>
       <c r="H36">
-        <v>0.7710573353391961</v>
+        <v>0.771057335339196</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1310,25 +1310,25 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>0.8488058302250459</v>
+        <v>0.8488058302250461</v>
       </c>
       <c r="C37">
-        <v>0.7659175482450199</v>
+        <v>0.7659175482450198</v>
       </c>
       <c r="D37">
-        <v>0.9688686559074869</v>
+        <v>0.9688686559074868</v>
       </c>
       <c r="E37">
-        <v>0.7790912287356094</v>
+        <v>0.7790912287356092</v>
       </c>
       <c r="F37">
-        <v>0.8716251719536564</v>
+        <v>0.8716251719536565</v>
       </c>
       <c r="G37">
-        <v>0.7786134212707855</v>
+        <v>0.7786134212707853</v>
       </c>
       <c r="H37">
-        <v>0.7898120177639927</v>
+        <v>0.7898120177639926</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1336,22 +1336,22 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>0.8488058302250459</v>
+        <v>0.848805830225046</v>
       </c>
       <c r="C38">
-        <v>0.7659175482450199</v>
+        <v>0.7659175482450197</v>
       </c>
       <c r="D38">
-        <v>0.9688686559074871</v>
+        <v>0.9688686559074868</v>
       </c>
       <c r="E38">
-        <v>0.7790912287356095</v>
+        <v>0.7790912287356093</v>
       </c>
       <c r="F38">
         <v>0.8716251719536564</v>
       </c>
       <c r="G38">
-        <v>0.7786134212707855</v>
+        <v>0.7786134212707853</v>
       </c>
       <c r="H38">
         <v>0.7898120177639926</v>
@@ -1362,25 +1362,25 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>0.9213965758687735</v>
+        <v>0.9213965758687738</v>
       </c>
       <c r="C39">
-        <v>1.045425077393226</v>
+        <v>1.045425077393225</v>
       </c>
       <c r="D39">
         <v>0.858312930893229</v>
       </c>
       <c r="E39">
-        <v>0.9571844322135793</v>
+        <v>0.9571844322135792</v>
       </c>
       <c r="F39">
-        <v>0.895866275012857</v>
+        <v>0.8958662750128571</v>
       </c>
       <c r="G39">
-        <v>0.9425119558656556</v>
+        <v>0.9425119558656553</v>
       </c>
       <c r="H39">
-        <v>0.9341500388084918</v>
+        <v>0.9341500388084916</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1394,7 +1394,7 @@
         <v>1.352674511224196</v>
       </c>
       <c r="D40">
-        <v>0.5685064088445554</v>
+        <v>0.5685064088445553</v>
       </c>
       <c r="E40">
         <v>1.149923325183302</v>
@@ -1414,19 +1414,19 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>0.9179925972856323</v>
+        <v>0.9179925972856324</v>
       </c>
       <c r="C41">
         <v>1.288952324875098</v>
       </c>
       <c r="D41">
-        <v>0.673902301017607</v>
+        <v>0.6739023010176068</v>
       </c>
       <c r="E41">
         <v>1.110333991569764</v>
       </c>
       <c r="F41">
-        <v>0.877500240323756</v>
+        <v>0.8775002403237561</v>
       </c>
       <c r="G41">
         <v>1.108198930047551</v>
@@ -1440,25 +1440,25 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>0.7768853136218402</v>
+        <v>0.7768853136218403</v>
       </c>
       <c r="C42">
-        <v>0.914293659501641</v>
+        <v>0.9142936595016408</v>
       </c>
       <c r="D42">
         <v>0.8520208826325051</v>
       </c>
       <c r="E42">
-        <v>0.8345995860731052</v>
+        <v>0.8345995860731051</v>
       </c>
       <c r="F42">
-        <v>0.7852213501739191</v>
+        <v>0.7852213501739194</v>
       </c>
       <c r="G42">
-        <v>0.8458725049579088</v>
+        <v>0.8458725049579086</v>
       </c>
       <c r="H42">
-        <v>0.8272709534908804</v>
+        <v>0.8272709534908802</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1475,16 +1475,16 @@
         <v>0.7602037827444209</v>
       </c>
       <c r="E43">
-        <v>0.961395673850969</v>
+        <v>0.9613956738509688</v>
       </c>
       <c r="F43">
-        <v>0.7436581384572718</v>
+        <v>0.743658138457272</v>
       </c>
       <c r="G43">
         <v>0.9924304249771604</v>
       </c>
       <c r="H43">
-        <v>0.9430682886997271</v>
+        <v>0.9430682886997269</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1492,16 +1492,16 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>0.5952754721331055</v>
+        <v>0.5952754721331057</v>
       </c>
       <c r="C44">
         <v>1.178326709889079</v>
       </c>
       <c r="D44">
-        <v>0.4526633390285494</v>
+        <v>0.4526633390285493</v>
       </c>
       <c r="E44">
-        <v>0.97565803061625</v>
+        <v>0.9756580306162499</v>
       </c>
       <c r="F44">
         <v>0.5777610189538391</v>
@@ -1510,7 +1510,7 @@
         <v>0.9882561910921142</v>
       </c>
       <c r="H44">
-        <v>0.9411124687888028</v>
+        <v>0.9411124687888027</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1518,25 +1518,25 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>0.7111370109745159</v>
+        <v>0.711137010974516</v>
       </c>
       <c r="C45">
-        <v>0.8369292541112568</v>
+        <v>0.8369292541112566</v>
       </c>
       <c r="D45">
         <v>0.7480327626343213</v>
       </c>
       <c r="E45">
-        <v>0.766998933910067</v>
+        <v>0.7669989339100669</v>
       </c>
       <c r="F45">
         <v>0.7230294423355492</v>
       </c>
       <c r="G45">
-        <v>0.7748143799262751</v>
+        <v>0.774814379926275</v>
       </c>
       <c r="H45">
-        <v>0.7642363482513971</v>
+        <v>0.764236348251397</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1544,25 +1544,25 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>0.831609590680916</v>
+        <v>0.8316095906809161</v>
       </c>
       <c r="C46">
-        <v>0.9709807084503695</v>
+        <v>0.9709807084503693</v>
       </c>
       <c r="D46">
-        <v>0.8643702643706292</v>
+        <v>0.8643702643706291</v>
       </c>
       <c r="E46">
         <v>0.8878410915611411</v>
       </c>
       <c r="F46">
-        <v>0.8316464855411975</v>
+        <v>0.8316464855411976</v>
       </c>
       <c r="G46">
         <v>0.8935927618030965</v>
       </c>
       <c r="H46">
-        <v>0.8760931988171102</v>
+        <v>0.8760931988171101</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1576,13 +1576,13 @@
         <v>1.110059834567224</v>
       </c>
       <c r="D47">
-        <v>0.5773791749616516</v>
+        <v>0.5773791749616515</v>
       </c>
       <c r="E47">
         <v>0.9310156309007576</v>
       </c>
       <c r="F47">
-        <v>0.6353215656400638</v>
+        <v>0.6353215656400639</v>
       </c>
       <c r="G47">
         <v>0.9553204899416939</v>
@@ -1596,13 +1596,13 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>0.6717913251722961</v>
+        <v>0.6717913251722962</v>
       </c>
       <c r="C48">
         <v>1.04687027002118</v>
       </c>
       <c r="D48">
-        <v>0.6644295005371009</v>
+        <v>0.6644295005371008</v>
       </c>
       <c r="E48">
         <v>0.8907383651266044</v>
@@ -1611,10 +1611,10 @@
         <v>0.6844180593292025</v>
       </c>
       <c r="G48">
-        <v>0.9207406488927097</v>
+        <v>0.9207406488927096</v>
       </c>
       <c r="H48">
-        <v>0.8773785134070252</v>
+        <v>0.8773785134070251</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>0.6124790297737958</v>
       </c>
       <c r="H49">
-        <v>0.6105709424762942</v>
+        <v>0.6105709424762943</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1674,7 +1674,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>0.4828211195929774</v>
+        <v>0.4828211195929775</v>
       </c>
       <c r="C51">
         <v>0.6873009422390046</v>
@@ -1689,7 +1689,7 @@
         <v>0.4807777867605427</v>
       </c>
       <c r="G51">
-        <v>0.6238588457755804</v>
+        <v>0.6238588457755805</v>
       </c>
       <c r="H51">
         <v>0.6022480413998884</v>
@@ -1709,16 +1709,16 @@
         <v>0.4694568544382853</v>
       </c>
       <c r="E52">
-        <v>0.6598848375992532</v>
+        <v>0.6598848375992531</v>
       </c>
       <c r="F52">
-        <v>0.4528174007754976</v>
+        <v>0.4528174007754975</v>
       </c>
       <c r="G52">
         <v>0.6540732013539721</v>
       </c>
       <c r="H52">
-        <v>0.6310487627794861</v>
+        <v>0.631048762779486</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1726,10 +1726,10 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>0.5598422287504702</v>
+        <v>0.5598422287504703</v>
       </c>
       <c r="C53">
-        <v>0.5652709338093561</v>
+        <v>0.5652709338093562</v>
       </c>
       <c r="D53">
         <v>0.6506683056346813</v>
@@ -1741,10 +1741,10 @@
         <v>0.5559487267348748</v>
       </c>
       <c r="G53">
-        <v>0.5434903975965534</v>
+        <v>0.5434903975965535</v>
       </c>
       <c r="H53">
-        <v>0.5420210889608492</v>
+        <v>0.5420210889608493</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>0.6882971362640184</v>
       </c>
       <c r="H55">
-        <v>0.6684547576909133</v>
+        <v>0.6684547576909134</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1804,7 +1804,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>0.683866339726624</v>
+        <v>0.6838663397266241</v>
       </c>
       <c r="C56">
         <v>0.8705204377280231</v>
@@ -1813,10 +1813,10 @@
         <v>0.5388791865924464</v>
       </c>
       <c r="E56">
-        <v>0.7861488965905035</v>
+        <v>0.7861488965905032</v>
       </c>
       <c r="F56">
-        <v>0.6366313752664382</v>
+        <v>0.6366313752664384</v>
       </c>
       <c r="G56">
         <v>0.7669272664630435</v>
@@ -1848,7 +1848,7 @@
         <v>0.6444010955101178</v>
       </c>
       <c r="H57">
-        <v>0.6264280010345381</v>
+        <v>0.626428001034538</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1859,16 +1859,16 @@
         <v>0.7408086077568372</v>
       </c>
       <c r="C58">
-        <v>0.8227939434328606</v>
+        <v>0.8227939434328605</v>
       </c>
       <c r="D58">
         <v>0.4525116459928332</v>
       </c>
       <c r="E58">
-        <v>0.7555380735712298</v>
+        <v>0.7555380735712299</v>
       </c>
       <c r="F58">
-        <v>0.6588922736763193</v>
+        <v>0.6588922736763194</v>
       </c>
       <c r="G58">
         <v>0.7244134742568363</v>
@@ -1885,13 +1885,13 @@
         <v>0.7408086077568372</v>
       </c>
       <c r="C59">
-        <v>0.8227939434328606</v>
+        <v>0.8227939434328605</v>
       </c>
       <c r="D59">
-        <v>0.4525116459928333</v>
+        <v>0.4525116459928332</v>
       </c>
       <c r="E59">
-        <v>0.7555380735712298</v>
+        <v>0.7555380735712299</v>
       </c>
       <c r="F59">
         <v>0.6588922736763194</v>
@@ -1917,7 +1917,7 @@
         <v>0.3340200843501117</v>
       </c>
       <c r="E60">
-        <v>0.5656173467026108</v>
+        <v>0.5656173467026109</v>
       </c>
       <c r="F60">
         <v>0.4801988156712858</v>
@@ -1926,7 +1926,7 @@
         <v>0.5500862157517188</v>
       </c>
       <c r="H60">
-        <v>0.5386842617655655</v>
+        <v>0.5386842617655654</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1940,10 +1940,10 @@
         <v>0.6195186915434255</v>
       </c>
       <c r="D61">
-        <v>0.3340200843501116</v>
+        <v>0.3340200843501117</v>
       </c>
       <c r="E61">
-        <v>0.5656173467026108</v>
+        <v>0.5656173467026109</v>
       </c>
       <c r="F61">
         <v>0.4801988156712858</v>
@@ -1975,7 +1975,7 @@
         <v>0.2708702243127799</v>
       </c>
       <c r="G62">
-        <v>0.4127516795939443</v>
+        <v>0.4127516795939444</v>
       </c>
       <c r="H62">
         <v>0.3978712071427218</v>
@@ -1995,13 +1995,13 @@
         <v>0.2010837389731803</v>
       </c>
       <c r="E63">
-        <v>0.4154241243733471</v>
+        <v>0.4154241243733472</v>
       </c>
       <c r="F63">
         <v>0.2708702243127799</v>
       </c>
       <c r="G63">
-        <v>0.4127516795939443</v>
+        <v>0.4127516795939444</v>
       </c>
       <c r="H63">
         <v>0.3978712071427218</v>
@@ -2012,7 +2012,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>0.212851422881214</v>
+        <v>0.2128514228812141</v>
       </c>
       <c r="C64">
         <v>0.4073997489190594</v>
@@ -2038,7 +2038,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>0.212851422881214</v>
+        <v>0.2128514228812141</v>
       </c>
       <c r="C65">
         <v>0.4073997489190594</v>
@@ -2064,7 +2064,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>0.8931746697813274</v>
+        <v>0.8931746697813272</v>
       </c>
       <c r="C66">
         <v>1.024593782095347</v>
@@ -2076,13 +2076,13 @@
         <v>0.9500909109366595</v>
       </c>
       <c r="F66">
-        <v>0.8318222252052231</v>
+        <v>0.8318222252052232</v>
       </c>
       <c r="G66">
-        <v>0.9249529299116485</v>
+        <v>0.9249529299116482</v>
       </c>
       <c r="H66">
-        <v>0.918435709051462</v>
+        <v>0.9184357090514621</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2090,7 +2090,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>0.8477388321520788</v>
+        <v>0.8477388321520787</v>
       </c>
       <c r="C67">
         <v>1.284329426942385</v>
@@ -2102,7 +2102,7 @@
         <v>1.123743836846773</v>
       </c>
       <c r="F67">
-        <v>0.7835312456637349</v>
+        <v>0.7835312456637351</v>
       </c>
       <c r="G67">
         <v>1.116996806474716</v>
@@ -2116,7 +2116,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>0.8931746697813274</v>
+        <v>0.8931746697813272</v>
       </c>
       <c r="C68">
         <v>1.024593782095347</v>
@@ -2128,13 +2128,13 @@
         <v>0.9500909109366595</v>
       </c>
       <c r="F68">
-        <v>0.8318222252052231</v>
+        <v>0.8318222252052232</v>
       </c>
       <c r="G68">
         <v>0.9249529299116485</v>
       </c>
       <c r="H68">
-        <v>0.918435709051462</v>
+        <v>0.9184357090514621</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2154,7 +2154,7 @@
         <v>1.123743836846773</v>
       </c>
       <c r="F69">
-        <v>0.7835312456637349</v>
+        <v>0.783531245663735</v>
       </c>
       <c r="G69">
         <v>1.116996806474716</v>
@@ -2180,7 +2180,7 @@
         <v>1.123743836846773</v>
       </c>
       <c r="F70">
-        <v>0.7835312456637349</v>
+        <v>0.783531245663735</v>
       </c>
       <c r="G70">
         <v>1.116996806474716</v>
@@ -2206,7 +2206,7 @@
         <v>1.236926651484957</v>
       </c>
       <c r="F71">
-        <v>0.7635149225175585</v>
+        <v>0.7635149225175584</v>
       </c>
       <c r="G71">
         <v>1.225799102882386</v>
@@ -2232,7 +2232,7 @@
         <v>1.175026870887005</v>
       </c>
       <c r="F72">
-        <v>0.7363180970142041</v>
+        <v>0.7363180970142044</v>
       </c>
       <c r="G72">
         <v>1.161012475513529</v>
@@ -2246,7 +2246,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>0.8352650937627263</v>
+        <v>0.8352650937627262</v>
       </c>
       <c r="C73">
         <v>1.355508199257397</v>
@@ -2258,7 +2258,7 @@
         <v>1.175026870887005</v>
       </c>
       <c r="F73">
-        <v>0.7363180970142041</v>
+        <v>0.7363180970142044</v>
       </c>
       <c r="G73">
         <v>1.161012475513529</v>
@@ -2272,7 +2272,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>0.8352650937627262</v>
+        <v>0.8352650937627261</v>
       </c>
       <c r="C74">
         <v>1.355508199257397</v>
@@ -2284,7 +2284,7 @@
         <v>1.175026870887005</v>
       </c>
       <c r="F74">
-        <v>0.7363180970142041</v>
+        <v>0.7363180970142044</v>
       </c>
       <c r="G74">
         <v>1.161012475513529</v>
@@ -2298,7 +2298,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>0.7365084151955984</v>
+        <v>0.7365084151955983</v>
       </c>
       <c r="C75">
         <v>1.060541365580849</v>
@@ -2324,7 +2324,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>0.8477388321520788</v>
+        <v>0.8477388321520787</v>
       </c>
       <c r="C76">
         <v>1.284329426942385</v>
@@ -2336,7 +2336,7 @@
         <v>1.123743836846773</v>
       </c>
       <c r="F76">
-        <v>0.7835312456637349</v>
+        <v>0.7835312456637351</v>
       </c>
       <c r="G76">
         <v>1.116996806474716</v>
@@ -2350,7 +2350,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>0.889524215207159</v>
+        <v>0.8895242152071591</v>
       </c>
       <c r="C77">
         <v>1.290843852167687</v>
@@ -2376,7 +2376,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>0.889524215207159</v>
+        <v>0.8895242152071591</v>
       </c>
       <c r="C78">
         <v>1.290843852167687</v>
@@ -2402,7 +2402,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>0.8895242152071589</v>
+        <v>0.889524215207159</v>
       </c>
       <c r="C79">
         <v>1.290843852167687</v>
@@ -2428,7 +2428,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>0.8895242152071589</v>
+        <v>0.8895242152071591</v>
       </c>
       <c r="C80">
         <v>1.290843852167687</v>
@@ -2460,7 +2460,7 @@
         <v>1.388834177247985</v>
       </c>
       <c r="D81">
-        <v>0.5072549699336285</v>
+        <v>0.5072549699336284</v>
       </c>
       <c r="E81">
         <v>1.206768361534535</v>
@@ -2486,7 +2486,7 @@
         <v>1.388834177247985</v>
       </c>
       <c r="D82">
-        <v>0.5072549699336285</v>
+        <v>0.5072549699336284</v>
       </c>
       <c r="E82">
         <v>1.206768361534535</v>
@@ -2512,7 +2512,7 @@
         <v>1.223405107852165</v>
       </c>
       <c r="D83">
-        <v>0.4178050996014237</v>
+        <v>0.4178050996014238</v>
       </c>
       <c r="E83">
         <v>1.068766104762308</v>
@@ -2538,7 +2538,7 @@
         <v>1.223405107852165</v>
       </c>
       <c r="D84">
-        <v>0.4178050996014237</v>
+        <v>0.4178050996014238</v>
       </c>
       <c r="E84">
         <v>1.068766104762308</v>
@@ -2561,7 +2561,7 @@
         <v>0.7299307709351471</v>
       </c>
       <c r="C85">
-        <v>1.433625766039588</v>
+        <v>1.433625766039587</v>
       </c>
       <c r="D85">
         <v>0.2557514533231225</v>
@@ -2570,7 +2570,7 @@
         <v>1.227298115338026</v>
       </c>
       <c r="F85">
-        <v>0.6727821780652352</v>
+        <v>0.6727821780652354</v>
       </c>
       <c r="G85">
         <v>1.179543427845884</v>
@@ -2596,7 +2596,7 @@
         <v>1.227298115338026</v>
       </c>
       <c r="F86">
-        <v>0.6727821780652352</v>
+        <v>0.6727821780652354</v>
       </c>
       <c r="G86">
         <v>1.179543427845884</v>
@@ -2636,7 +2636,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>0.8107090083473762</v>
+        <v>0.8107090083473764</v>
       </c>
       <c r="C88">
         <v>1.478878448131658</v>
@@ -2706,7 +2706,7 @@
         <v>1.178881810954938</v>
       </c>
       <c r="H90">
-        <v>1.160797147840247</v>
+        <v>1.160797147840246</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2723,7 +2723,7 @@
         <v>1.928825283016452</v>
       </c>
       <c r="E91">
-        <v>0.9957085633418372</v>
+        <v>0.9957085633418371</v>
       </c>
       <c r="F91">
         <v>1.513170659098422</v>
@@ -2732,7 +2732,7 @@
         <v>1.175901296105321</v>
       </c>
       <c r="H91">
-        <v>1.15897872626546</v>
+        <v>1.158978726265459</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2749,7 +2749,7 @@
         <v>1.952144632152412</v>
       </c>
       <c r="E92">
-        <v>0.9720430701966501</v>
+        <v>0.9720430701966499</v>
       </c>
       <c r="F92">
         <v>1.523621984017227</v>
@@ -2769,7 +2769,7 @@
         <v>1.249726670482553</v>
       </c>
       <c r="C93">
-        <v>0.8696082251672301</v>
+        <v>0.8696082251672299</v>
       </c>
       <c r="D93">
         <v>1.881167653541398</v>
@@ -2801,7 +2801,7 @@
         <v>1.792591008692158</v>
       </c>
       <c r="E94">
-        <v>0.9390562021811915</v>
+        <v>0.9390562021811912</v>
       </c>
       <c r="F94">
         <v>1.443490443530691</v>
@@ -2847,13 +2847,13 @@
         <v>1.262556669519856</v>
       </c>
       <c r="C96">
-        <v>0.5833772494058036</v>
+        <v>0.5833772494058035</v>
       </c>
       <c r="D96">
         <v>1.944235469586874</v>
       </c>
       <c r="E96">
-        <v>0.9800696335191347</v>
+        <v>0.9800696335191342</v>
       </c>
       <c r="F96">
         <v>1.520077235519911</v>
@@ -2862,7 +2862,7 @@
         <v>1.16748661685324</v>
       </c>
       <c r="H96">
-        <v>1.153844903731793</v>
+        <v>1.153844903731792</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2873,7 +2873,7 @@
         <v>1.249726670482553</v>
       </c>
       <c r="C97">
-        <v>0.8696082251672301</v>
+        <v>0.8696082251672299</v>
       </c>
       <c r="D97">
         <v>1.881167653541398</v>
@@ -2899,7 +2899,7 @@
         <v>1.168095083927899</v>
       </c>
       <c r="C98">
-        <v>0.843984930546767</v>
+        <v>0.8439849305467669</v>
       </c>
       <c r="D98">
         <v>1.626420576445535</v>
@@ -2914,7 +2914,7 @@
         <v>1.106105257157563</v>
       </c>
       <c r="H98">
-        <v>1.100362870519467</v>
+        <v>1.100362870519468</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2922,10 +2922,10 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>1.172068545691936</v>
+        <v>1.172068545691937</v>
       </c>
       <c r="C99">
-        <v>0.764603035793712</v>
+        <v>0.7646030357937119</v>
       </c>
       <c r="D99">
         <v>1.642302862164841</v>
@@ -2951,7 +2951,7 @@
         <v>1.252412022545988</v>
       </c>
       <c r="C100">
-        <v>0.7790472858239665</v>
+        <v>0.7790472858239664</v>
       </c>
       <c r="D100">
         <v>1.609494194224022</v>
@@ -3003,7 +3003,7 @@
         <v>1.250079001251787</v>
       </c>
       <c r="C102">
-        <v>0.8267420813711509</v>
+        <v>0.8267420813711508</v>
       </c>
       <c r="D102">
         <v>1.599360064697023</v>
@@ -3029,13 +3029,13 @@
         <v>1.126134252914868</v>
       </c>
       <c r="C103">
-        <v>0.8229717312355983</v>
+        <v>0.8229717312355981</v>
       </c>
       <c r="D103">
         <v>1.398427171306778</v>
       </c>
       <c r="E103">
-        <v>0.9793969779592679</v>
+        <v>0.9793969779592674</v>
       </c>
       <c r="F103">
         <v>1.239060393570554</v>
@@ -3055,13 +3055,13 @@
         <v>1.126134252914868</v>
       </c>
       <c r="C104">
-        <v>0.8229717312355983</v>
+        <v>0.8229717312355981</v>
       </c>
       <c r="D104">
         <v>1.398427171306779</v>
       </c>
       <c r="E104">
-        <v>0.9793969779592679</v>
+        <v>0.9793969779592674</v>
       </c>
       <c r="F104">
         <v>1.239060393570554</v>
@@ -3081,7 +3081,7 @@
         <v>1.163998097527492</v>
       </c>
       <c r="C105">
-        <v>1.141998909374601</v>
+        <v>1.1419989093746</v>
       </c>
       <c r="D105">
         <v>1.318372525987099</v>
@@ -3148,7 +3148,7 @@
         <v>1.331863620008726</v>
       </c>
       <c r="H107">
-        <v>1.291806666460104</v>
+        <v>1.291806666460103</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3168,7 +3168,7 @@
         <v>1.507656754147796</v>
       </c>
       <c r="F108">
-        <v>1.108674640198209</v>
+        <v>1.10867464019821</v>
       </c>
       <c r="G108">
         <v>1.538612004316177</v>
@@ -3240,7 +3240,7 @@
         <v>1.030179667275047</v>
       </c>
       <c r="D111">
-        <v>1.088142999923522</v>
+        <v>1.088142999923521</v>
       </c>
       <c r="E111">
         <v>1.052420264178076</v>
@@ -3263,13 +3263,13 @@
         <v>1.099544710665405</v>
       </c>
       <c r="C112">
-        <v>0.8436311624632158</v>
+        <v>0.8436311624632156</v>
       </c>
       <c r="D112">
         <v>1.303296923138009</v>
       </c>
       <c r="E112">
-        <v>0.9779789904967439</v>
+        <v>0.9779789904967436</v>
       </c>
       <c r="F112">
         <v>1.210471149747415</v>
@@ -3321,7 +3321,7 @@
         <v>0.8733301188894123</v>
       </c>
       <c r="E114">
-        <v>1.231667440108773</v>
+        <v>1.231667440108772</v>
       </c>
       <c r="F114">
         <v>1.019492719098116</v>
@@ -3341,19 +3341,19 @@
         <v>1.100541366070297</v>
       </c>
       <c r="C115">
-        <v>0.8242279866453801</v>
+        <v>0.8242279866453799</v>
       </c>
       <c r="D115">
         <v>1.306562240966735</v>
       </c>
       <c r="E115">
-        <v>0.9723669197699436</v>
+        <v>0.9723669197699434</v>
       </c>
       <c r="F115">
         <v>1.21205388159362</v>
       </c>
       <c r="G115">
-        <v>0.9991969761371047</v>
+        <v>0.9991969761371046</v>
       </c>
       <c r="H115">
         <v>1.031591971694624</v>
@@ -3367,7 +3367,7 @@
         <v>1.099544710665405</v>
       </c>
       <c r="C116">
-        <v>0.8436311624632159</v>
+        <v>0.8436311624632156</v>
       </c>
       <c r="D116">
         <v>1.303296923138009</v>
@@ -3390,7 +3390,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>1.051230063253877</v>
+        <v>1.051230063253878</v>
       </c>
       <c r="C117">
         <v>1.095139409539223</v>
@@ -3399,7 +3399,7 @@
         <v>0.9931902548274651</v>
       </c>
       <c r="E117">
-        <v>1.060450948941053</v>
+        <v>1.060450948941052</v>
       </c>
       <c r="F117">
         <v>1.070912910678123</v>
@@ -3416,7 +3416,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>0.9590733254899507</v>
+        <v>0.9590733254899509</v>
       </c>
       <c r="C118">
         <v>1.766480432535267</v>
@@ -3442,13 +3442,13 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>0.9351097553932523</v>
+        <v>0.9351097553932524</v>
       </c>
       <c r="C119">
         <v>1.525918017772669</v>
       </c>
       <c r="D119">
-        <v>0.6564970357195067</v>
+        <v>0.6564970357195065</v>
       </c>
       <c r="E119">
         <v>1.309556329032343</v>
@@ -3471,10 +3471,10 @@
         <v>1.173121037073702</v>
       </c>
       <c r="C120">
-        <v>0.8375338038300769</v>
+        <v>0.8375338038300766</v>
       </c>
       <c r="D120">
-        <v>1.698565785896225</v>
+        <v>1.698565785896224</v>
       </c>
       <c r="E120">
         <v>1.003508626409336</v>
@@ -3497,7 +3497,7 @@
         <v>1.173121037073702</v>
       </c>
       <c r="C121">
-        <v>0.8375338038300767</v>
+        <v>0.8375338038300766</v>
       </c>
       <c r="D121">
         <v>1.698565785896225</v>
@@ -3512,7 +3512,7 @@
         <v>1.128823454510646</v>
       </c>
       <c r="H121">
-        <v>1.117443194291111</v>
+        <v>1.11744319429111</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3523,7 +3523,7 @@
         <v>1.118554745461007</v>
       </c>
       <c r="C122">
-        <v>1.133950403655017</v>
+        <v>1.133950403655016</v>
       </c>
       <c r="D122">
         <v>1.057407348779093</v>
@@ -3535,7 +3535,7 @@
         <v>1.122344812997591</v>
       </c>
       <c r="G122">
-        <v>1.076306488143299</v>
+        <v>1.076306488143298</v>
       </c>
       <c r="H122">
         <v>1.09156562067784</v>
@@ -3575,7 +3575,7 @@
         <v>1.118554745461007</v>
       </c>
       <c r="C124">
-        <v>1.133950403655017</v>
+        <v>1.133950403655016</v>
       </c>
       <c r="D124">
         <v>1.057407348779093</v>
@@ -3587,7 +3587,7 @@
         <v>1.122344812997591</v>
       </c>
       <c r="G124">
-        <v>1.076306488143299</v>
+        <v>1.076306488143298</v>
       </c>
       <c r="H124">
         <v>1.09156562067784</v>
@@ -3630,13 +3630,13 @@
         <v>1.371446644680653</v>
       </c>
       <c r="D126">
-        <v>0.8944657762507752</v>
+        <v>0.8944657762507751</v>
       </c>
       <c r="E126">
         <v>1.233343412701477</v>
       </c>
       <c r="F126">
-        <v>1.050177481678078</v>
+        <v>1.050177481678079</v>
       </c>
       <c r="G126">
         <v>1.213125730768476</v>
@@ -3650,19 +3650,19 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>1.13338605128433</v>
+        <v>1.133386051284331</v>
       </c>
       <c r="C127">
         <v>1.43068362110556</v>
       </c>
       <c r="D127">
-        <v>0.9545535573826619</v>
+        <v>0.9545535573826617</v>
       </c>
       <c r="E127">
         <v>1.296326495725597</v>
       </c>
       <c r="F127">
-        <v>1.105096264000139</v>
+        <v>1.10509626400014</v>
       </c>
       <c r="G127">
         <v>1.277731676486536</v>
@@ -3679,10 +3679,10 @@
         <v>1.145528178292538</v>
       </c>
       <c r="C128">
-        <v>1.637784506708869</v>
+        <v>1.637784506708868</v>
       </c>
       <c r="D128">
-        <v>0.9179539684528223</v>
+        <v>0.9179539684528222</v>
       </c>
       <c r="E128">
         <v>1.410702701881989</v>
@@ -3691,7 +3691,7 @@
         <v>1.112437534112033</v>
       </c>
       <c r="G128">
-        <v>1.420684206661828</v>
+        <v>1.420684206661827</v>
       </c>
       <c r="H128">
         <v>1.360327625951421</v>
@@ -3705,10 +3705,10 @@
         <v>1.145528178292538</v>
       </c>
       <c r="C129">
-        <v>1.637784506708869</v>
+        <v>1.637784506708868</v>
       </c>
       <c r="D129">
-        <v>0.9179539684528225</v>
+        <v>0.9179539684528223</v>
       </c>
       <c r="E129">
         <v>1.410702701881989</v>
@@ -3731,7 +3731,7 @@
         <v>1.29384307622491</v>
       </c>
       <c r="C130">
-        <v>0.8166552298807003</v>
+        <v>0.8166552298807001</v>
       </c>
       <c r="D130">
         <v>1.739450232202944</v>
@@ -3757,13 +3757,13 @@
         <v>1.302447181780128</v>
       </c>
       <c r="C131">
-        <v>0.5878374243040506</v>
+        <v>0.5878374243040505</v>
       </c>
       <c r="D131">
-        <v>1.786337899745596</v>
+        <v>1.786337899745595</v>
       </c>
       <c r="E131">
-        <v>0.9990306599559378</v>
+        <v>0.9990306599559375</v>
       </c>
       <c r="F131">
         <v>1.453378033190769</v>
@@ -3783,7 +3783,7 @@
         <v>1.301805833673496</v>
       </c>
       <c r="C132">
-        <v>0.6048934524325479</v>
+        <v>0.6048934524325478</v>
       </c>
       <c r="D132">
         <v>1.782842903477837</v>
@@ -3809,7 +3809,7 @@
         <v>1.298748862040283</v>
       </c>
       <c r="C133">
-        <v>0.6861906350778342</v>
+        <v>0.686190635077834</v>
       </c>
       <c r="D133">
         <v>1.766184080697765</v>
@@ -3835,13 +3835,13 @@
         <v>1.262671960828353</v>
       </c>
       <c r="C134">
-        <v>0.610989826715675</v>
+        <v>0.6109898267156749</v>
       </c>
       <c r="D134">
         <v>1.860139795091244</v>
       </c>
       <c r="E134">
-        <v>0.9853600108268905</v>
+        <v>0.9853600108268901</v>
       </c>
       <c r="F134">
         <v>1.482129733142066</v>
@@ -3861,7 +3861,7 @@
         <v>1.305658930777625</v>
       </c>
       <c r="C135">
-        <v>0.8201639171955442</v>
+        <v>0.8201639171955439</v>
       </c>
       <c r="D135">
         <v>1.629532943645436</v>
@@ -3887,7 +3887,7 @@
         <v>1.285997640156685</v>
       </c>
       <c r="C136">
-        <v>0.8255454955751343</v>
+        <v>0.8255454955751341</v>
       </c>
       <c r="D136">
         <v>1.452383628789401</v>
@@ -3913,7 +3913,7 @@
         <v>1.284563464805539</v>
       </c>
       <c r="C137">
-        <v>0.8612224733864604</v>
+        <v>0.86122247338646</v>
       </c>
       <c r="D137">
         <v>1.445031588941708</v>
@@ -3925,7 +3925,7 @@
         <v>1.296394165120965</v>
       </c>
       <c r="G137">
-        <v>1.023703265598809</v>
+        <v>1.023703265598808</v>
       </c>
       <c r="H137">
         <v>1.048256588542727</v>
@@ -3939,7 +3939,7 @@
         <v>1.284563464805539</v>
       </c>
       <c r="C138">
-        <v>0.8612224733864604</v>
+        <v>0.86122247338646</v>
       </c>
       <c r="D138">
         <v>1.445031588941707</v>
@@ -3951,7 +3951,7 @@
         <v>1.296394165120965</v>
       </c>
       <c r="G138">
-        <v>1.023703265598809</v>
+        <v>1.023703265598808</v>
       </c>
       <c r="H138">
         <v>1.048256588542727</v>
@@ -3965,7 +3965,7 @@
         <v>1.249828512194785</v>
       </c>
       <c r="C139">
-        <v>0.8445969305697978</v>
+        <v>0.8445969305697976</v>
       </c>
       <c r="D139">
         <v>1.548924599563171</v>
@@ -4017,7 +4017,7 @@
         <v>1.249828512194785</v>
       </c>
       <c r="C141">
-        <v>0.8445969305697978</v>
+        <v>0.8445969305697976</v>
       </c>
       <c r="D141">
         <v>1.548924599563171</v>
@@ -4043,7 +4043,7 @@
         <v>1.250538376370172</v>
       </c>
       <c r="C142">
-        <v>0.8281465536789916</v>
+        <v>0.8281465536789915</v>
       </c>
       <c r="D142">
         <v>1.552420121359664</v>
@@ -4069,7 +4069,7 @@
         <v>1.226419095273</v>
       </c>
       <c r="C143">
-        <v>0.847720487009222</v>
+        <v>0.8477204870092219</v>
       </c>
       <c r="D143">
         <v>1.229874247368051</v>
@@ -4092,7 +4092,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>1.209590308770438</v>
+        <v>1.209590308770439</v>
       </c>
       <c r="C144">
         <v>1.128423102430741</v>
@@ -4118,7 +4118,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>1.209590308770438</v>
+        <v>1.209590308770439</v>
       </c>
       <c r="C145">
         <v>1.128423102430741</v>
@@ -4144,13 +4144,13 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>1.154555633349318</v>
+        <v>1.154555633349319</v>
       </c>
       <c r="C146">
         <v>1.553708528048368</v>
       </c>
       <c r="D146">
-        <v>0.9465075897511305</v>
+        <v>0.9465075897511304</v>
       </c>
       <c r="E146">
         <v>1.379622726898493</v>
@@ -4159,10 +4159,10 @@
         <v>1.123517693656708</v>
       </c>
       <c r="G146">
-        <v>1.383675067689154</v>
+        <v>1.383675067689153</v>
       </c>
       <c r="H146">
-        <v>1.335711373712993</v>
+        <v>1.335711373712992</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4199,10 +4199,10 @@
         <v>1.25378215172773</v>
       </c>
       <c r="C148">
-        <v>1.07557519907381</v>
+        <v>1.075575199073809</v>
       </c>
       <c r="D148">
-        <v>1.131642503884982</v>
+        <v>1.131642503884981</v>
       </c>
       <c r="E148">
         <v>1.074322271757617</v>
@@ -4225,13 +4225,13 @@
         <v>1.194458387065064</v>
       </c>
       <c r="C149">
-        <v>0.7555084861403504</v>
+        <v>0.75550848614035</v>
       </c>
       <c r="D149">
         <v>1.323194132424655</v>
       </c>
       <c r="E149">
-        <v>0.9424637782113184</v>
+        <v>0.9424637782113183</v>
       </c>
       <c r="F149">
         <v>1.222063985611569</v>
@@ -4240,7 +4240,7 @@
         <v>0.9400488281692324</v>
       </c>
       <c r="H149">
-        <v>0.98131794614861</v>
+        <v>0.9813179461486097</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4251,7 +4251,7 @@
         <v>1.194458387065064</v>
       </c>
       <c r="C150">
-        <v>0.7555084861403503</v>
+        <v>0.75550848614035</v>
       </c>
       <c r="D150">
         <v>1.323194132424655</v>
@@ -4266,7 +4266,7 @@
         <v>0.9400488281692324</v>
       </c>
       <c r="H150">
-        <v>0.9813179461486099</v>
+        <v>0.9813179461486097</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4277,22 +4277,22 @@
         <v>1.196975780069749</v>
       </c>
       <c r="C151">
-        <v>0.7017565620524407</v>
+        <v>0.7017565620524404</v>
       </c>
       <c r="D151">
         <v>1.334322094164326</v>
       </c>
       <c r="E151">
-        <v>0.934008518906621</v>
+        <v>0.9340085189066207</v>
       </c>
       <c r="F151">
         <v>1.225771713052454</v>
       </c>
       <c r="G151">
-        <v>0.9294671242190307</v>
+        <v>0.9294671242190305</v>
       </c>
       <c r="H151">
-        <v>0.9767261176762384</v>
+        <v>0.9767261176762383</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>0.9400488281692325</v>
       </c>
       <c r="H152">
-        <v>0.98131794614861</v>
+        <v>0.9813179461486097</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>1.238437164423966</v>
       </c>
       <c r="H153">
-        <v>1.184166630586749</v>
+        <v>1.184166630586748</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>1.238437164423966</v>
       </c>
       <c r="H154">
-        <v>1.184166630586749</v>
+        <v>1.184166630586748</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4381,19 +4381,19 @@
         <v>1.118446953444368</v>
       </c>
       <c r="C155">
-        <v>0.9529220720395732</v>
+        <v>0.952922072039573</v>
       </c>
       <c r="D155">
-        <v>0.9611355796840839</v>
+        <v>0.9611355796840837</v>
       </c>
       <c r="E155">
-        <v>0.9587477108846072</v>
+        <v>0.9587477108846069</v>
       </c>
       <c r="F155">
         <v>1.065431110713733</v>
       </c>
       <c r="G155">
-        <v>0.9015226057409907</v>
+        <v>0.9015226057409906</v>
       </c>
       <c r="H155">
         <v>0.9395969678945141</v>
@@ -4407,22 +4407,22 @@
         <v>1.118446953444368</v>
       </c>
       <c r="C156">
-        <v>0.9529220720395731</v>
+        <v>0.952922072039573</v>
       </c>
       <c r="D156">
-        <v>0.9611355796840838</v>
+        <v>0.9611355796840837</v>
       </c>
       <c r="E156">
-        <v>0.9587477108846071</v>
+        <v>0.9587477108846068</v>
       </c>
       <c r="F156">
-        <v>1.065431110713732</v>
+        <v>1.065431110713733</v>
       </c>
       <c r="G156">
         <v>0.9015226057409907</v>
       </c>
       <c r="H156">
-        <v>0.9395969678945142</v>
+        <v>0.939596967894514</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4433,16 +4433,16 @@
         <v>1.103870861284661</v>
       </c>
       <c r="C157">
-        <v>1.147416219130683</v>
+        <v>1.147416219130682</v>
       </c>
       <c r="D157">
-        <v>0.8606066637597609</v>
+        <v>0.8606066637597607</v>
       </c>
       <c r="E157">
         <v>1.054420990205357</v>
       </c>
       <c r="F157">
-        <v>1.038785996784933</v>
+        <v>1.038785996784934</v>
       </c>
       <c r="G157">
         <v>1.01801880402031</v>
@@ -4459,7 +4459,7 @@
         <v>1.140214844757802</v>
       </c>
       <c r="C158">
-        <v>0.9829525946168748</v>
+        <v>0.9829525946168746</v>
       </c>
       <c r="D158">
         <v>1.106319744921551</v>
@@ -4474,7 +4474,7 @@
         <v>0.9701853720743925</v>
       </c>
       <c r="H158">
-        <v>0.9869369626122959</v>
+        <v>0.9869369626122957</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4482,25 +4482,25 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>1.142860917454319</v>
+        <v>1.14286091745432</v>
       </c>
       <c r="C159">
-        <v>0.7135539281776071</v>
+        <v>0.713553928177607</v>
       </c>
       <c r="D159">
         <v>1.253118583692988</v>
       </c>
       <c r="E159">
-        <v>0.9000230006620605</v>
+        <v>0.9000230006620602</v>
       </c>
       <c r="F159">
         <v>1.161757319003017</v>
       </c>
       <c r="G159">
-        <v>0.8895311541462934</v>
+        <v>0.8895311541462932</v>
       </c>
       <c r="H159">
-        <v>0.9331823188348506</v>
+        <v>0.9331823188348505</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4511,22 +4511,22 @@
         <v>1.072605633906593</v>
       </c>
       <c r="C160">
-        <v>0.9320716539168705</v>
+        <v>0.9320716539168703</v>
       </c>
       <c r="D160">
         <v>0.9894572421618917</v>
       </c>
       <c r="E160">
-        <v>0.9461506815607782</v>
+        <v>0.9461506815607779</v>
       </c>
       <c r="F160">
         <v>1.041581633985275</v>
       </c>
       <c r="G160">
-        <v>0.9084179854499745</v>
+        <v>0.9084179854499744</v>
       </c>
       <c r="H160">
-        <v>0.9340975809993566</v>
+        <v>0.9340975809993564</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4537,10 +4537,10 @@
         <v>1.023810301322952</v>
       </c>
       <c r="C161">
-        <v>1.154321410528382</v>
+        <v>1.154321410528381</v>
       </c>
       <c r="D161">
-        <v>0.9060968511561455</v>
+        <v>0.9060968511561456</v>
       </c>
       <c r="E161">
         <v>1.056485903024311</v>
@@ -4569,7 +4569,7 @@
         <v>0.7900010654081709</v>
       </c>
       <c r="E162">
-        <v>1.177011762133905</v>
+        <v>1.177011762133904</v>
       </c>
       <c r="F162">
         <v>0.9743994763152179</v>
@@ -4589,13 +4589,13 @@
         <v>1.152395698062047</v>
       </c>
       <c r="C163">
-        <v>0.7288553448871082</v>
+        <v>0.7288553448871081</v>
       </c>
       <c r="D163">
-        <v>1.240237659634274</v>
+        <v>1.240237659634273</v>
       </c>
       <c r="E163">
-        <v>0.9191402200699962</v>
+        <v>0.919140220069996</v>
       </c>
       <c r="F163">
         <v>1.181189936544151</v>
@@ -4604,7 +4604,7 @@
         <v>0.9009927311907451</v>
       </c>
       <c r="H163">
-        <v>0.959104250402346</v>
+        <v>0.9591042504023458</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4627,7 +4627,7 @@
         <v>1.130185974776808</v>
       </c>
       <c r="G164">
-        <v>0.9868593546629443</v>
+        <v>0.9868593546629439</v>
       </c>
       <c r="H164">
         <v>1.015719838798056</v>
@@ -4641,22 +4641,22 @@
         <v>1.06691930263913</v>
       </c>
       <c r="C165">
-        <v>0.9341325431939932</v>
+        <v>0.9341325431939931</v>
       </c>
       <c r="D165">
         <v>0.9069286026165246</v>
       </c>
       <c r="E165">
-        <v>0.9539826217366763</v>
+        <v>0.9539826217366761</v>
       </c>
       <c r="F165">
         <v>1.03764897085165</v>
       </c>
       <c r="G165">
-        <v>0.8950970540716643</v>
+        <v>0.8950970540716644</v>
       </c>
       <c r="H165">
-        <v>0.9445782602348323</v>
+        <v>0.944578260234832</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4667,7 +4667,7 @@
         <v>1.06691930263913</v>
       </c>
       <c r="C166">
-        <v>0.9341325431939932</v>
+        <v>0.934132543193993</v>
       </c>
       <c r="D166">
         <v>0.9069286026165246</v>
@@ -4679,10 +4679,10 @@
         <v>1.03764897085165</v>
       </c>
       <c r="G166">
-        <v>0.8950970540716643</v>
+        <v>0.8950970540716642</v>
       </c>
       <c r="H166">
-        <v>0.9445782602348322</v>
+        <v>0.9445782602348319</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4690,7 +4690,7 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>0.9957159271312106</v>
+        <v>0.9957159271312108</v>
       </c>
       <c r="C167">
         <v>1.194136651044848</v>
@@ -4702,7 +4702,7 @@
         <v>1.086061762124835</v>
       </c>
       <c r="F167">
-        <v>0.9639299250047068</v>
+        <v>0.9639299250047069</v>
       </c>
       <c r="G167">
         <v>1.058998914519784</v>
@@ -4716,7 +4716,7 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>0.9334908460944756</v>
+        <v>0.9334908460944757</v>
       </c>
       <c r="C168">
         <v>1.499578835292473</v>
@@ -4745,10 +4745,10 @@
         <v>1.278461559097989</v>
       </c>
       <c r="C169">
-        <v>0.866177999369225</v>
+        <v>0.8661779993692249</v>
       </c>
       <c r="D169">
-        <v>1.657839782256456</v>
+        <v>1.657839782256455</v>
       </c>
       <c r="E169">
         <v>1.057480748776899</v>
@@ -4777,13 +4777,13 @@
         <v>1.655059025903773</v>
       </c>
       <c r="E170">
-        <v>1.022557650601869</v>
+        <v>1.022557650601868</v>
       </c>
       <c r="F170">
         <v>1.412635865675608</v>
       </c>
       <c r="G170">
-        <v>1.085675259068258</v>
+        <v>1.085675259068257</v>
       </c>
       <c r="H170">
         <v>1.103224864330919</v>
@@ -4797,7 +4797,7 @@
         <v>1.27794945372345</v>
       </c>
       <c r="C171">
-        <v>0.8788136128766345</v>
+        <v>0.8788136128766343</v>
       </c>
       <c r="D171">
         <v>1.655420329326171</v>
@@ -4809,7 +4809,7 @@
         <v>1.40576604440054</v>
       </c>
       <c r="G171">
-        <v>1.133026518152131</v>
+        <v>1.13302651815213</v>
       </c>
       <c r="H171">
         <v>1.133421505963099</v>
@@ -4823,7 +4823,7 @@
         <v>1.302607656163446</v>
       </c>
       <c r="C172">
-        <v>0.8289558241902226</v>
+        <v>0.8289558241902225</v>
       </c>
       <c r="D172">
         <v>1.636603355722148</v>
@@ -4832,7 +4832,7 @@
         <v>1.038647249015714</v>
       </c>
       <c r="F172">
-        <v>1.405926067570613</v>
+        <v>1.405926067570614</v>
       </c>
       <c r="G172">
         <v>1.100293209879418</v>
@@ -4849,7 +4849,7 @@
         <v>1.309361056867844</v>
       </c>
       <c r="C173">
-        <v>0.6610201418732076</v>
+        <v>0.6610201418732073</v>
       </c>
       <c r="D173">
         <v>1.670157565124073</v>
@@ -4864,7 +4864,7 @@
         <v>1.073716348799993</v>
       </c>
       <c r="H173">
-        <v>1.097181344941394</v>
+        <v>1.097181344941393</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4875,7 +4875,7 @@
         <v>1.326910142647686</v>
       </c>
       <c r="C174">
-        <v>0.6076889277924681</v>
+        <v>0.6076889277924679</v>
       </c>
       <c r="D174">
         <v>1.71097509147336</v>
@@ -4916,7 +4916,7 @@
         <v>1.278413753817088</v>
       </c>
       <c r="H175">
-        <v>1.25645173896662</v>
+        <v>1.256451738966619</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4933,7 +4933,7 @@
         <v>1.188224567732031</v>
       </c>
       <c r="E176">
-        <v>1.159347909754056</v>
+        <v>1.159347909754055</v>
       </c>
       <c r="F176">
         <v>1.242657224362127</v>
@@ -5034,7 +5034,7 @@
         <v>1.725484096232014</v>
       </c>
       <c r="D180">
-        <v>0.8325445235949259</v>
+        <v>0.8325445235949258</v>
       </c>
       <c r="E180">
         <v>1.47418153496063</v>
@@ -5060,7 +5060,7 @@
         <v>1.725484096232014</v>
       </c>
       <c r="D181">
-        <v>0.8325445235949259</v>
+        <v>0.8325445235949258</v>
       </c>
       <c r="E181">
         <v>1.47418153496063</v>
@@ -5086,7 +5086,7 @@
         <v>1.515330364181895</v>
       </c>
       <c r="D182">
-        <v>0.7074332098008769</v>
+        <v>0.7074332098008768</v>
       </c>
       <c r="E182">
         <v>1.296524103111374</v>
@@ -5112,7 +5112,7 @@
         <v>1.382897430933103</v>
       </c>
       <c r="D183">
-        <v>0.5993958452089987</v>
+        <v>0.5993958452089986</v>
       </c>
       <c r="E183">
         <v>1.198585581194573</v>
@@ -5144,13 +5144,13 @@
         <v>1.252772605099877</v>
       </c>
       <c r="F184">
-        <v>1.138721402193903</v>
+        <v>1.138721402193902</v>
       </c>
       <c r="G184">
         <v>1.20619306948167</v>
       </c>
       <c r="H184">
-        <v>1.202856498235079</v>
+        <v>1.202856498235078</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5167,16 +5167,16 @@
         <v>0.9062384394199369</v>
       </c>
       <c r="E185">
-        <v>1.252772605099877</v>
+        <v>1.252772605099876</v>
       </c>
       <c r="F185">
-        <v>1.138721402193903</v>
+        <v>1.138721402193902</v>
       </c>
       <c r="G185">
         <v>1.20619306948167</v>
       </c>
       <c r="H185">
-        <v>1.202856498235079</v>
+        <v>1.202856498235078</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5196,13 +5196,13 @@
         <v>1.31759794119424</v>
       </c>
       <c r="F186">
-        <v>1.043027606644746</v>
+        <v>1.043027606644747</v>
       </c>
       <c r="G186">
         <v>1.308527784173029</v>
       </c>
       <c r="H186">
-        <v>1.263937248449086</v>
+        <v>1.263937248449085</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5219,7 +5219,7 @@
         <v>0.8855000439114051</v>
       </c>
       <c r="E187">
-        <v>1.165502180579078</v>
+        <v>1.165502180579077</v>
       </c>
       <c r="F187">
         <v>1.086769595511923</v>
@@ -5262,7 +5262,7 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>1.072538925757274</v>
+        <v>1.072538925757275</v>
       </c>
       <c r="C189">
         <v>1.524277440365524</v>
@@ -5280,7 +5280,7 @@
         <v>1.286992168279617</v>
       </c>
       <c r="H189">
-        <v>1.2440953335776</v>
+        <v>1.244095333577599</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5288,7 +5288,7 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>1.072538925757274</v>
+        <v>1.072538925757275</v>
       </c>
       <c r="C190">
         <v>1.524277440365524</v>
@@ -5349,7 +5349,7 @@
         <v>0.8855000439114051</v>
       </c>
       <c r="E192">
-        <v>1.165502180579078</v>
+        <v>1.165502180579077</v>
       </c>
       <c r="F192">
         <v>1.086769595511923</v>
@@ -5369,7 +5369,7 @@
         <v>1.250079001251787</v>
       </c>
       <c r="C193">
-        <v>0.8267420813711509</v>
+        <v>0.8267420813711508</v>
       </c>
       <c r="D193">
         <v>1.599360064697023</v>
@@ -5395,13 +5395,13 @@
         <v>1.258598703685597</v>
       </c>
       <c r="C194">
-        <v>0.6525707325225768</v>
+        <v>0.6525707325225767</v>
       </c>
       <c r="D194">
         <v>1.636367771489212</v>
       </c>
       <c r="E194">
-        <v>0.979832813928012</v>
+        <v>0.9798328139280118</v>
       </c>
       <c r="F194">
         <v>1.390204356009664</v>
@@ -5424,7 +5424,7 @@
         <v>0.8471986428813659</v>
       </c>
       <c r="D195">
-        <v>1.661473927891137</v>
+        <v>1.661473927891136</v>
       </c>
       <c r="E195">
         <v>1.053341687109777</v>
@@ -5447,13 +5447,13 @@
         <v>1.252435438398351</v>
       </c>
       <c r="C196">
-        <v>0.8395113704202583</v>
+        <v>0.8395113704202581</v>
       </c>
       <c r="D196">
         <v>1.369067563929352</v>
       </c>
       <c r="E196">
-        <v>1.01942910742724</v>
+        <v>1.019429107427239</v>
       </c>
       <c r="F196">
         <v>1.302460579853198</v>
@@ -5470,16 +5470,16 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>1.225457632476596</v>
+        <v>1.225457632476597</v>
       </c>
       <c r="C197">
-        <v>0.8231449891356635</v>
+        <v>0.8231449891356634</v>
       </c>
       <c r="D197">
-        <v>1.401111470880771</v>
+        <v>1.40111147088077</v>
       </c>
       <c r="E197">
-        <v>0.9961946095128016</v>
+        <v>0.9961946095128014</v>
       </c>
       <c r="F197">
         <v>1.2874593316703</v>
@@ -5499,10 +5499,10 @@
         <v>1.229820451481549</v>
       </c>
       <c r="C198">
-        <v>0.7390108664060188</v>
+        <v>0.7390108664060187</v>
       </c>
       <c r="D198">
-        <v>1.417470543854396</v>
+        <v>1.417470543854395</v>
       </c>
       <c r="E198">
         <v>0.9775037441696985</v>
@@ -5511,10 +5511,10 @@
         <v>1.294154471897928</v>
       </c>
       <c r="G198">
-        <v>0.9862340479129379</v>
+        <v>0.9862340479129378</v>
       </c>
       <c r="H198">
-        <v>1.033328632373763</v>
+        <v>1.033328632373762</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>1.09704178351957</v>
       </c>
       <c r="H199">
-        <v>1.112214556698538</v>
+        <v>1.112214556698537</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5586,13 +5586,13 @@
         <v>1.241218209457468</v>
       </c>
       <c r="F201">
-        <v>1.17636193646718</v>
+        <v>1.176361936467181</v>
       </c>
       <c r="G201">
         <v>1.25100435723727</v>
       </c>
       <c r="H201">
-        <v>1.228351402002795</v>
+        <v>1.228351402002796</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5684,7 +5684,7 @@
         <v>1.415739619356573</v>
       </c>
       <c r="D205">
-        <v>0.9779607082129695</v>
+        <v>0.9779607082129694</v>
       </c>
       <c r="E205">
         <v>1.287894312465781</v>
@@ -5716,10 +5716,10 @@
         <v>0.6925041851407038</v>
       </c>
       <c r="F206">
-        <v>0.9966806884495133</v>
+        <v>0.9966806884495135</v>
       </c>
       <c r="G206">
-        <v>0.8086009486198505</v>
+        <v>0.8086009486198504</v>
       </c>
       <c r="H206">
         <v>0.7985957240900503</v>
@@ -5730,7 +5730,7 @@
         <v>206</v>
       </c>
       <c r="B207">
-        <v>0.8234093095378108</v>
+        <v>0.8234093095378109</v>
       </c>
       <c r="C207">
         <v>0.5302564520012146</v>
@@ -5739,10 +5739,10 @@
         <v>1.138786045897711</v>
       </c>
       <c r="E207">
-        <v>0.6619686415036282</v>
+        <v>0.6619686415036281</v>
       </c>
       <c r="F207">
-        <v>0.9254740055761235</v>
+        <v>0.9254740055761236</v>
       </c>
       <c r="G207">
         <v>0.7205834879128268</v>
@@ -5768,7 +5768,7 @@
         <v>0.6619686415036282</v>
       </c>
       <c r="F208">
-        <v>0.9254740055761234</v>
+        <v>0.9254740055761236</v>
       </c>
       <c r="G208">
         <v>0.7205834879128268</v>
@@ -5817,13 +5817,13 @@
         <v>1.138786045897711</v>
       </c>
       <c r="E210">
-        <v>0.6619686415036283</v>
+        <v>0.6619686415036282</v>
       </c>
       <c r="F210">
-        <v>0.9254740055761235</v>
+        <v>0.9254740055761236</v>
       </c>
       <c r="G210">
-        <v>0.7205834879128269</v>
+        <v>0.7205834879128268</v>
       </c>
       <c r="H210">
         <v>0.7312724608232124</v>
@@ -5837,7 +5837,7 @@
         <v>0.8242141311379201</v>
       </c>
       <c r="C211">
-        <v>0.7809817491002754</v>
+        <v>0.7809817491002753</v>
       </c>
       <c r="D211">
         <v>0.9848314445452542</v>
@@ -5852,7 +5852,7 @@
         <v>0.8018590231007308</v>
       </c>
       <c r="H211">
-        <v>0.7975863693017711</v>
+        <v>0.797586369301771</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5863,13 +5863,13 @@
         <v>0.8275398123656136</v>
       </c>
       <c r="C212">
-        <v>0.8633791919328374</v>
+        <v>0.8633791919328373</v>
       </c>
       <c r="D212">
-        <v>1.033050789981087</v>
+        <v>1.033050789981086</v>
       </c>
       <c r="E212">
-        <v>0.8551315672067914</v>
+        <v>0.8551315672067913</v>
       </c>
       <c r="F212">
         <v>0.8754109439566783</v>
@@ -5889,7 +5889,7 @@
         <v>0.8234093095378109</v>
       </c>
       <c r="C213">
-        <v>0.5302564520012146</v>
+        <v>0.5302564520012147</v>
       </c>
       <c r="D213">
         <v>1.138786045897711</v>
@@ -5898,7 +5898,7 @@
         <v>0.6619686415036282</v>
       </c>
       <c r="F213">
-        <v>0.9254740055761232</v>
+        <v>0.9254740055761236</v>
       </c>
       <c r="G213">
         <v>0.7205834879128268</v>
@@ -5938,19 +5938,19 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>0.839350141326217</v>
+        <v>0.8393501413262172</v>
       </c>
       <c r="C215">
         <v>0.68227714506021</v>
       </c>
       <c r="D215">
-        <v>0.8836463430079041</v>
+        <v>0.883646343007904</v>
       </c>
       <c r="E215">
         <v>0.7230556523335998</v>
       </c>
       <c r="F215">
-        <v>0.8309831786397842</v>
+        <v>0.8309831786397844</v>
       </c>
       <c r="G215">
         <v>0.7055953889887068</v>
@@ -5990,16 +5990,16 @@
         <v>216</v>
       </c>
       <c r="B217">
-        <v>0.7819319085467746</v>
+        <v>0.7819319085467747</v>
       </c>
       <c r="C217">
-        <v>0.7064504752527491</v>
+        <v>0.706450475252749</v>
       </c>
       <c r="D217">
         <v>0.8923430526675618</v>
       </c>
       <c r="E217">
-        <v>0.7207354592640624</v>
+        <v>0.7207354592640621</v>
       </c>
       <c r="F217">
         <v>0.7818212031001772</v>
@@ -6016,10 +6016,10 @@
         <v>217</v>
       </c>
       <c r="B218">
-        <v>0.7680801518402601</v>
+        <v>0.7680801518402602</v>
       </c>
       <c r="C218">
-        <v>0.9210687822942162</v>
+        <v>0.9210687822942161</v>
       </c>
       <c r="D218">
         <v>0.7946522324399476</v>
@@ -6031,10 +6031,10 @@
         <v>0.7411603708143423</v>
       </c>
       <c r="G218">
-        <v>0.8507248219804278</v>
+        <v>0.8507248219804276</v>
       </c>
       <c r="H218">
-        <v>0.8271547855222194</v>
+        <v>0.8271547855222193</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6045,10 +6045,10 @@
         <v>0.8139939484804216</v>
       </c>
       <c r="C219">
-        <v>0.8165578474671495</v>
+        <v>0.8165578474671494</v>
       </c>
       <c r="D219">
-        <v>0.923488670958901</v>
+        <v>0.9234886709589007</v>
       </c>
       <c r="E219">
         <v>0.8169209084989679</v>
@@ -6057,10 +6057,10 @@
         <v>0.8500934280665252</v>
       </c>
       <c r="G219">
-        <v>0.8154921345184805</v>
+        <v>0.8154921345184803</v>
       </c>
       <c r="H219">
-        <v>0.8234577003873965</v>
+        <v>0.8234577003873964</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6071,19 +6071,19 @@
         <v>0.8051772679733189</v>
       </c>
       <c r="C220">
-        <v>0.897500474544727</v>
+        <v>0.8975004745447269</v>
       </c>
       <c r="D220">
-        <v>0.9521320580559448</v>
+        <v>0.9521320580559447</v>
       </c>
       <c r="E220">
-        <v>0.8741591579132373</v>
+        <v>0.874159157913237</v>
       </c>
       <c r="F220">
         <v>0.8397846735274516</v>
       </c>
       <c r="G220">
-        <v>0.8816068239945168</v>
+        <v>0.8816068239945166</v>
       </c>
       <c r="H220">
         <v>0.8709118610277073</v>
@@ -6100,10 +6100,10 @@
         <v>1.08662410002955</v>
       </c>
       <c r="D221">
-        <v>0.7680154704377099</v>
+        <v>0.7680154704377097</v>
       </c>
       <c r="E221">
-        <v>0.9896153861009778</v>
+        <v>0.9896153861009777</v>
       </c>
       <c r="F221">
         <v>0.8115127542183835</v>
@@ -6123,19 +6123,19 @@
         <v>0.8139939484804216</v>
       </c>
       <c r="C222">
-        <v>0.8165578474671495</v>
+        <v>0.8165578474671494</v>
       </c>
       <c r="D222">
-        <v>0.923488670958901</v>
+        <v>0.9234886709589006</v>
       </c>
       <c r="E222">
-        <v>0.8169209084989679</v>
+        <v>0.8169209084989678</v>
       </c>
       <c r="F222">
         <v>0.8500934280665253</v>
       </c>
       <c r="G222">
-        <v>0.8154921345184805</v>
+        <v>0.8154921345184803</v>
       </c>
       <c r="H222">
         <v>0.8234577003873965</v>
@@ -6152,7 +6152,7 @@
         <v>1.46617515684904</v>
       </c>
       <c r="D223">
-        <v>0.5673145484830054</v>
+        <v>0.5673145484830053</v>
       </c>
       <c r="E223">
         <v>1.246507815166301</v>
@@ -6181,7 +6181,7 @@
         <v>0.4985572525986274</v>
       </c>
       <c r="E224">
-        <v>0.9323587827995348</v>
+        <v>0.9323587827995345</v>
       </c>
       <c r="F224">
         <v>0.7613236699133776</v>
@@ -6201,7 +6201,7 @@
         <v>0.8558668951986635</v>
       </c>
       <c r="C225">
-        <v>0.6322651414423774</v>
+        <v>0.6322651414423773</v>
       </c>
       <c r="D225">
         <v>0.6529905806207564</v>
@@ -6224,19 +6224,19 @@
         <v>225</v>
       </c>
       <c r="B226">
-        <v>0.8417252657493438</v>
+        <v>0.8417252657493439</v>
       </c>
       <c r="C226">
-        <v>0.8188423086208808</v>
+        <v>0.8188423086208805</v>
       </c>
       <c r="D226">
-        <v>0.5662085167371687</v>
+        <v>0.5662085167371685</v>
       </c>
       <c r="E226">
-        <v>0.7925910164508525</v>
+        <v>0.7925910164508524</v>
       </c>
       <c r="F226">
-        <v>0.7976902111994986</v>
+        <v>0.7976902111994987</v>
       </c>
       <c r="G226">
         <v>0.7467899877008191</v>
@@ -6250,7 +6250,7 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>0.8621128581708872</v>
+        <v>0.8621128581708875</v>
       </c>
       <c r="C227">
         <v>0.5535820874968774</v>
@@ -6262,13 +6262,13 @@
         <v>0.6646003351245148</v>
       </c>
       <c r="F227">
-        <v>0.8506789758270924</v>
+        <v>0.8506789758270926</v>
       </c>
       <c r="G227">
         <v>0.6302840941414006</v>
       </c>
       <c r="H227">
-        <v>0.6838217638664862</v>
+        <v>0.6838217638664861</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6291,7 +6291,7 @@
         <v>0.6866241347264295</v>
       </c>
       <c r="G228">
-        <v>0.860642302465902</v>
+        <v>0.8606423024659019</v>
       </c>
       <c r="H228">
         <v>0.8443404108735822</v>
@@ -6305,13 +6305,13 @@
         <v>0.8051772679733189</v>
       </c>
       <c r="C229">
-        <v>0.897500474544727</v>
+        <v>0.8975004745447269</v>
       </c>
       <c r="D229">
         <v>0.9521320580559448</v>
       </c>
       <c r="E229">
-        <v>0.8741591579132373</v>
+        <v>0.8741591579132368</v>
       </c>
       <c r="F229">
         <v>0.8397846735274515</v>
@@ -6331,10 +6331,10 @@
         <v>0.8278587793711369</v>
       </c>
       <c r="C230">
-        <v>0.8179875797866452</v>
+        <v>0.817987579786645</v>
       </c>
       <c r="D230">
-        <v>0.8705951857565506</v>
+        <v>0.8705951857565504</v>
       </c>
       <c r="E230">
         <v>0.8249811948234902</v>
@@ -6343,7 +6343,7 @@
         <v>0.8684162353167456</v>
       </c>
       <c r="G230">
-        <v>0.8180689266339323</v>
+        <v>0.8180689266339324</v>
       </c>
       <c r="H230">
         <v>0.8370945928104105</v>
@@ -6360,7 +6360,7 @@
         <v>1.126436770984003</v>
       </c>
       <c r="D231">
-        <v>0.9205647532839532</v>
+        <v>0.920564753283953</v>
       </c>
       <c r="E231">
         <v>1.022420399231318</v>
@@ -6369,7 +6369,7 @@
         <v>0.8183696453853562</v>
       </c>
       <c r="G231">
-        <v>1.034881442188141</v>
+        <v>1.034881442188142</v>
       </c>
       <c r="H231">
         <v>0.9963118497411677</v>
@@ -6380,13 +6380,13 @@
         <v>231</v>
       </c>
       <c r="B232">
-        <v>0.7804517977919947</v>
+        <v>0.7804517977919946</v>
       </c>
       <c r="C232">
         <v>0.9982595161312352</v>
       </c>
       <c r="D232">
-        <v>0.8662944860706506</v>
+        <v>0.8662944860706505</v>
       </c>
       <c r="E232">
         <v>0.9164088701553857</v>
@@ -6406,7 +6406,7 @@
         <v>232</v>
       </c>
       <c r="B233">
-        <v>0.7256676905499745</v>
+        <v>0.7256676905499744</v>
       </c>
       <c r="C233">
         <v>1.346469065725596</v>
@@ -6447,7 +6447,7 @@
         <v>0.7758966757825618</v>
       </c>
       <c r="G234">
-        <v>1.180293937989603</v>
+        <v>1.180293937989602</v>
       </c>
       <c r="H234">
         <v>1.127480542268888</v>
@@ -6490,7 +6490,7 @@
         <v>1.416821366937398</v>
       </c>
       <c r="D236">
-        <v>0.6292917003161583</v>
+        <v>0.6292917003161582</v>
       </c>
       <c r="E236">
         <v>1.209708923102297</v>
@@ -6513,19 +6513,19 @@
         <v>0.8406593567028534</v>
       </c>
       <c r="C237">
-        <v>0.8357786419046617</v>
+        <v>0.8357786419046616</v>
       </c>
       <c r="D237">
         <v>0.7104476756043528</v>
       </c>
       <c r="E237">
-        <v>0.8007767218746914</v>
+        <v>0.8007767218746913</v>
       </c>
       <c r="F237">
         <v>0.8059656900073627</v>
       </c>
       <c r="G237">
-        <v>0.7778068977936575</v>
+        <v>0.7778068977936576</v>
       </c>
       <c r="H237">
         <v>0.7833006457438366</v>
@@ -6536,7 +6536,7 @@
         <v>237</v>
       </c>
       <c r="B238">
-        <v>0.854339044450155</v>
+        <v>0.8543390444501551</v>
       </c>
       <c r="C238">
         <v>0.6548518299328921</v>
@@ -6551,10 +6551,10 @@
         <v>0.8404159744790124</v>
       </c>
       <c r="G238">
-        <v>0.6715655054941932</v>
+        <v>0.6715655054941934</v>
       </c>
       <c r="H238">
-        <v>0.7039426101459831</v>
+        <v>0.7039426101459832</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6562,7 +6562,7 @@
         <v>238</v>
       </c>
       <c r="B239">
-        <v>0.7962004900320279</v>
+        <v>0.7962004900320281</v>
       </c>
       <c r="C239">
         <v>1.106632289046777</v>
@@ -6571,16 +6571,16 @@
         <v>0.5184372330206189</v>
       </c>
       <c r="E239">
-        <v>0.9728572504200149</v>
+        <v>0.9728572504200145</v>
       </c>
       <c r="F239">
         <v>0.7327556464920185</v>
       </c>
       <c r="G239">
-        <v>0.9572584485574838</v>
+        <v>0.9572584485574835</v>
       </c>
       <c r="H239">
-        <v>0.9278175697636374</v>
+        <v>0.9278175697636372</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6597,7 +6597,7 @@
         <v>0.4459365938214671</v>
       </c>
       <c r="E240">
-        <v>0.9040577941941431</v>
+        <v>0.9040577941941429</v>
       </c>
       <c r="F240">
         <v>0.6975986301938488</v>
@@ -6606,7 +6606,7 @@
         <v>0.8722143992426986</v>
       </c>
       <c r="H240">
-        <v>0.8563155701677216</v>
+        <v>0.8563155701677215</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6614,7 +6614,7 @@
         <v>240</v>
       </c>
       <c r="B241">
-        <v>0.7570520903993678</v>
+        <v>0.7570520903993679</v>
       </c>
       <c r="C241">
         <v>1.075924526145862</v>
@@ -6629,10 +6629,10 @@
         <v>0.6589258601953744</v>
       </c>
       <c r="G241">
-        <v>0.9100465477681849</v>
+        <v>0.9100465477681852</v>
       </c>
       <c r="H241">
-        <v>0.8892159219288274</v>
+        <v>0.8892159219288271</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6672,7 +6672,7 @@
         <v>1.14820335368634</v>
       </c>
       <c r="D243">
-        <v>0.6728821529009682</v>
+        <v>0.6728821529009681</v>
       </c>
       <c r="E243">
         <v>1.038638819643662</v>
@@ -6695,10 +6695,10 @@
         <v>0.8040952809896873</v>
       </c>
       <c r="C244">
-        <v>1.086624100029551</v>
+        <v>1.08662410002955</v>
       </c>
       <c r="D244">
-        <v>0.7680154704377099</v>
+        <v>0.7680154704377097</v>
       </c>
       <c r="E244">
         <v>0.9896153861009777</v>
@@ -6759,7 +6759,7 @@
         <v>0.7424587516401921</v>
       </c>
       <c r="G246">
-        <v>1.24949461330185</v>
+        <v>1.249494613301851</v>
       </c>
       <c r="H246">
         <v>1.201342064364828</v>
@@ -6785,7 +6785,7 @@
         <v>0.742458751640192</v>
       </c>
       <c r="G247">
-        <v>1.24949461330185</v>
+        <v>1.249494613301851</v>
       </c>
       <c r="H247">
         <v>1.201342064364828</v>
@@ -6854,13 +6854,13 @@
         <v>1.242949740020908</v>
       </c>
       <c r="D250">
-        <v>0.8488219562253211</v>
+        <v>0.848821956225321</v>
       </c>
       <c r="E250">
         <v>1.145845236997689</v>
       </c>
       <c r="F250">
-        <v>1.012327922311473</v>
+        <v>1.012327922311474</v>
       </c>
       <c r="G250">
         <v>1.116091448537251</v>
@@ -6880,7 +6880,7 @@
         <v>1.372688910572301</v>
       </c>
       <c r="D251">
-        <v>0.9234458253958979</v>
+        <v>0.9234458253958981</v>
       </c>
       <c r="E251">
         <v>1.235272252984009</v>
@@ -6900,19 +6900,19 @@
         <v>251</v>
       </c>
       <c r="B252">
-        <v>0.9491158409142877</v>
+        <v>0.9491158409142879</v>
       </c>
       <c r="C252">
-        <v>1.180432560603464</v>
+        <v>1.180432560603463</v>
       </c>
       <c r="D252">
-        <v>0.9419864725528796</v>
+        <v>0.9419864725528795</v>
       </c>
       <c r="E252">
         <v>1.091344121135847</v>
       </c>
       <c r="F252">
-        <v>0.9831297383359121</v>
+        <v>0.9831297383359122</v>
       </c>
       <c r="G252">
         <v>1.093721612851154</v>
@@ -6929,7 +6929,7 @@
         <v>0.9087627732857015</v>
       </c>
       <c r="C253">
-        <v>1.565807436634458</v>
+        <v>1.565807436634457</v>
       </c>
       <c r="D253">
         <v>0.5253677921170221</v>
@@ -6941,7 +6941,7 @@
         <v>0.8503285767067928</v>
       </c>
       <c r="G253">
-        <v>1.320047961028872</v>
+        <v>1.320047961028871</v>
       </c>
       <c r="H253">
         <v>1.279817371289984</v>
@@ -6970,7 +6970,7 @@
         <v>1.40990546983219</v>
       </c>
       <c r="H254">
-        <v>1.353559837159518</v>
+        <v>1.353559837159517</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -6981,7 +6981,7 @@
         <v>0.9087627732857013</v>
       </c>
       <c r="C255">
-        <v>1.565807436634458</v>
+        <v>1.565807436634457</v>
       </c>
       <c r="D255">
         <v>0.5253677921170221</v>
@@ -6993,7 +6993,7 @@
         <v>0.8503285767067927</v>
       </c>
       <c r="G255">
-        <v>1.320047961028872</v>
+        <v>1.320047961028871</v>
       </c>
       <c r="H255">
         <v>1.279817371289984</v>
@@ -7010,7 +7010,7 @@
         <v>1.496113652713302</v>
       </c>
       <c r="D256">
-        <v>0.6242332451425957</v>
+        <v>0.6242332451425955</v>
       </c>
       <c r="E256">
         <v>1.276693320305261</v>
@@ -7036,13 +7036,13 @@
         <v>1.311255799493721</v>
       </c>
       <c r="D257">
-        <v>0.3548222591727975</v>
+        <v>0.3548222591727974</v>
       </c>
       <c r="E257">
         <v>1.129306024606539</v>
       </c>
       <c r="F257">
-        <v>0.6801972721296384</v>
+        <v>0.6801972721296385</v>
       </c>
       <c r="G257">
         <v>1.093175606021672</v>
@@ -7059,16 +7059,16 @@
         <v>0.8491542143078084</v>
       </c>
       <c r="C258">
-        <v>1.246648493189889</v>
+        <v>1.246648493189888</v>
       </c>
       <c r="D258">
         <v>0.3839261249553797</v>
       </c>
       <c r="E258">
-        <v>1.098315580774069</v>
+        <v>1.098315580774068</v>
       </c>
       <c r="F258">
-        <v>0.7884743721357655</v>
+        <v>0.7884743721357658</v>
       </c>
       <c r="G258">
         <v>1.04852897619369</v>
@@ -7085,16 +7085,16 @@
         <v>0.8491542143078084</v>
       </c>
       <c r="C259">
-        <v>1.246648493189889</v>
+        <v>1.246648493189888</v>
       </c>
       <c r="D259">
         <v>0.3839261249553796</v>
       </c>
       <c r="E259">
-        <v>1.098315580774069</v>
+        <v>1.098315580774068</v>
       </c>
       <c r="F259">
-        <v>0.7884743721357655</v>
+        <v>0.7884743721357657</v>
       </c>
       <c r="G259">
         <v>1.04852897619369</v>
@@ -7111,7 +7111,7 @@
         <v>0.524369353455499</v>
       </c>
       <c r="C260">
-        <v>0.6890499356744431</v>
+        <v>0.6890499356744429</v>
       </c>
       <c r="D260">
         <v>0.436863732941041</v>
@@ -7120,13 +7120,13 @@
         <v>0.6221577075895777</v>
       </c>
       <c r="F260">
-        <v>0.4953207503491977</v>
+        <v>0.4953207503491978</v>
       </c>
       <c r="G260">
         <v>0.6034288292450186</v>
       </c>
       <c r="H260">
-        <v>0.6036480391237806</v>
+        <v>0.6036480391237805</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7137,16 +7137,16 @@
         <v>0.3358840133209669</v>
       </c>
       <c r="C261">
-        <v>0.6634827154667846</v>
+        <v>0.6634827154667844</v>
       </c>
       <c r="D261">
         <v>0.2713531418159921</v>
       </c>
       <c r="E261">
-        <v>0.5582952949810512</v>
+        <v>0.5582952949810509</v>
       </c>
       <c r="F261">
-        <v>0.3160022795961596</v>
+        <v>0.3160022795961597</v>
       </c>
       <c r="G261">
         <v>0.5647316768616194</v>
@@ -7160,22 +7160,22 @@
         <v>261</v>
       </c>
       <c r="B262">
-        <v>0.506218355729783</v>
+        <v>0.5062183557297831</v>
       </c>
       <c r="C262">
-        <v>0.6691401769086673</v>
+        <v>0.6691401769086671</v>
       </c>
       <c r="D262">
         <v>0.4583976575481434</v>
       </c>
       <c r="E262">
-        <v>0.6016507010603831</v>
+        <v>0.601650701060383</v>
       </c>
       <c r="F262">
         <v>0.4843310701890298</v>
       </c>
       <c r="G262">
-        <v>0.5905465532635809</v>
+        <v>0.5905465532635807</v>
       </c>
       <c r="H262">
         <v>0.5862131775720578</v>
@@ -7186,25 +7186,25 @@
         <v>262</v>
       </c>
       <c r="B263">
-        <v>0.4727440690444402</v>
+        <v>0.4727440690444403</v>
       </c>
       <c r="C263">
-        <v>0.8685484080448904</v>
+        <v>0.8685484080448902</v>
       </c>
       <c r="D263">
         <v>0.4228835658328089</v>
       </c>
       <c r="E263">
-        <v>0.7279716015790285</v>
+        <v>0.7279716015790284</v>
       </c>
       <c r="F263">
-        <v>0.4543730443091589</v>
+        <v>0.454373044309159</v>
       </c>
       <c r="G263">
         <v>0.7382627025525859</v>
       </c>
       <c r="H263">
-        <v>0.7050943722483006</v>
+        <v>0.7050943722483004</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7212,10 +7212,10 @@
         <v>263</v>
       </c>
       <c r="B264">
-        <v>0.4266878736814362</v>
+        <v>0.4266878736814363</v>
       </c>
       <c r="C264">
-        <v>0.8019242238009767</v>
+        <v>0.8019242238009765</v>
       </c>
       <c r="D264">
         <v>0.3335762520791688</v>
@@ -7224,10 +7224,10 @@
         <v>0.6718383952054894</v>
       </c>
       <c r="F264">
-        <v>0.4062794577950289</v>
+        <v>0.4062794577950291</v>
       </c>
       <c r="G264">
-        <v>0.6811768297231503</v>
+        <v>0.6811768297231502</v>
       </c>
       <c r="H264">
         <v>0.6511002538398132</v>
@@ -7238,22 +7238,22 @@
         <v>264</v>
       </c>
       <c r="B265">
-        <v>0.4266878736814362</v>
+        <v>0.4266878736814365</v>
       </c>
       <c r="C265">
-        <v>0.8019242238009768</v>
+        <v>0.8019242238009767</v>
       </c>
       <c r="D265">
-        <v>0.3335762520791688</v>
+        <v>0.3335762520791687</v>
       </c>
       <c r="E265">
         <v>0.6718383952054895</v>
       </c>
       <c r="F265">
-        <v>0.4062794577950289</v>
+        <v>0.4062794577950291</v>
       </c>
       <c r="G265">
-        <v>0.6811768297231504</v>
+        <v>0.6811768297231502</v>
       </c>
       <c r="H265">
         <v>0.6511002538398132</v>
@@ -7264,7 +7264,7 @@
         <v>265</v>
       </c>
       <c r="B266">
-        <v>0.5462183570843413</v>
+        <v>0.5462183570843414</v>
       </c>
       <c r="C266">
         <v>1.083543633603087</v>
@@ -7273,10 +7273,10 @@
         <v>0.3563338816454613</v>
       </c>
       <c r="E266">
-        <v>0.9001117927330138</v>
+        <v>0.9001117927330136</v>
       </c>
       <c r="F266">
-        <v>0.5088255270260515</v>
+        <v>0.5088255270260517</v>
       </c>
       <c r="G266">
         <v>0.8965619953532994</v>
@@ -7290,10 +7290,10 @@
         <v>266</v>
       </c>
       <c r="B267">
-        <v>0.4266878736814362</v>
+        <v>0.4266878736814364</v>
       </c>
       <c r="C267">
-        <v>0.8019242238009767</v>
+        <v>0.8019242238009765</v>
       </c>
       <c r="D267">
         <v>0.3335762520791688</v>
@@ -7302,10 +7302,10 @@
         <v>0.6718383952054895</v>
       </c>
       <c r="F267">
-        <v>0.4062794577950289</v>
+        <v>0.4062794577950291</v>
       </c>
       <c r="G267">
-        <v>0.6811768297231503</v>
+        <v>0.6811768297231501</v>
       </c>
       <c r="H267">
         <v>0.6511002538398132</v>
@@ -7319,22 +7319,22 @@
         <v>0.3358840133209669</v>
       </c>
       <c r="C268">
-        <v>0.6634827154667846</v>
+        <v>0.6634827154667844</v>
       </c>
       <c r="D268">
         <v>0.2713531418159921</v>
       </c>
       <c r="E268">
-        <v>0.5582952949810512</v>
+        <v>0.558295294981051</v>
       </c>
       <c r="F268">
-        <v>0.3160022795961596</v>
+        <v>0.3160022795961597</v>
       </c>
       <c r="G268">
         <v>0.5647316768616194</v>
       </c>
       <c r="H268">
-        <v>0.5394852081559844</v>
+        <v>0.5394852081559843</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7345,22 +7345,22 @@
         <v>0.3358840133209669</v>
       </c>
       <c r="C269">
-        <v>0.6634827154667846</v>
+        <v>0.6634827154667844</v>
       </c>
       <c r="D269">
         <v>0.2713531418159921</v>
       </c>
       <c r="E269">
-        <v>0.5582952949810512</v>
+        <v>0.5582952949810511</v>
       </c>
       <c r="F269">
-        <v>0.3160022795961596</v>
+        <v>0.3160022795961597</v>
       </c>
       <c r="G269">
         <v>0.5647316768616194</v>
       </c>
       <c r="H269">
-        <v>0.5394852081559844</v>
+        <v>0.5394852081559843</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7371,16 +7371,16 @@
         <v>0.3380776280161011</v>
       </c>
       <c r="C270">
-        <v>0.9809113777423573</v>
+        <v>0.9809113777423571</v>
       </c>
       <c r="D270">
-        <v>0.3053263499487498</v>
+        <v>0.3053263499487499</v>
       </c>
       <c r="E270">
-        <v>0.8289040853552527</v>
+        <v>0.8289040853552526</v>
       </c>
       <c r="F270">
-        <v>0.3270528436720863</v>
+        <v>0.3270528436720864</v>
       </c>
       <c r="G270">
         <v>0.8273706058860769</v>
@@ -7394,22 +7394,22 @@
         <v>270</v>
       </c>
       <c r="B271">
-        <v>0.3810595493644698</v>
+        <v>0.3810595493644699</v>
       </c>
       <c r="C271">
-        <v>0.8051957324791613</v>
+        <v>0.8051957324791611</v>
       </c>
       <c r="D271">
         <v>0.2383480187598656</v>
       </c>
       <c r="E271">
-        <v>0.7092067269078638</v>
+        <v>0.7092067269078636</v>
       </c>
       <c r="F271">
         <v>0.3304266661339383</v>
       </c>
       <c r="G271">
-        <v>0.6774057400641033</v>
+        <v>0.6774057400641035</v>
       </c>
       <c r="H271">
         <v>0.6694501620862474</v>
@@ -7420,22 +7420,22 @@
         <v>271</v>
       </c>
       <c r="B272">
-        <v>0.3810595493644698</v>
+        <v>0.3810595493644699</v>
       </c>
       <c r="C272">
-        <v>0.8051957324791612</v>
+        <v>0.8051957324791611</v>
       </c>
       <c r="D272">
         <v>0.2383480187598656</v>
       </c>
       <c r="E272">
-        <v>0.7092067269078637</v>
+        <v>0.7092067269078635</v>
       </c>
       <c r="F272">
         <v>0.3304266661339383</v>
       </c>
       <c r="G272">
-        <v>0.6774057400641033</v>
+        <v>0.6774057400641034</v>
       </c>
       <c r="H272">
         <v>0.6694501620862474</v>
@@ -7446,7 +7446,7 @@
         <v>272</v>
       </c>
       <c r="B273">
-        <v>0.352298947136196</v>
+        <v>0.3522989471361961</v>
       </c>
       <c r="C273">
         <v>1.021450033359459</v>
@@ -7455,13 +7455,13 @@
         <v>0.2940953462602849</v>
       </c>
       <c r="E273">
-        <v>0.8511830217244448</v>
+        <v>0.8511830217244446</v>
       </c>
       <c r="F273">
-        <v>0.3389340836547404</v>
+        <v>0.3389340836547405</v>
       </c>
       <c r="G273">
-        <v>0.8540114256502873</v>
+        <v>0.8540114256502872</v>
       </c>
       <c r="H273">
         <v>0.8146403758495828</v>
@@ -7472,7 +7472,7 @@
         <v>273</v>
       </c>
       <c r="B274">
-        <v>0.352298947136196</v>
+        <v>0.3522989471361961</v>
       </c>
       <c r="C274">
         <v>1.021450033359459</v>
@@ -7481,13 +7481,13 @@
         <v>0.2940953462602849</v>
       </c>
       <c r="E274">
-        <v>0.8511830217244448</v>
+        <v>0.8511830217244446</v>
       </c>
       <c r="F274">
-        <v>0.3389340836547404</v>
+        <v>0.3389340836547405</v>
       </c>
       <c r="G274">
-        <v>0.8540114256502873</v>
+        <v>0.8540114256502872</v>
       </c>
       <c r="H274">
         <v>0.8146403758495828</v>
@@ -7507,7 +7507,7 @@
         <v>0.5636183794442455</v>
       </c>
       <c r="E275">
-        <v>0.5298935701908338</v>
+        <v>0.5298935701908337</v>
       </c>
       <c r="F275">
         <v>0.5207800030841825</v>
@@ -7524,10 +7524,10 @@
         <v>275</v>
       </c>
       <c r="B276">
-        <v>0.4135400872276676</v>
+        <v>0.4135400872276677</v>
       </c>
       <c r="C276">
-        <v>0.6138845112893431</v>
+        <v>0.6138845112893432</v>
       </c>
       <c r="D276">
         <v>0.2033530283645157</v>
@@ -7539,7 +7539,7 @@
         <v>0.3624933192322065</v>
       </c>
       <c r="G276">
-        <v>0.5394290597405053</v>
+        <v>0.5394290597405054</v>
       </c>
       <c r="H276">
         <v>0.5324176737078935</v>
@@ -7550,16 +7550,16 @@
         <v>276</v>
       </c>
       <c r="B277">
-        <v>0.5685647345366673</v>
+        <v>0.5685647345366674</v>
       </c>
       <c r="C277">
-        <v>0.9002872347457895</v>
+        <v>0.9002872347457899</v>
       </c>
       <c r="D277">
         <v>0.4121348190717535</v>
       </c>
       <c r="E277">
-        <v>0.8029081370940595</v>
+        <v>0.8029081370940594</v>
       </c>
       <c r="F277">
         <v>0.5297959740487876</v>
@@ -7568,7 +7568,7 @@
         <v>0.7918205303389628</v>
       </c>
       <c r="H277">
-        <v>0.7712090042579501</v>
+        <v>0.7712090042579502</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7591,7 +7591,7 @@
         <v>0.670522381047488</v>
       </c>
       <c r="G278">
-        <v>0.9648849178890504</v>
+        <v>0.9648849178890503</v>
       </c>
       <c r="H278">
         <v>0.9508770480297812</v>
@@ -7602,7 +7602,7 @@
         <v>278</v>
       </c>
       <c r="B279">
-        <v>0.728916546641788</v>
+        <v>0.7289165466417882</v>
       </c>
       <c r="C279">
         <v>1.02671719474071</v>
@@ -7611,13 +7611,13 @@
         <v>0.2447471295673097</v>
       </c>
       <c r="E279">
-        <v>0.9137747053133926</v>
+        <v>0.9137747053133927</v>
       </c>
       <c r="F279">
-        <v>0.6949394984574163</v>
+        <v>0.6949394984574162</v>
       </c>
       <c r="G279">
-        <v>0.8930579689381708</v>
+        <v>0.8930579689381707</v>
       </c>
       <c r="H279">
         <v>0.8877724793170095</v>
@@ -7628,13 +7628,13 @@
         <v>279</v>
       </c>
       <c r="B280">
-        <v>0.728916546641788</v>
+        <v>0.7289165466417882</v>
       </c>
       <c r="C280">
         <v>1.02671719474071</v>
       </c>
       <c r="D280">
-        <v>0.2447471295673098</v>
+        <v>0.2447471295673097</v>
       </c>
       <c r="E280">
         <v>0.9137747053133926</v>
@@ -7643,7 +7643,7 @@
         <v>0.6949394984574162</v>
       </c>
       <c r="G280">
-        <v>0.8930579689381708</v>
+        <v>0.8930579689381707</v>
       </c>
       <c r="H280">
         <v>0.8877724793170095</v>
@@ -7663,7 +7663,7 @@
         <v>0.1573731492756603</v>
       </c>
       <c r="E281">
-        <v>0.6038514863779982</v>
+        <v>0.6038514863779981</v>
       </c>
       <c r="F281">
         <v>0.3391747329549344</v>
@@ -7672,7 +7672,7 @@
         <v>0.5784724764440146</v>
       </c>
       <c r="H281">
-        <v>0.5680246213375265</v>
+        <v>0.5680246213375264</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7683,10 +7683,10 @@
         <v>0.3699742683946552</v>
       </c>
       <c r="C282">
-        <v>0.6070461503786377</v>
+        <v>0.607046150378638</v>
       </c>
       <c r="D282">
-        <v>0.1964942555377813</v>
+        <v>0.1964942555377814</v>
       </c>
       <c r="E282">
         <v>0.5483530401696751</v>
@@ -7709,7 +7709,7 @@
         <v>0.3699742683946552</v>
       </c>
       <c r="C283">
-        <v>0.6070461503786378</v>
+        <v>0.607046150378638</v>
       </c>
       <c r="D283">
         <v>0.1964942555377814</v>
@@ -7718,7 +7718,7 @@
         <v>0.5483530401696751</v>
       </c>
       <c r="F283">
-        <v>0.3318050227177504</v>
+        <v>0.3318050227177505</v>
       </c>
       <c r="G283">
         <v>0.5345885395506631</v>
@@ -7761,7 +7761,7 @@
         <v>0.4135400872276677</v>
       </c>
       <c r="C285">
-        <v>0.6138845112893431</v>
+        <v>0.6138845112893432</v>
       </c>
       <c r="D285">
         <v>0.2033530283645157</v>
@@ -7773,10 +7773,10 @@
         <v>0.3624933192322065</v>
       </c>
       <c r="G285">
-        <v>0.5394290597405053</v>
+        <v>0.5394290597405054</v>
       </c>
       <c r="H285">
-        <v>0.5324176737078936</v>
+        <v>0.5324176737078935</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7784,7 +7784,7 @@
         <v>285</v>
       </c>
       <c r="B286">
-        <v>0.728916546641788</v>
+        <v>0.7289165466417882</v>
       </c>
       <c r="C286">
         <v>1.02671719474071</v>
@@ -7799,7 +7799,7 @@
         <v>0.6949394984574162</v>
       </c>
       <c r="G286">
-        <v>0.8930579689381708</v>
+        <v>0.8930579689381707</v>
       </c>
       <c r="H286">
         <v>0.8877724793170095</v>
@@ -7813,10 +7813,10 @@
         <v>0.730666264809081</v>
       </c>
       <c r="C287">
-        <v>1.221916734664677</v>
+        <v>1.221916734664676</v>
       </c>
       <c r="D287">
-        <v>0.5844612961503349</v>
+        <v>0.584461296150335</v>
       </c>
       <c r="E287">
         <v>1.039971582391466</v>
@@ -7836,22 +7836,22 @@
         <v>287</v>
       </c>
       <c r="B288">
-        <v>0.5326267039336133</v>
+        <v>0.5326267039336134</v>
       </c>
       <c r="C288">
-        <v>1.145910532120441</v>
+        <v>1.14591053212044</v>
       </c>
       <c r="D288">
         <v>0.4134517521555298</v>
       </c>
       <c r="E288">
-        <v>0.952623893789041</v>
+        <v>0.9526238937890408</v>
       </c>
       <c r="F288">
-        <v>0.5394209843206541</v>
+        <v>0.5394209843206543</v>
       </c>
       <c r="G288">
-        <v>0.9604981931122824</v>
+        <v>0.9604981931122822</v>
       </c>
       <c r="H288">
         <v>0.9221250283347207</v>
@@ -7891,10 +7891,10 @@
         <v>0.7165833040902867</v>
       </c>
       <c r="C290">
-        <v>1.28561717137149</v>
+        <v>1.285617171371489</v>
       </c>
       <c r="D290">
-        <v>0.4849306958939929</v>
+        <v>0.484930695893993</v>
       </c>
       <c r="E290">
         <v>1.082388654370211</v>
@@ -7914,10 +7914,10 @@
         <v>290</v>
       </c>
       <c r="B291">
-        <v>0.4858887741255705</v>
+        <v>0.4858887741255707</v>
       </c>
       <c r="C291">
-        <v>1.071063569507878</v>
+        <v>1.071063569507877</v>
       </c>
       <c r="D291">
         <v>0.3542951022220612</v>
@@ -7932,7 +7932,7 @@
         <v>0.8942269032705603</v>
       </c>
       <c r="H291">
-        <v>0.8624408043013247</v>
+        <v>0.8624408043013244</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7940,16 +7940,16 @@
         <v>291</v>
       </c>
       <c r="B292">
-        <v>0.5876380785414956</v>
+        <v>0.5876380785414957</v>
       </c>
       <c r="C292">
-        <v>1.18086185138027</v>
+        <v>1.180861851380269</v>
       </c>
       <c r="D292">
         <v>0.3633408506196359</v>
       </c>
       <c r="E292">
-        <v>0.9980500426276393</v>
+        <v>0.9980500426276391</v>
       </c>
       <c r="F292">
         <v>0.5823048787473443</v>
@@ -7958,7 +7958,7 @@
         <v>0.985217197833228</v>
       </c>
       <c r="H292">
-        <v>0.962503401713543</v>
+        <v>0.9625034017135428</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -7972,7 +7972,7 @@
         <v>1.182818143069416</v>
       </c>
       <c r="D293">
-        <v>0.408894472258691</v>
+        <v>0.4088944722586909</v>
       </c>
       <c r="E293">
         <v>0.9995540674173216</v>
@@ -7981,10 +7981,10 @@
         <v>0.5992343550217392</v>
       </c>
       <c r="G293">
-        <v>0.9951231862976674</v>
+        <v>0.9951231862976673</v>
       </c>
       <c r="H293">
-        <v>0.9672714047634098</v>
+        <v>0.9672714047634097</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -7992,10 +7992,10 @@
         <v>293</v>
       </c>
       <c r="B294">
-        <v>0.5729150198757655</v>
+        <v>0.5729150198757658</v>
       </c>
       <c r="C294">
-        <v>1.250493740784491</v>
+        <v>1.25049374078449</v>
       </c>
       <c r="D294">
         <v>0.2833304440876649</v>
@@ -8010,7 +8010,7 @@
         <v>1.027961713250864</v>
       </c>
       <c r="H294">
-        <v>1.002657590742079</v>
+        <v>1.002657590742078</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8018,16 +8018,16 @@
         <v>294</v>
       </c>
       <c r="B295">
-        <v>0.7830427501973282</v>
+        <v>0.7830427501973284</v>
       </c>
       <c r="C295">
-        <v>0.7052871730298383</v>
+        <v>0.7052871730298385</v>
       </c>
       <c r="D295">
         <v>0.8220698252031647</v>
       </c>
       <c r="E295">
-        <v>0.7389602799126437</v>
+        <v>0.7389602799126436</v>
       </c>
       <c r="F295">
         <v>0.7918945732852581</v>
@@ -8036,7 +8036,7 @@
         <v>0.7166039252101772</v>
       </c>
       <c r="H295">
-        <v>0.7467144731358301</v>
+        <v>0.7467144731358298</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8044,10 +8044,10 @@
         <v>295</v>
       </c>
       <c r="B296">
-        <v>0.8115916444011382</v>
+        <v>0.8115916444011383</v>
       </c>
       <c r="C296">
-        <v>0.7390951723922916</v>
+        <v>0.7390951723922915</v>
       </c>
       <c r="D296">
         <v>0.8967957041345045</v>
@@ -8062,7 +8062,7 @@
         <v>0.7615926826171198</v>
       </c>
       <c r="H296">
-        <v>0.7834033798338107</v>
+        <v>0.7834033798338106</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8076,7 +8076,7 @@
         <v>1.034578973733051</v>
       </c>
       <c r="D297">
-        <v>0.75040683079392</v>
+        <v>0.7504068307939201</v>
       </c>
       <c r="E297">
         <v>0.941657200756983</v>
@@ -8099,7 +8099,7 @@
         <v>0.7454307066512544</v>
       </c>
       <c r="C298">
-        <v>0.709349673733094</v>
+        <v>0.7093496737330939</v>
       </c>
       <c r="D298">
         <v>0.846235646926443</v>
@@ -8111,7 +8111,7 @@
         <v>0.7788839875805723</v>
       </c>
       <c r="G298">
-        <v>0.7275014536251857</v>
+        <v>0.7275014536251856</v>
       </c>
       <c r="H298">
         <v>0.7428793794798081</v>
@@ -8140,7 +8140,7 @@
         <v>0.8694818414849738</v>
       </c>
       <c r="H299">
-        <v>0.8586303591169921</v>
+        <v>0.8586303591169919</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8148,25 +8148,25 @@
         <v>299</v>
       </c>
       <c r="B300">
-        <v>0.7830427501973283</v>
+        <v>0.7830427501973284</v>
       </c>
       <c r="C300">
-        <v>0.7052871730298383</v>
+        <v>0.7052871730298385</v>
       </c>
       <c r="D300">
         <v>0.8220698252031647</v>
       </c>
       <c r="E300">
-        <v>0.7389602799126437</v>
+        <v>0.7389602799126436</v>
       </c>
       <c r="F300">
         <v>0.7918945732852581</v>
       </c>
       <c r="G300">
-        <v>0.7166039252101772</v>
+        <v>0.7166039252101771</v>
       </c>
       <c r="H300">
-        <v>0.7467144731358301</v>
+        <v>0.7467144731358298</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8177,13 +8177,13 @@
         <v>0.7855471443271512</v>
       </c>
       <c r="C301">
-        <v>0.9862764540251752</v>
+        <v>0.9862764540251749</v>
       </c>
       <c r="D301">
-        <v>0.7939464050431069</v>
+        <v>0.7939464050431071</v>
       </c>
       <c r="E301">
-        <v>0.9137559713669103</v>
+        <v>0.9137559713669104</v>
       </c>
       <c r="F301">
         <v>0.7824039446417166</v>
@@ -8192,7 +8192,7 @@
         <v>0.9091504005991533</v>
       </c>
       <c r="H301">
-        <v>0.8989943270105479</v>
+        <v>0.8989943270105477</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8200,7 +8200,7 @@
         <v>301</v>
       </c>
       <c r="B302">
-        <v>0.6576461462162275</v>
+        <v>0.6576461462162277</v>
       </c>
       <c r="C302">
         <v>1.241381232830027</v>
@@ -8226,7 +8226,7 @@
         <v>302</v>
       </c>
       <c r="B303">
-        <v>0.6407164042111627</v>
+        <v>0.6407164042111628</v>
       </c>
       <c r="C303">
         <v>1.31723614160953</v>
@@ -8258,16 +8258,16 @@
         <v>0.894883495205071</v>
       </c>
       <c r="D304">
-        <v>0.6586516815944878</v>
+        <v>0.6586516815944879</v>
       </c>
       <c r="E304">
         <v>0.8342891886617702</v>
       </c>
       <c r="F304">
-        <v>0.6906220763809413</v>
+        <v>0.6906220763809414</v>
       </c>
       <c r="G304">
-        <v>0.8116321019342077</v>
+        <v>0.8116321019342075</v>
       </c>
       <c r="H304">
         <v>0.8111622183955228</v>
@@ -8278,13 +8278,13 @@
         <v>304</v>
       </c>
       <c r="B305">
-        <v>0.7205529984836472</v>
+        <v>0.7205529984836474</v>
       </c>
       <c r="C305">
-        <v>0.8948834952050712</v>
+        <v>0.894883495205071</v>
       </c>
       <c r="D305">
-        <v>0.6586516815944878</v>
+        <v>0.6586516815944879</v>
       </c>
       <c r="E305">
         <v>0.8342891886617702</v>
@@ -8293,7 +8293,7 @@
         <v>0.6906220763809413</v>
       </c>
       <c r="G305">
-        <v>0.8116321019342077</v>
+        <v>0.8116321019342074</v>
       </c>
       <c r="H305">
         <v>0.8111622183955228</v>
@@ -8304,22 +8304,22 @@
         <v>305</v>
       </c>
       <c r="B306">
-        <v>0.7906278121578855</v>
+        <v>0.7906278121578857</v>
       </c>
       <c r="C306">
-        <v>0.8072931433837939</v>
+        <v>0.8072931433837938</v>
       </c>
       <c r="D306">
         <v>0.5642609629634957</v>
       </c>
       <c r="E306">
-        <v>0.798000299754095</v>
+        <v>0.7980002997540949</v>
       </c>
       <c r="F306">
-        <v>0.7267892393016004</v>
+        <v>0.7267892393016006</v>
       </c>
       <c r="G306">
-        <v>0.7356756831663996</v>
+        <v>0.7356756831663998</v>
       </c>
       <c r="H306">
         <v>0.7731642670848349</v>
@@ -8330,13 +8330,13 @@
         <v>306</v>
       </c>
       <c r="B307">
-        <v>0.7205529984836472</v>
+        <v>0.7205529984836474</v>
       </c>
       <c r="C307">
         <v>0.894883495205071</v>
       </c>
       <c r="D307">
-        <v>0.6586516815944878</v>
+        <v>0.6586516815944879</v>
       </c>
       <c r="E307">
         <v>0.8342891886617702</v>
@@ -8356,13 +8356,13 @@
         <v>307</v>
       </c>
       <c r="B308">
-        <v>0.7305101132729026</v>
+        <v>0.7305101132729027</v>
       </c>
       <c r="C308">
         <v>1.0686344762479</v>
       </c>
       <c r="D308">
-        <v>0.5054723358585116</v>
+        <v>0.5054723358585117</v>
       </c>
       <c r="E308">
         <v>0.9555253430916195</v>
@@ -8374,7 +8374,7 @@
         <v>0.928555132067857</v>
       </c>
       <c r="H308">
-        <v>0.9172365332821141</v>
+        <v>0.9172365332821142</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8382,19 +8382,19 @@
         <v>308</v>
       </c>
       <c r="B309">
-        <v>0.7906278121578855</v>
+        <v>0.7906278121578857</v>
       </c>
       <c r="C309">
-        <v>0.8072931433837939</v>
+        <v>0.8072931433837938</v>
       </c>
       <c r="D309">
         <v>0.5642609629634958</v>
       </c>
       <c r="E309">
-        <v>0.7980002997540951</v>
+        <v>0.7980002997540949</v>
       </c>
       <c r="F309">
-        <v>0.7267892393016004</v>
+        <v>0.7267892393016006</v>
       </c>
       <c r="G309">
         <v>0.7356756831663994</v>
@@ -8408,7 +8408,7 @@
         <v>309</v>
       </c>
       <c r="B310">
-        <v>0.6637715908343846</v>
+        <v>0.6637715908343848</v>
       </c>
       <c r="C310">
         <v>1.17323529529838</v>
@@ -8417,7 +8417,7 @@
         <v>0.5879307586962192</v>
       </c>
       <c r="E310">
-        <v>1.018172513147948</v>
+        <v>1.018172513147947</v>
       </c>
       <c r="F310">
         <v>0.6378831375338511</v>
@@ -8426,7 +8426,7 @@
         <v>1.017061424602441</v>
       </c>
       <c r="H310">
-        <v>0.9794868123926799</v>
+        <v>0.9794868123926798</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8434,13 +8434,13 @@
         <v>310</v>
       </c>
       <c r="B311">
-        <v>0.4468933857785959</v>
+        <v>0.4468933857785958</v>
       </c>
       <c r="C311">
         <v>0.7460523730737799</v>
       </c>
       <c r="D311">
-        <v>0.1822664317609922</v>
+        <v>0.1822664317609921</v>
       </c>
       <c r="E311">
         <v>0.6665600912343406</v>
@@ -8452,7 +8452,7 @@
         <v>0.638371446541151</v>
       </c>
       <c r="H311">
-        <v>0.6304954147338251</v>
+        <v>0.6304954147338249</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8463,10 +8463,10 @@
         <v>0.518744422824722</v>
       </c>
       <c r="C312">
-        <v>0.5196205981867934</v>
+        <v>0.5196205981867933</v>
       </c>
       <c r="D312">
-        <v>0.2150998924154484</v>
+        <v>0.2150998924154483</v>
       </c>
       <c r="E312">
         <v>0.5687210793251035</v>
@@ -8478,7 +8478,7 @@
         <v>0.4814583982942272</v>
       </c>
       <c r="H312">
-        <v>0.541393248144127</v>
+        <v>0.5413932481441268</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8486,7 +8486,7 @@
         <v>312</v>
       </c>
       <c r="B313">
-        <v>0.4468933857785958</v>
+        <v>0.4468933857785957</v>
       </c>
       <c r="C313">
         <v>0.7460523730737797</v>
@@ -8504,7 +8504,7 @@
         <v>0.6383714465411507</v>
       </c>
       <c r="H313">
-        <v>0.630495414733825</v>
+        <v>0.6304954147338248</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8512,10 +8512,10 @@
         <v>313</v>
       </c>
       <c r="B314">
-        <v>0.4468933857785958</v>
+        <v>0.4468933857785957</v>
       </c>
       <c r="C314">
-        <v>0.7460523730737799</v>
+        <v>0.7460523730737798</v>
       </c>
       <c r="D314">
         <v>0.1822664317609921</v>
@@ -8530,7 +8530,7 @@
         <v>0.6383714465411506</v>
       </c>
       <c r="H314">
-        <v>0.630495414733825</v>
+        <v>0.6304954147338249</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8544,7 +8544,7 @@
         <v>1.260232852660728</v>
       </c>
       <c r="D315">
-        <v>0.9208358797446058</v>
+        <v>0.9208358797446059</v>
       </c>
       <c r="E315">
         <v>1.164591768745768</v>
@@ -8634,7 +8634,7 @@
         <v>1.031954172308056</v>
       </c>
       <c r="H318">
-        <v>1.050283602378748</v>
+        <v>1.050283602378747</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8645,19 +8645,19 @@
         <v>1.071265152675616</v>
       </c>
       <c r="C319">
-        <v>0.9230644918857785</v>
+        <v>0.9230644918857782</v>
       </c>
       <c r="D319">
         <v>1.061887167036003</v>
       </c>
       <c r="E319">
-        <v>0.9712452184494366</v>
+        <v>0.9712452184494365</v>
       </c>
       <c r="F319">
         <v>1.087601145134835</v>
       </c>
       <c r="G319">
-        <v>0.9189846077455315</v>
+        <v>0.9189846077455316</v>
       </c>
       <c r="H319">
         <v>0.9800816457057</v>
@@ -8671,13 +8671,13 @@
         <v>1.077146435097916</v>
       </c>
       <c r="C320">
-        <v>0.9370512947011507</v>
+        <v>0.9370512947011506</v>
       </c>
       <c r="D320">
         <v>1.166515483188913</v>
       </c>
       <c r="E320">
-        <v>0.9798760872013259</v>
+        <v>0.9798760872013257</v>
       </c>
       <c r="F320">
         <v>1.108040214082972</v>
@@ -8686,7 +8686,7 @@
         <v>0.9582024839748753</v>
       </c>
       <c r="H320">
-        <v>0.9977007712926135</v>
+        <v>0.9977007712926137</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8697,7 +8697,7 @@
         <v>1.126029113801548</v>
       </c>
       <c r="C321">
-        <v>0.9874098323687295</v>
+        <v>0.9874098323687294</v>
       </c>
       <c r="D321">
         <v>1.174166894999164</v>
@@ -8709,7 +8709,7 @@
         <v>1.137203954630595</v>
       </c>
       <c r="G321">
-        <v>0.993555107590259</v>
+        <v>0.9935551075902588</v>
       </c>
       <c r="H321">
         <v>1.024772703682215</v>
@@ -8729,7 +8729,7 @@
         <v>0.5948987379232824</v>
       </c>
       <c r="E322">
-        <v>1.373218205254471</v>
+        <v>1.37321820525447</v>
       </c>
       <c r="F322">
         <v>0.8661426189340904</v>
@@ -8749,22 +8749,22 @@
         <v>1.085123141101734</v>
       </c>
       <c r="C323">
-        <v>0.9470155722805279</v>
+        <v>0.9470155722805277</v>
       </c>
       <c r="D323">
         <v>1.080906611910678</v>
       </c>
       <c r="E323">
-        <v>0.9802930200854137</v>
+        <v>0.9802930200854136</v>
       </c>
       <c r="F323">
         <v>1.084798437657405</v>
       </c>
       <c r="G323">
-        <v>0.9394718057474241</v>
+        <v>0.9394718057474238</v>
       </c>
       <c r="H323">
-        <v>0.9805667407668477</v>
+        <v>0.9805667407668476</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8775,7 +8775,7 @@
         <v>1.085123141101734</v>
       </c>
       <c r="C324">
-        <v>0.9470155722805278</v>
+        <v>0.9470155722805277</v>
       </c>
       <c r="D324">
         <v>1.080906611910678</v>
@@ -8810,7 +8810,7 @@
         <v>0.9802930200854136</v>
       </c>
       <c r="F325">
-        <v>1.084798437657404</v>
+        <v>1.084798437657405</v>
       </c>
       <c r="G325">
         <v>0.9394718057474241</v>
@@ -8827,7 +8827,7 @@
         <v>1.174089081722549</v>
       </c>
       <c r="C326">
-        <v>1.041070488613581</v>
+        <v>1.04107048861358</v>
       </c>
       <c r="D326">
         <v>1.126872266221905</v>
@@ -8836,7 +8836,7 @@
         <v>1.060168082666273</v>
       </c>
       <c r="F326">
-        <v>1.144622279306522</v>
+        <v>1.144622279306523</v>
       </c>
       <c r="G326">
         <v>1.020777844484923</v>
@@ -8862,13 +8862,13 @@
         <v>1.267341213742336</v>
       </c>
       <c r="F327">
-        <v>0.8404261901087779</v>
+        <v>0.8404261901087781</v>
       </c>
       <c r="G327">
         <v>1.229176205173116</v>
       </c>
       <c r="H327">
-        <v>1.211391011936096</v>
+        <v>1.211391011936095</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8888,7 +8888,7 @@
         <v>1.325550180691951</v>
       </c>
       <c r="F328">
-        <v>0.8069915490778515</v>
+        <v>0.8069915490778518</v>
       </c>
       <c r="G328">
         <v>1.281996834576573</v>
@@ -8914,7 +8914,7 @@
         <v>1.291930856490751</v>
       </c>
       <c r="F329">
-        <v>0.758247160390088</v>
+        <v>0.7582471603900881</v>
       </c>
       <c r="G329">
         <v>1.244507595142416</v>
@@ -8940,7 +8940,7 @@
         <v>1.325550180691951</v>
       </c>
       <c r="F330">
-        <v>0.8069915490778515</v>
+        <v>0.8069915490778516</v>
       </c>
       <c r="G330">
         <v>1.281996834576573</v>
@@ -8954,7 +8954,7 @@
         <v>330</v>
       </c>
       <c r="B331">
-        <v>0.9715119672037645</v>
+        <v>0.9715119672037646</v>
       </c>
       <c r="C331">
         <v>1.154104421099943</v>
@@ -8998,7 +8998,7 @@
         <v>1.288477076751976</v>
       </c>
       <c r="H332">
-        <v>1.250329195557086</v>
+        <v>1.250329195557085</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9009,7 +9009,7 @@
         <v>1.017385524011326</v>
       </c>
       <c r="C333">
-        <v>1.274468769049363</v>
+        <v>1.274468769049362</v>
       </c>
       <c r="D333">
         <v>0.8776034490035207</v>
@@ -9018,7 +9018,7 @@
         <v>1.158560191520723</v>
       </c>
       <c r="F333">
-        <v>0.9667124728232703</v>
+        <v>0.9667124728232706</v>
       </c>
       <c r="G333">
         <v>1.141146238798115</v>
@@ -9047,7 +9047,7 @@
         <v>0.9599596969854894</v>
       </c>
       <c r="G334">
-        <v>1.436780567267582</v>
+        <v>1.436780567267581</v>
       </c>
       <c r="H334">
         <v>1.380051095839412</v>
@@ -9070,7 +9070,7 @@
         <v>1.369743597938125</v>
       </c>
       <c r="F335">
-        <v>0.891407386446463</v>
+        <v>0.8914073864464631</v>
       </c>
       <c r="G335">
         <v>1.365346256453092</v>
@@ -9084,13 +9084,13 @@
         <v>335</v>
       </c>
       <c r="B336">
-        <v>0.8894269244326976</v>
+        <v>0.8894269244326973</v>
       </c>
       <c r="C336">
         <v>1.520522483744868</v>
       </c>
       <c r="D336">
-        <v>0.4201443873369356</v>
+        <v>0.4201443873369355</v>
       </c>
       <c r="E336">
         <v>1.298082735848428</v>
@@ -9113,7 +9113,7 @@
         <v>0.4945336405463241</v>
       </c>
       <c r="C337">
-        <v>0.51848374083015</v>
+        <v>0.5184837408301501</v>
       </c>
       <c r="D337">
         <v>0.4577319334601583</v>
@@ -9128,7 +9128,7 @@
         <v>0.4917914080071651</v>
       </c>
       <c r="H337">
-        <v>0.4886410994724353</v>
+        <v>0.4886410994724354</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9139,13 +9139,13 @@
         <v>0.441310554781521</v>
       </c>
       <c r="C338">
-        <v>0.4768628224305436</v>
+        <v>0.4768628224305435</v>
       </c>
       <c r="D338">
-        <v>0.5321361232516834</v>
+        <v>0.5321361232516835</v>
       </c>
       <c r="E338">
-        <v>0.458732740964625</v>
+        <v>0.4587327409646249</v>
       </c>
       <c r="F338">
         <v>0.4524774808490533</v>
@@ -9154,7 +9154,7 @@
         <v>0.4818295517621104</v>
       </c>
       <c r="H338">
-        <v>0.4674473925019292</v>
+        <v>0.4674473925019293</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>0.4917914080071652</v>
       </c>
       <c r="H339">
-        <v>0.4886410994724353</v>
+        <v>0.4886410994724354</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9217,10 +9217,10 @@
         <v>0.4041060520154907</v>
       </c>
       <c r="C341">
-        <v>0.55560212406538</v>
+        <v>0.5556021240653799</v>
       </c>
       <c r="D341">
-        <v>0.3868860850029183</v>
+        <v>0.3868860850029184</v>
       </c>
       <c r="E341">
         <v>0.5044839570542176</v>
@@ -9240,7 +9240,7 @@
         <v>341</v>
       </c>
       <c r="B342">
-        <v>0.3939971384842973</v>
+        <v>0.3939971384842972</v>
       </c>
       <c r="C342">
         <v>0.6764429832125199</v>
@@ -9324,10 +9324,10 @@
         <v>0.481874281807309</v>
       </c>
       <c r="D345">
-        <v>0.2413364169332262</v>
+        <v>0.2413364169332263</v>
       </c>
       <c r="E345">
-        <v>0.4275511404688746</v>
+        <v>0.4275511404688745</v>
       </c>
       <c r="F345">
         <v>0.2664421472849418</v>
@@ -9336,7 +9336,7 @@
         <v>0.4246666398242904</v>
       </c>
       <c r="H345">
-        <v>0.4072667861542904</v>
+        <v>0.4072667861542905</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9353,16 +9353,16 @@
         <v>0.2413364169332263</v>
       </c>
       <c r="E346">
-        <v>0.4275511404688746</v>
+        <v>0.4275511404688745</v>
       </c>
       <c r="F346">
         <v>0.2664421472849419</v>
       </c>
       <c r="G346">
-        <v>0.4246666398242904</v>
+        <v>0.4246666398242905</v>
       </c>
       <c r="H346">
-        <v>0.4072667861542904</v>
+        <v>0.4072667861542905</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9379,13 +9379,13 @@
         <v>0.2413364169332263</v>
       </c>
       <c r="E347">
-        <v>0.4275511404688746</v>
+        <v>0.4275511404688745</v>
       </c>
       <c r="F347">
         <v>0.2664421472849418</v>
       </c>
       <c r="G347">
-        <v>0.4246666398242903</v>
+        <v>0.4246666398242904</v>
       </c>
       <c r="H347">
         <v>0.4072667861542905</v>
@@ -9414,7 +9414,7 @@
         <v>0.601101599714376</v>
       </c>
       <c r="H348">
-        <v>0.5942950964595138</v>
+        <v>0.5942950964595137</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>0.601101599714376</v>
       </c>
       <c r="H349">
-        <v>0.5942950964595139</v>
+        <v>0.5942950964595138</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>0.6011015997143759</v>
       </c>
       <c r="H350">
-        <v>0.5942950964595139</v>
+        <v>0.5942950964595138</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9477,10 +9477,10 @@
         <v>0.2547605701606328</v>
       </c>
       <c r="C351">
-        <v>0.4590410604569824</v>
+        <v>0.4590410604569822</v>
       </c>
       <c r="D351">
-        <v>0.2102762379496533</v>
+        <v>0.2102762379496534</v>
       </c>
       <c r="E351">
         <v>0.4035869609549892</v>
@@ -9489,7 +9489,7 @@
         <v>0.2192478239435519</v>
       </c>
       <c r="G351">
-        <v>0.4031135002666146</v>
+        <v>0.4031135002666145</v>
       </c>
       <c r="H351">
         <v>0.3831957409459628</v>
@@ -9503,19 +9503,19 @@
         <v>0.2547605701606328</v>
       </c>
       <c r="C352">
-        <v>0.4590410604569824</v>
+        <v>0.4590410604569822</v>
       </c>
       <c r="D352">
-        <v>0.2102762379496533</v>
+        <v>0.2102762379496534</v>
       </c>
       <c r="E352">
-        <v>0.4035869609549891</v>
+        <v>0.4035869609549892</v>
       </c>
       <c r="F352">
         <v>0.2192478239435518</v>
       </c>
       <c r="G352">
-        <v>0.4031135002666146</v>
+        <v>0.4031135002666145</v>
       </c>
       <c r="H352">
         <v>0.3831957409459628</v>
@@ -9561,7 +9561,7 @@
         <v>0.3174819686615732</v>
       </c>
       <c r="E354">
-        <v>0.7054453875029254</v>
+        <v>0.7054453875029253</v>
       </c>
       <c r="F354">
         <v>0.6065082826410801</v>
@@ -9578,7 +9578,7 @@
         <v>354</v>
       </c>
       <c r="B355">
-        <v>0.739849024754394</v>
+        <v>0.7398490247543941</v>
       </c>
       <c r="C355">
         <v>0.9080196892704105</v>
@@ -9613,7 +9613,7 @@
         <v>0.402493037267395</v>
       </c>
       <c r="E356">
-        <v>0.6484648003186771</v>
+        <v>0.6484648003186773</v>
       </c>
       <c r="F356">
         <v>0.450627648324422</v>
@@ -9633,7 +9633,7 @@
         <v>0.4986041991880584</v>
       </c>
       <c r="C357">
-        <v>0.7115071397700125</v>
+        <v>0.7115071397700126</v>
       </c>
       <c r="D357">
         <v>0.402493037267395</v>
@@ -9648,7 +9648,7 @@
         <v>0.6315057026056129</v>
       </c>
       <c r="H357">
-        <v>0.6119861937641967</v>
+        <v>0.6119861937641968</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9665,16 +9665,16 @@
         <v>0.402493037267395</v>
       </c>
       <c r="E358">
-        <v>0.6484648003186773</v>
+        <v>0.6484648003186774</v>
       </c>
       <c r="F358">
         <v>0.450627648324422</v>
       </c>
       <c r="G358">
-        <v>0.6315057026056131</v>
+        <v>0.631505702605613</v>
       </c>
       <c r="H358">
-        <v>0.6119861937641967</v>
+        <v>0.6119861937641968</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9694,13 +9694,13 @@
         <v>0.4436733499162675</v>
       </c>
       <c r="F359">
-        <v>0.2072313160590197</v>
+        <v>0.2072313160590198</v>
       </c>
       <c r="G359">
-        <v>0.4315143266573647</v>
+        <v>0.4315143266573648</v>
       </c>
       <c r="H359">
-        <v>0.4177179311220415</v>
+        <v>0.4177179311220414</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9711,7 +9711,7 @@
         <v>0.2324530040284936</v>
       </c>
       <c r="C360">
-        <v>0.5011490934820959</v>
+        <v>0.5011490934820958</v>
       </c>
       <c r="D360">
         <v>0.1122916372398189</v>
@@ -9720,10 +9720,10 @@
         <v>0.4436733499162675</v>
       </c>
       <c r="F360">
-        <v>0.2072313160590197</v>
+        <v>0.2072313160590198</v>
       </c>
       <c r="G360">
-        <v>0.4315143266573647</v>
+        <v>0.4315143266573648</v>
       </c>
       <c r="H360">
         <v>0.4177179311220414</v>
@@ -9740,19 +9740,19 @@
         <v>1.145917270287123</v>
       </c>
       <c r="D361">
-        <v>0.5392236680858689</v>
+        <v>0.539223668085869</v>
       </c>
       <c r="E361">
-        <v>0.9962721551881607</v>
+        <v>0.9962721551881606</v>
       </c>
       <c r="F361">
-        <v>0.5928078228962116</v>
+        <v>0.5928078228962117</v>
       </c>
       <c r="G361">
         <v>1.001481244445151</v>
       </c>
       <c r="H361">
-        <v>0.9752009779294144</v>
+        <v>0.9752009779294141</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9760,7 +9760,7 @@
         <v>361</v>
       </c>
       <c r="B362">
-        <v>0.4972791750886563</v>
+        <v>0.4972791750886564</v>
       </c>
       <c r="C362">
         <v>1.212791094373665</v>
@@ -9786,7 +9786,7 @@
         <v>362</v>
       </c>
       <c r="B363">
-        <v>0.5767137227533661</v>
+        <v>0.5767137227533663</v>
       </c>
       <c r="C363">
         <v>1.029713150671796</v>
@@ -9795,16 +9795,16 @@
         <v>0.2907207634864447</v>
       </c>
       <c r="E363">
-        <v>0.9077784679672906</v>
+        <v>0.9077784679672904</v>
       </c>
       <c r="F363">
         <v>0.5044218947294797</v>
       </c>
       <c r="G363">
-        <v>0.8636835070367526</v>
+        <v>0.8636835070367525</v>
       </c>
       <c r="H363">
-        <v>0.8627594493804397</v>
+        <v>0.8627594493804395</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9818,13 +9818,13 @@
         <v>1.218827856399286</v>
       </c>
       <c r="D364">
-        <v>0.5865660449821363</v>
+        <v>0.5865660449821362</v>
       </c>
       <c r="E364">
         <v>1.03638947678495</v>
       </c>
       <c r="F364">
-        <v>0.6269233962431804</v>
+        <v>0.6269233962431806</v>
       </c>
       <c r="G364">
         <v>1.058743236468217</v>
@@ -9844,13 +9844,13 @@
         <v>1.218827856399286</v>
       </c>
       <c r="D365">
-        <v>0.5865660449821363</v>
+        <v>0.5865660449821362</v>
       </c>
       <c r="E365">
         <v>1.03638947678495</v>
       </c>
       <c r="F365">
-        <v>0.6269233962431804</v>
+        <v>0.6269233962431806</v>
       </c>
       <c r="G365">
         <v>1.058743236468217</v>
@@ -9876,13 +9876,13 @@
         <v>0.9050964435526121</v>
       </c>
       <c r="F366">
-        <v>0.4719731644752242</v>
+        <v>0.4719731644752243</v>
       </c>
       <c r="G366">
         <v>0.8953870130929233</v>
       </c>
       <c r="H366">
-        <v>0.8647209128319994</v>
+        <v>0.8647209128319991</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9902,13 +9902,13 @@
         <v>0.9050964435526121</v>
       </c>
       <c r="F367">
-        <v>0.4719731644752242</v>
+        <v>0.4719731644752243</v>
       </c>
       <c r="G367">
         <v>0.8953870130929233</v>
       </c>
       <c r="H367">
-        <v>0.8647209128319993</v>
+        <v>0.8647209128319991</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9925,16 +9925,16 @@
         <v>0.4163186636061452</v>
       </c>
       <c r="E368">
-        <v>0.9248162962123979</v>
+        <v>0.9248162962123977</v>
       </c>
       <c r="F368">
-        <v>0.5866422856179698</v>
+        <v>0.5866422856179697</v>
       </c>
       <c r="G368">
         <v>0.931294581178758</v>
       </c>
       <c r="H368">
-        <v>0.8982147322188825</v>
+        <v>0.8982147322188824</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9954,7 +9954,7 @@
         <v>0.9050964435526121</v>
       </c>
       <c r="F369">
-        <v>0.4719731644752242</v>
+        <v>0.4719731644752243</v>
       </c>
       <c r="G369">
         <v>0.8953870130929233</v>
@@ -9971,7 +9971,7 @@
         <v>0.5186923730646229</v>
       </c>
       <c r="C370">
-        <v>0.9284498784168803</v>
+        <v>0.92844987841688</v>
       </c>
       <c r="D370">
         <v>0.2175285073572326</v>
@@ -9986,7 +9986,7 @@
         <v>0.7703815683200395</v>
       </c>
       <c r="H370">
-        <v>0.7587508417958481</v>
+        <v>0.758750841795848</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -9997,7 +9997,7 @@
         <v>0.5186923730646228</v>
       </c>
       <c r="C371">
-        <v>0.9284498784168803</v>
+        <v>0.9284498784168799</v>
       </c>
       <c r="D371">
         <v>0.2175285073572326</v>
@@ -10012,7 +10012,7 @@
         <v>0.7703815683200395</v>
       </c>
       <c r="H371">
-        <v>0.7587508417958481</v>
+        <v>0.758750841795848</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10023,13 +10023,13 @@
         <v>0.5186923730646228</v>
       </c>
       <c r="C372">
-        <v>0.9284498784168805</v>
+        <v>0.92844987841688</v>
       </c>
       <c r="D372">
         <v>0.2175285073572326</v>
       </c>
       <c r="E372">
-        <v>0.8063791184988154</v>
+        <v>0.8063791184988153</v>
       </c>
       <c r="F372">
         <v>0.4225120702085022</v>
@@ -10038,7 +10038,7 @@
         <v>0.7703815683200395</v>
       </c>
       <c r="H372">
-        <v>0.7587508417958481</v>
+        <v>0.758750841795848</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10046,7 +10046,7 @@
         <v>372</v>
       </c>
       <c r="B373">
-        <v>0.6293047746481991</v>
+        <v>0.6293047746481992</v>
       </c>
       <c r="C373">
         <v>0.9276851869087933</v>
@@ -10055,7 +10055,7 @@
         <v>0.4639974220435822</v>
       </c>
       <c r="E373">
-        <v>0.8197186335679533</v>
+        <v>0.8197186335679532</v>
       </c>
       <c r="F373">
         <v>0.6023531556828773</v>
@@ -10064,7 +10064,7 @@
         <v>0.8205337860479989</v>
       </c>
       <c r="H373">
-        <v>0.7992107797882844</v>
+        <v>0.7992107797882843</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10072,10 +10072,10 @@
         <v>373</v>
       </c>
       <c r="B374">
-        <v>0.5299354730907962</v>
+        <v>0.5299354730907964</v>
       </c>
       <c r="C374">
-        <v>0.7262651705215679</v>
+        <v>0.7262651705215678</v>
       </c>
       <c r="D374">
         <v>0.3690667366313914</v>
@@ -10084,13 +10084,13 @@
         <v>0.6615679356975417</v>
       </c>
       <c r="F374">
-        <v>0.4928426463986852</v>
+        <v>0.4928426463986854</v>
       </c>
       <c r="G374">
         <v>0.6480177056358244</v>
       </c>
       <c r="H374">
-        <v>0.6417347744607552</v>
+        <v>0.6417347744607551</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10101,22 +10101,22 @@
         <v>0.6194138004428295</v>
       </c>
       <c r="C375">
-        <v>0.9843771754430222</v>
+        <v>0.9843771754430223</v>
       </c>
       <c r="D375">
         <v>0.3763820872629011</v>
       </c>
       <c r="E375">
-        <v>0.8586725147853256</v>
+        <v>0.8586725147853255</v>
       </c>
       <c r="F375">
-        <v>0.5633156256975421</v>
+        <v>0.5633156256975422</v>
       </c>
       <c r="G375">
         <v>0.8477714854668021</v>
       </c>
       <c r="H375">
-        <v>0.8233142801913639</v>
+        <v>0.8233142801913637</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10130,13 +10130,13 @@
         <v>0.7970839030242299</v>
       </c>
       <c r="D376">
-        <v>0.3102826610268861</v>
+        <v>0.3102826610268862</v>
       </c>
       <c r="E376">
         <v>0.7066802723644025</v>
       </c>
       <c r="F376">
-        <v>0.4615991457513071</v>
+        <v>0.4615991457513073</v>
       </c>
       <c r="G376">
         <v>0.689993067372266</v>
@@ -10162,13 +10162,13 @@
         <v>0.7066802723644025</v>
       </c>
       <c r="F377">
-        <v>0.4615991457513071</v>
+        <v>0.4615991457513072</v>
       </c>
       <c r="G377">
         <v>0.689993067372266</v>
       </c>
       <c r="H377">
-        <v>0.6742210257197798</v>
+        <v>0.6742210257197799</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10176,7 +10176,7 @@
         <v>377</v>
       </c>
       <c r="B378">
-        <v>0.7222635334880615</v>
+        <v>0.7222635334880614</v>
       </c>
       <c r="C378">
         <v>1.085621938101718</v>
@@ -10191,7 +10191,7 @@
         <v>0.7090797119725972</v>
       </c>
       <c r="G378">
-        <v>0.9649817751972303</v>
+        <v>0.9649817751972305</v>
       </c>
       <c r="H378">
         <v>0.9278624780136355</v>
@@ -10208,7 +10208,7 @@
         <v>1.085621938101718</v>
       </c>
       <c r="D379">
-        <v>0.6341992450992958</v>
+        <v>0.6341992450992957</v>
       </c>
       <c r="E379">
         <v>0.9516319676158037</v>
@@ -10217,7 +10217,7 @@
         <v>0.7090797119725972</v>
       </c>
       <c r="G379">
-        <v>0.9649817751972304</v>
+        <v>0.9649817751972306</v>
       </c>
       <c r="H379">
         <v>0.9278624780136355</v>
@@ -10228,7 +10228,7 @@
         <v>379</v>
       </c>
       <c r="B380">
-        <v>0.7119735406492962</v>
+        <v>0.7119735406492961</v>
       </c>
       <c r="C380">
         <v>1.150447699368568</v>
@@ -10243,7 +10243,7 @@
         <v>0.6584028586315555</v>
       </c>
       <c r="G380">
-        <v>0.9933444736387724</v>
+        <v>0.9933444736387725</v>
       </c>
       <c r="H380">
         <v>0.9532387269848368</v>
@@ -10269,7 +10269,7 @@
         <v>0.6584028586315555</v>
       </c>
       <c r="G381">
-        <v>0.9933444736387723</v>
+        <v>0.9933444736387725</v>
       </c>
       <c r="H381">
         <v>0.9532387269848367</v>
@@ -10289,10 +10289,10 @@
         <v>0.3613973959336846</v>
       </c>
       <c r="E382">
-        <v>0.8975400492946753</v>
+        <v>0.8975400492946752</v>
       </c>
       <c r="F382">
-        <v>0.6141710539190596</v>
+        <v>0.6141710539190597</v>
       </c>
       <c r="G382">
         <v>0.8707771821499894</v>
@@ -10312,7 +10312,7 @@
         <v>1.171373409139306</v>
       </c>
       <c r="D383">
-        <v>0.3625622614994721</v>
+        <v>0.362562261499472</v>
       </c>
       <c r="E383">
         <v>1.002926090688425</v>
@@ -10321,10 +10321,10 @@
         <v>0.5439674739659589</v>
       </c>
       <c r="G383">
-        <v>0.9827213299194247</v>
+        <v>0.9827213299194248</v>
       </c>
       <c r="H383">
-        <v>0.9554256002589835</v>
+        <v>0.9554256002589834</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10335,7 +10335,7 @@
         <v>0.5495096496538139</v>
       </c>
       <c r="C384">
-        <v>0.9878848246604195</v>
+        <v>0.9878848246604192</v>
       </c>
       <c r="D384">
         <v>0.3633095077266393</v>
@@ -10370,7 +10370,7 @@
         <v>1.148196394029387</v>
       </c>
       <c r="F385">
-        <v>0.6584139019916906</v>
+        <v>0.6584139019916907</v>
       </c>
       <c r="G385">
         <v>1.139045426510476</v>
@@ -10384,25 +10384,25 @@
         <v>385</v>
       </c>
       <c r="B386">
-        <v>0.3771255726582082</v>
+        <v>0.3771255726582083</v>
       </c>
       <c r="C386">
-        <v>0.8541326053094567</v>
+        <v>0.8541326053094563</v>
       </c>
       <c r="D386">
         <v>0.261093508675325</v>
       </c>
       <c r="E386">
-        <v>0.7356905810907212</v>
+        <v>0.7356905810907211</v>
       </c>
       <c r="F386">
-        <v>0.3545357846427462</v>
+        <v>0.3545357846427463</v>
       </c>
       <c r="G386">
         <v>0.7231415082628133</v>
       </c>
       <c r="H386">
-        <v>0.701950907519532</v>
+        <v>0.7019509075195319</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10410,25 +10410,25 @@
         <v>386</v>
       </c>
       <c r="B387">
-        <v>0.3771255726582082</v>
+        <v>0.3771255726582083</v>
       </c>
       <c r="C387">
-        <v>0.8541326053094567</v>
+        <v>0.8541326053094563</v>
       </c>
       <c r="D387">
         <v>0.261093508675325</v>
       </c>
       <c r="E387">
-        <v>0.7356905810907212</v>
+        <v>0.7356905810907211</v>
       </c>
       <c r="F387">
-        <v>0.3545357846427462</v>
+        <v>0.3545357846427463</v>
       </c>
       <c r="G387">
         <v>0.7231415082628133</v>
       </c>
       <c r="H387">
-        <v>0.701950907519532</v>
+        <v>0.7019509075195319</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10442,16 +10442,16 @@
         <v>0.5810186127210319</v>
       </c>
       <c r="D388">
-        <v>0.7603421291097309</v>
+        <v>0.7603421291097306</v>
       </c>
       <c r="E388">
-        <v>0.5646877140166343</v>
+        <v>0.5646877140166345</v>
       </c>
       <c r="F388">
         <v>0.6401857876178613</v>
       </c>
       <c r="G388">
-        <v>0.5711243016575265</v>
+        <v>0.5711243016575266</v>
       </c>
       <c r="H388">
         <v>0.5482050490178356</v>
@@ -10474,7 +10474,7 @@
         <v>0.5390838675609458</v>
       </c>
       <c r="F389">
-        <v>0.5196045992054685</v>
+        <v>0.5196045992054686</v>
       </c>
       <c r="G389">
         <v>0.5167774014157949</v>
@@ -10520,16 +10520,16 @@
         <v>0.5810186127210319</v>
       </c>
       <c r="D391">
-        <v>0.7603421291097309</v>
+        <v>0.7603421291097306</v>
       </c>
       <c r="E391">
-        <v>0.5646877140166343</v>
+        <v>0.5646877140166344</v>
       </c>
       <c r="F391">
         <v>0.6401857876178613</v>
       </c>
       <c r="G391">
-        <v>0.5711243016575265</v>
+        <v>0.5711243016575266</v>
       </c>
       <c r="H391">
         <v>0.5482050490178356</v>
@@ -10540,7 +10540,7 @@
         <v>391</v>
       </c>
       <c r="B392">
-        <v>0.609013106958733</v>
+        <v>0.6090131069587331</v>
       </c>
       <c r="C392">
         <v>0.5661284674387121</v>
@@ -10566,7 +10566,7 @@
         <v>392</v>
       </c>
       <c r="B393">
-        <v>0.4970770096289416</v>
+        <v>0.4970770096289417</v>
       </c>
       <c r="C393">
         <v>0.4803700618027147</v>
@@ -10581,10 +10581,10 @@
         <v>0.4344126727139533</v>
       </c>
       <c r="G393">
-        <v>0.4453390864922244</v>
+        <v>0.4453390864922245</v>
       </c>
       <c r="H393">
-        <v>0.4369519800602942</v>
+        <v>0.4369519800602943</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10607,10 +10607,10 @@
         <v>0.4344126727139533</v>
       </c>
       <c r="G394">
-        <v>0.4453390864922244</v>
+        <v>0.4453390864922245</v>
       </c>
       <c r="H394">
-        <v>0.4369519800602941</v>
+        <v>0.4369519800602943</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10618,10 +10618,10 @@
         <v>394</v>
       </c>
       <c r="B395">
-        <v>0.5167618631776195</v>
+        <v>0.5167618631776196</v>
       </c>
       <c r="C395">
-        <v>0.5030591473321157</v>
+        <v>0.5030591473321158</v>
       </c>
       <c r="D395">
         <v>0.2913354256505231</v>
@@ -10636,7 +10636,7 @@
         <v>0.4534529895731051</v>
       </c>
       <c r="H395">
-        <v>0.4544587583876289</v>
+        <v>0.4544587583876291</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10644,19 +10644,19 @@
         <v>395</v>
       </c>
       <c r="B396">
-        <v>0.5167618631776195</v>
+        <v>0.5167618631776196</v>
       </c>
       <c r="C396">
-        <v>0.5030591473321157</v>
+        <v>0.5030591473321159</v>
       </c>
       <c r="D396">
-        <v>0.2913354256505231</v>
+        <v>0.291335425650523</v>
       </c>
       <c r="E396">
         <v>0.4829858529353707</v>
       </c>
       <c r="F396">
-        <v>0.4460808882256209</v>
+        <v>0.446080888225621</v>
       </c>
       <c r="G396">
         <v>0.4534529895731051</v>
@@ -10673,13 +10673,13 @@
         <v>0.7321250985728361</v>
       </c>
       <c r="C397">
-        <v>0.5436115780862573</v>
+        <v>0.5436115780862574</v>
       </c>
       <c r="D397">
         <v>0.4057487659730852</v>
       </c>
       <c r="E397">
-        <v>0.5303943935505596</v>
+        <v>0.5303943935505597</v>
       </c>
       <c r="F397">
         <v>0.6163415728498873</v>
@@ -10688,7 +10688,7 @@
         <v>0.4986683641916841</v>
       </c>
       <c r="H397">
-        <v>0.5001812512446532</v>
+        <v>0.5001812512446533</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10699,13 +10699,13 @@
         <v>0.7321250985728361</v>
       </c>
       <c r="C398">
-        <v>0.5436115780862573</v>
+        <v>0.5436115780862574</v>
       </c>
       <c r="D398">
         <v>0.4057487659730852</v>
       </c>
       <c r="E398">
-        <v>0.5303943935505596</v>
+        <v>0.5303943935505597</v>
       </c>
       <c r="F398">
         <v>0.6163415728498873</v>
@@ -10731,13 +10731,13 @@
         <v>0.5105591199329749</v>
       </c>
       <c r="E399">
-        <v>0.43309421458633</v>
+        <v>0.4330942145863299</v>
       </c>
       <c r="F399">
         <v>0.4777253532353661</v>
       </c>
       <c r="G399">
-        <v>0.4195956017036604</v>
+        <v>0.4195956017036603</v>
       </c>
       <c r="H399">
         <v>0.4086003537002568</v>
@@ -10751,13 +10751,13 @@
         <v>0.5686824518409912</v>
       </c>
       <c r="C400">
-        <v>0.4606510596477434</v>
+        <v>0.4606510596477433</v>
       </c>
       <c r="D400">
         <v>0.4358637655281951</v>
       </c>
       <c r="E400">
-        <v>0.4331749642851511</v>
+        <v>0.433174964285151</v>
       </c>
       <c r="F400">
         <v>0.456515335834466</v>
@@ -10766,7 +10766,7 @@
         <v>0.4189983070407572</v>
       </c>
       <c r="H400">
-        <v>0.4057906473823562</v>
+        <v>0.405790647382356</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10783,13 +10783,13 @@
         <v>0.4741297653699859</v>
       </c>
       <c r="E401">
-        <v>0.4479041753989578</v>
+        <v>0.4479041753989577</v>
       </c>
       <c r="F401">
         <v>0.4701102693663793</v>
       </c>
       <c r="G401">
-        <v>0.4339006285073648</v>
+        <v>0.4339006285073647</v>
       </c>
       <c r="H401">
         <v>0.4210954332101651</v>
@@ -10800,16 +10800,16 @@
         <v>401</v>
       </c>
       <c r="B402">
-        <v>0.574459610645969</v>
+        <v>0.5744596106459691</v>
       </c>
       <c r="C402">
-        <v>0.4265887470067568</v>
+        <v>0.4265887470067567</v>
       </c>
       <c r="D402">
         <v>0.3784876350678585</v>
       </c>
       <c r="E402">
-        <v>0.4120455151964134</v>
+        <v>0.4120455151964133</v>
       </c>
       <c r="F402">
         <v>0.4569051501868226</v>
@@ -10826,10 +10826,10 @@
         <v>402</v>
       </c>
       <c r="B403">
-        <v>0.5686824518409911</v>
+        <v>0.5686824518409912</v>
       </c>
       <c r="C403">
-        <v>0.4606510596477433</v>
+        <v>0.4606510596477432</v>
       </c>
       <c r="D403">
         <v>0.4358637655281951</v>
@@ -10844,7 +10844,7 @@
         <v>0.4189983070407572</v>
       </c>
       <c r="H403">
-        <v>0.4057906473823561</v>
+        <v>0.405790647382356</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10852,10 +10852,10 @@
         <v>403</v>
       </c>
       <c r="B404">
-        <v>0.5090222228230105</v>
+        <v>0.5090222228230106</v>
       </c>
       <c r="C404">
-        <v>0.4083271072442137</v>
+        <v>0.4083271072442136</v>
       </c>
       <c r="D404">
         <v>0.4332868548823843</v>
@@ -10864,13 +10864,13 @@
         <v>0.3877968513718114</v>
       </c>
       <c r="F404">
-        <v>0.415242648395065</v>
+        <v>0.4152426483950649</v>
       </c>
       <c r="G404">
-        <v>0.3761386886239015</v>
+        <v>0.3761386886239014</v>
       </c>
       <c r="H404">
-        <v>0.3634713349426375</v>
+        <v>0.3634713349426374</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10878,7 +10878,7 @@
         <v>404</v>
       </c>
       <c r="B405">
-        <v>0.5090222228230105</v>
+        <v>0.5090222228230106</v>
       </c>
       <c r="C405">
         <v>0.4083271072442136</v>
@@ -10890,13 +10890,13 @@
         <v>0.3877968513718112</v>
       </c>
       <c r="F405">
-        <v>0.415242648395065</v>
+        <v>0.4152426483950649</v>
       </c>
       <c r="G405">
-        <v>0.3761386886239015</v>
+        <v>0.3761386886239014</v>
       </c>
       <c r="H405">
-        <v>0.3634713349426375</v>
+        <v>0.3634713349426374</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10907,7 +10907,7 @@
         <v>0.5090222228230106</v>
       </c>
       <c r="C406">
-        <v>0.4083271072442137</v>
+        <v>0.4083271072442136</v>
       </c>
       <c r="D406">
         <v>0.4332868548823843</v>
@@ -10919,7 +10919,7 @@
         <v>0.415242648395065</v>
       </c>
       <c r="G406">
-        <v>0.3761386886239015</v>
+        <v>0.3761386886239014</v>
       </c>
       <c r="H406">
         <v>0.3634713349426375</v>
@@ -10959,7 +10959,7 @@
         <v>0.456275515566039</v>
       </c>
       <c r="C408">
-        <v>0.3706237539976044</v>
+        <v>0.3706237539976042</v>
       </c>
       <c r="D408">
         <v>0.3958409099563504</v>
@@ -10968,7 +10968,7 @@
         <v>0.35137243424349</v>
       </c>
       <c r="F408">
-        <v>0.3786566794725443</v>
+        <v>0.3786566794725442</v>
       </c>
       <c r="G408">
         <v>0.3419912710259916</v>
@@ -10985,7 +10985,7 @@
         <v>0.456275515566039</v>
       </c>
       <c r="C409">
-        <v>0.3706237539976044</v>
+        <v>0.3706237539976042</v>
       </c>
       <c r="D409">
         <v>0.3958409099563504</v>
@@ -10997,7 +10997,7 @@
         <v>0.3786566794725442</v>
       </c>
       <c r="G409">
-        <v>0.3419912710259916</v>
+        <v>0.3419912710259915</v>
       </c>
       <c r="H409">
         <v>0.3297558978549406</v>
@@ -11020,13 +11020,13 @@
         <v>0.7684430435737094</v>
       </c>
       <c r="F410">
-        <v>0.5860978014463983</v>
+        <v>0.5860978014463984</v>
       </c>
       <c r="G410">
-        <v>0.782890822331973</v>
+        <v>0.7828908223319728</v>
       </c>
       <c r="H410">
-        <v>0.7471445111379876</v>
+        <v>0.7471445111379875</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11034,16 +11034,16 @@
         <v>410</v>
       </c>
       <c r="B411">
-        <v>0.5412877481773674</v>
+        <v>0.5412877481773675</v>
       </c>
       <c r="C411">
-        <v>0.7857356799923969</v>
+        <v>0.7857356799923967</v>
       </c>
       <c r="D411">
         <v>0.475993432136339</v>
       </c>
       <c r="E411">
-        <v>0.6885509081592307</v>
+        <v>0.6885509081592306</v>
       </c>
       <c r="F411">
         <v>0.4792370791486901</v>
@@ -11052,7 +11052,7 @@
         <v>0.6936403433769092</v>
       </c>
       <c r="H411">
-        <v>0.6619341541992858</v>
+        <v>0.6619341541992857</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11060,16 +11060,16 @@
         <v>411</v>
       </c>
       <c r="B412">
-        <v>0.5412877481773674</v>
+        <v>0.5412877481773675</v>
       </c>
       <c r="C412">
-        <v>0.7857356799923969</v>
+        <v>0.7857356799923967</v>
       </c>
       <c r="D412">
         <v>0.475993432136339</v>
       </c>
       <c r="E412">
-        <v>0.6885509081592307</v>
+        <v>0.6885509081592305</v>
       </c>
       <c r="F412">
         <v>0.4792370791486901</v>
@@ -11078,7 +11078,7 @@
         <v>0.6936403433769091</v>
       </c>
       <c r="H412">
-        <v>0.6619341541992858</v>
+        <v>0.6619341541992857</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11089,13 +11089,13 @@
         <v>0.4819555885132302</v>
       </c>
       <c r="C413">
-        <v>0.7661735774394371</v>
+        <v>0.766173577439437</v>
       </c>
       <c r="D413">
         <v>0.2858171274164649</v>
       </c>
       <c r="E413">
-        <v>0.6729602415350476</v>
+        <v>0.6729602415350474</v>
       </c>
       <c r="F413">
         <v>0.4055189445484124</v>
@@ -11127,7 +11127,7 @@
         <v>0.5469202443815013</v>
       </c>
       <c r="G414">
-        <v>0.8146507256814762</v>
+        <v>0.8146507256814759</v>
       </c>
       <c r="H414">
         <v>0.7756935640716774</v>
@@ -11141,22 +11141,22 @@
         <v>0.6410107736362526</v>
       </c>
       <c r="C415">
-        <v>0.7970364443799791</v>
+        <v>0.7970364443799788</v>
       </c>
       <c r="D415">
-        <v>0.381992685211514</v>
+        <v>0.3819926852115141</v>
       </c>
       <c r="E415">
-        <v>0.6979994269125699</v>
+        <v>0.6979994269125698</v>
       </c>
       <c r="F415">
-        <v>0.5462986250751302</v>
+        <v>0.5462986250751301</v>
       </c>
       <c r="G415">
         <v>0.6898154057281857</v>
       </c>
       <c r="H415">
-        <v>0.6684012513214487</v>
+        <v>0.6684012513214486</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11167,19 +11167,19 @@
         <v>0.6410107736362525</v>
       </c>
       <c r="C416">
-        <v>0.7970364443799791</v>
+        <v>0.7970364443799788</v>
       </c>
       <c r="D416">
-        <v>0.381992685211514</v>
+        <v>0.3819926852115141</v>
       </c>
       <c r="E416">
-        <v>0.6979994269125699</v>
+        <v>0.6979994269125698</v>
       </c>
       <c r="F416">
         <v>0.5462986250751301</v>
       </c>
       <c r="G416">
-        <v>0.6898154057281857</v>
+        <v>0.6898154057281856</v>
       </c>
       <c r="H416">
         <v>0.6684012513214486</v>
@@ -11193,7 +11193,7 @@
         <v>0.6118864877257869</v>
       </c>
       <c r="C417">
-        <v>0.6096078552842458</v>
+        <v>0.6096078552842455</v>
       </c>
       <c r="D417">
         <v>0.4107780822821438</v>
@@ -11202,13 +11202,13 @@
         <v>0.5561121688435735</v>
       </c>
       <c r="F417">
-        <v>0.4983469835876999</v>
+        <v>0.4983469835876998</v>
       </c>
       <c r="G417">
-        <v>0.5368204500887468</v>
+        <v>0.5368204500887467</v>
       </c>
       <c r="H417">
-        <v>0.5255620483184079</v>
+        <v>0.5255620483184078</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11216,25 +11216,25 @@
         <v>417</v>
       </c>
       <c r="B418">
-        <v>0.6118864877257868</v>
+        <v>0.6118864877257869</v>
       </c>
       <c r="C418">
-        <v>0.6096078552842458</v>
+        <v>0.6096078552842455</v>
       </c>
       <c r="D418">
-        <v>0.4107780822821437</v>
+        <v>0.4107780822821438</v>
       </c>
       <c r="E418">
         <v>0.5561121688435735</v>
       </c>
       <c r="F418">
-        <v>0.4983469835876999</v>
+        <v>0.4983469835876998</v>
       </c>
       <c r="G418">
-        <v>0.5368204500887468</v>
+        <v>0.5368204500887467</v>
       </c>
       <c r="H418">
-        <v>0.5255620483184079</v>
+        <v>0.5255620483184078</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11254,7 +11254,7 @@
         <v>0.7075819907491063</v>
       </c>
       <c r="F419">
-        <v>0.5616132390406136</v>
+        <v>0.5616132390406137</v>
       </c>
       <c r="G419">
         <v>0.7139698727718531</v>
@@ -11274,13 +11274,13 @@
         <v>0.7763466297865398</v>
       </c>
       <c r="D420">
-        <v>0.608224786948936</v>
+        <v>0.6082247869489358</v>
       </c>
       <c r="E420">
         <v>0.7075819907491064</v>
       </c>
       <c r="F420">
-        <v>0.5616132390406136</v>
+        <v>0.5616132390406137</v>
       </c>
       <c r="G420">
         <v>0.713969872771853</v>
@@ -11303,10 +11303,10 @@
         <v>0.6714421247610053</v>
       </c>
       <c r="E421">
-        <v>0.5886683914254071</v>
+        <v>0.5886683914254072</v>
       </c>
       <c r="F421">
-        <v>0.5942463855431195</v>
+        <v>0.5942463855431196</v>
       </c>
       <c r="G421">
         <v>0.5835446099942301</v>
@@ -11329,10 +11329,10 @@
         <v>0.6714421247610053</v>
       </c>
       <c r="E422">
-        <v>0.5886683914254071</v>
+        <v>0.5886683914254072</v>
       </c>
       <c r="F422">
-        <v>0.5942463855431195</v>
+        <v>0.5942463855431196</v>
       </c>
       <c r="G422">
         <v>0.5835446099942301</v>
@@ -11358,7 +11358,7 @@
         <v>0.7075819907491064</v>
       </c>
       <c r="F423">
-        <v>0.5616132390406136</v>
+        <v>0.5616132390406137</v>
       </c>
       <c r="G423">
         <v>0.713969872771853</v>
@@ -11384,7 +11384,7 @@
         <v>0.7075819907491063</v>
       </c>
       <c r="F424">
-        <v>0.5616132390406136</v>
+        <v>0.5616132390406137</v>
       </c>
       <c r="G424">
         <v>0.7139698727718528</v>
@@ -11410,7 +11410,7 @@
         <v>0.5886683914254071</v>
       </c>
       <c r="F425">
-        <v>0.5942463855431195</v>
+        <v>0.5942463855431196</v>
       </c>
       <c r="G425">
         <v>0.5835446099942302</v>
@@ -11436,7 +11436,7 @@
         <v>0.7075819907491064</v>
       </c>
       <c r="F426">
-        <v>0.5616132390406136</v>
+        <v>0.5616132390406137</v>
       </c>
       <c r="G426">
         <v>0.713969872771853</v>
@@ -11462,13 +11462,13 @@
         <v>0.7414936345953881</v>
       </c>
       <c r="F427">
-        <v>0.5266241306780893</v>
+        <v>0.5266241306780896</v>
       </c>
       <c r="G427">
         <v>0.7389928423856846</v>
       </c>
       <c r="H427">
-        <v>0.7083779570078986</v>
+        <v>0.7083779570078987</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11488,13 +11488,13 @@
         <v>0.7414936345953882</v>
       </c>
       <c r="F428">
-        <v>0.5266241306780893</v>
+        <v>0.5266241306780894</v>
       </c>
       <c r="G428">
         <v>0.7389928423856846</v>
       </c>
       <c r="H428">
-        <v>0.7083779570078985</v>
+        <v>0.7083779570078986</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11514,7 +11514,7 @@
         <v>0.7075819907491063</v>
       </c>
       <c r="F429">
-        <v>0.5616132390406136</v>
+        <v>0.5616132390406137</v>
       </c>
       <c r="G429">
         <v>0.713969872771853</v>
@@ -11540,7 +11540,7 @@
         <v>0.7075819907491063</v>
       </c>
       <c r="F430">
-        <v>0.5616132390406136</v>
+        <v>0.5616132390406137</v>
       </c>
       <c r="G430">
         <v>0.7139698727718531</v>
@@ -11563,7 +11563,7 @@
         <v>0.6714421247610053</v>
       </c>
       <c r="E431">
-        <v>0.5886683914254071</v>
+        <v>0.5886683914254072</v>
       </c>
       <c r="F431">
         <v>0.5942463855431196</v>
@@ -11618,7 +11618,7 @@
         <v>0.7075819907491064</v>
       </c>
       <c r="F433">
-        <v>0.5616132390406136</v>
+        <v>0.5616132390406137</v>
       </c>
       <c r="G433">
         <v>0.7139698727718529</v>
@@ -11635,19 +11635,19 @@
         <v>0.5894419204172482</v>
       </c>
       <c r="C434">
-        <v>0.581688565055601</v>
+        <v>0.5816885650556011</v>
       </c>
       <c r="D434">
         <v>0.4460619656441532</v>
       </c>
       <c r="E434">
-        <v>0.5593977405392893</v>
+        <v>0.5593977405392894</v>
       </c>
       <c r="F434">
         <v>0.524038092874927</v>
       </c>
       <c r="G434">
-        <v>0.539362184793108</v>
+        <v>0.5393621847931083</v>
       </c>
       <c r="H434">
         <v>0.5399147607585656</v>
@@ -11670,7 +11670,7 @@
         <v>0.7075819907491063</v>
       </c>
       <c r="F435">
-        <v>0.5616132390406134</v>
+        <v>0.5616132390406137</v>
       </c>
       <c r="G435">
         <v>0.713969872771853</v>
@@ -11696,7 +11696,7 @@
         <v>0.6238446485076337</v>
       </c>
       <c r="F436">
-        <v>0.4748004628206139</v>
+        <v>0.474800462820614</v>
       </c>
       <c r="G436">
         <v>0.5848920923401252</v>
@@ -11716,7 +11716,7 @@
         <v>0.5029275737839017</v>
       </c>
       <c r="D437">
-        <v>0.4094107223103754</v>
+        <v>0.4094107223103755</v>
       </c>
       <c r="E437">
         <v>0.4703467284046806</v>
@@ -11745,7 +11745,7 @@
         <v>0.4094107223103753</v>
       </c>
       <c r="E438">
-        <v>0.4703467284046805</v>
+        <v>0.4703467284046806</v>
       </c>
       <c r="F438">
         <v>0.3701275184104942</v>
@@ -11754,7 +11754,7 @@
         <v>0.4611024098299281</v>
       </c>
       <c r="H438">
-        <v>0.4525526613912485</v>
+        <v>0.4525526613912484</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>0.4611024098299281</v>
       </c>
       <c r="H439">
-        <v>0.4525526613912485</v>
+        <v>0.4525526613912484</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>0.4611024098299281</v>
       </c>
       <c r="H440">
-        <v>0.4525526613912485</v>
+        <v>0.4525526613912484</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11820,7 +11820,7 @@
         <v>0.5029275737839018</v>
       </c>
       <c r="D441">
-        <v>0.4094107223103754</v>
+        <v>0.4094107223103755</v>
       </c>
       <c r="E441">
         <v>0.4703467284046806</v>
@@ -11849,7 +11849,7 @@
         <v>0.4210376037127871</v>
       </c>
       <c r="E442">
-        <v>0.4566347490248737</v>
+        <v>0.4566347490248738</v>
       </c>
       <c r="F442">
         <v>0.3809523827278488</v>
@@ -11875,16 +11875,16 @@
         <v>0.4094107223103753</v>
       </c>
       <c r="E443">
-        <v>0.4703467284046805</v>
+        <v>0.4703467284046806</v>
       </c>
       <c r="F443">
-        <v>0.3701275184104941</v>
+        <v>0.3701275184104942</v>
       </c>
       <c r="G443">
         <v>0.4611024098299281</v>
       </c>
       <c r="H443">
-        <v>0.4525526613912485</v>
+        <v>0.4525526613912484</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11927,7 +11927,7 @@
         <v>0.4094107223103753</v>
       </c>
       <c r="E445">
-        <v>0.4703467284046804</v>
+        <v>0.4703467284046806</v>
       </c>
       <c r="F445">
         <v>0.3701275184104942</v>
@@ -11936,7 +11936,7 @@
         <v>0.4611024098299281</v>
       </c>
       <c r="H445">
-        <v>0.4525526613912485</v>
+        <v>0.4525526613912484</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11950,7 +11950,7 @@
         <v>0.5029275737839018</v>
       </c>
       <c r="D446">
-        <v>0.4094107223103754</v>
+        <v>0.4094107223103755</v>
       </c>
       <c r="E446">
         <v>0.4703467284046806</v>
@@ -11962,7 +11962,7 @@
         <v>0.4611024098299281</v>
       </c>
       <c r="H446">
-        <v>0.4525526613912485</v>
+        <v>0.4525526613912484</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -11979,7 +11979,7 @@
         <v>0.4094107223103753</v>
       </c>
       <c r="E447">
-        <v>0.4703467284046804</v>
+        <v>0.4703467284046806</v>
       </c>
       <c r="F447">
         <v>0.3701275184104942</v>
@@ -11988,7 +11988,7 @@
         <v>0.4611024098299281</v>
       </c>
       <c r="H447">
-        <v>0.4525526613912485</v>
+        <v>0.4525526613912484</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -11999,22 +11999,22 @@
         <v>0.7573059580604723</v>
       </c>
       <c r="C448">
-        <v>0.9714312182517206</v>
+        <v>0.9714312182517205</v>
       </c>
       <c r="D448">
         <v>0.2886935373697748</v>
       </c>
       <c r="E448">
-        <v>0.882365990738381</v>
+        <v>0.8823659907383812</v>
       </c>
       <c r="F448">
-        <v>0.6583289115128274</v>
+        <v>0.6583289115128275</v>
       </c>
       <c r="G448">
-        <v>0.8344155799540875</v>
+        <v>0.8344155799540873</v>
       </c>
       <c r="H448">
-        <v>0.8382633211899692</v>
+        <v>0.8382633211899693</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12025,22 +12025,22 @@
         <v>0.7573059580604724</v>
       </c>
       <c r="C449">
-        <v>0.9714312182517209</v>
+        <v>0.9714312182517206</v>
       </c>
       <c r="D449">
         <v>0.2886935373697748</v>
       </c>
       <c r="E449">
-        <v>0.882365990738381</v>
+        <v>0.8823659907383812</v>
       </c>
       <c r="F449">
-        <v>0.6583289115128274</v>
+        <v>0.6583289115128275</v>
       </c>
       <c r="G449">
         <v>0.8344155799540875</v>
       </c>
       <c r="H449">
-        <v>0.8382633211899692</v>
+        <v>0.8382633211899693</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12051,22 +12051,22 @@
         <v>0.7573059580604723</v>
       </c>
       <c r="C450">
-        <v>0.9714312182517206</v>
+        <v>0.9714312182517205</v>
       </c>
       <c r="D450">
         <v>0.2886935373697748</v>
       </c>
       <c r="E450">
-        <v>0.882365990738381</v>
+        <v>0.8823659907383812</v>
       </c>
       <c r="F450">
-        <v>0.6583289115128274</v>
+        <v>0.6583289115128275</v>
       </c>
       <c r="G450">
-        <v>0.8344155799540875</v>
+        <v>0.8344155799540873</v>
       </c>
       <c r="H450">
-        <v>0.8382633211899692</v>
+        <v>0.8382633211899693</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12077,22 +12077,22 @@
         <v>0.7573059580604724</v>
       </c>
       <c r="C451">
-        <v>0.9714312182517209</v>
+        <v>0.9714312182517207</v>
       </c>
       <c r="D451">
         <v>0.2886935373697748</v>
       </c>
       <c r="E451">
-        <v>0.882365990738381</v>
+        <v>0.8823659907383812</v>
       </c>
       <c r="F451">
-        <v>0.6583289115128274</v>
+        <v>0.6583289115128275</v>
       </c>
       <c r="G451">
-        <v>0.8344155799540877</v>
+        <v>0.8344155799540875</v>
       </c>
       <c r="H451">
-        <v>0.8382633211899693</v>
+        <v>0.8382633211899694</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12103,7 +12103,7 @@
         <v>0.7573059580604723</v>
       </c>
       <c r="C452">
-        <v>0.9714312182517207</v>
+        <v>0.9714312182517206</v>
       </c>
       <c r="D452">
         <v>0.2886935373697748</v>
@@ -12112,13 +12112,13 @@
         <v>0.882365990738381</v>
       </c>
       <c r="F452">
-        <v>0.6583289115128274</v>
+        <v>0.6583289115128275</v>
       </c>
       <c r="G452">
-        <v>0.8344155799540875</v>
+        <v>0.8344155799540874</v>
       </c>
       <c r="H452">
-        <v>0.8382633211899692</v>
+        <v>0.8382633211899693</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12129,7 +12129,7 @@
         <v>0.7573059580604724</v>
       </c>
       <c r="C453">
-        <v>0.9714312182517207</v>
+        <v>0.9714312182517206</v>
       </c>
       <c r="D453">
         <v>0.2886935373697748</v>
@@ -12138,13 +12138,13 @@
         <v>0.882365990738381</v>
       </c>
       <c r="F453">
-        <v>0.6583289115128274</v>
+        <v>0.6583289115128275</v>
       </c>
       <c r="G453">
-        <v>0.8344155799540877</v>
+        <v>0.8344155799540875</v>
       </c>
       <c r="H453">
-        <v>0.8382633211899692</v>
+        <v>0.8382633211899693</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12155,7 +12155,7 @@
         <v>0.57005636626502</v>
       </c>
       <c r="C454">
-        <v>0.8567851433935579</v>
+        <v>0.8567851433935578</v>
       </c>
       <c r="D454">
         <v>0.4389158051482982</v>
@@ -12170,7 +12170,7 @@
         <v>0.7576234806140985</v>
       </c>
       <c r="H454">
-        <v>0.7281922969364018</v>
+        <v>0.7281922969364015</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12181,13 +12181,13 @@
         <v>0.5700563662650199</v>
       </c>
       <c r="C455">
-        <v>0.8567851433935579</v>
+        <v>0.8567851433935578</v>
       </c>
       <c r="D455">
-        <v>0.4389158051482982</v>
+        <v>0.4389158051482981</v>
       </c>
       <c r="E455">
-        <v>0.7626693074686695</v>
+        <v>0.7626693074686693</v>
       </c>
       <c r="F455">
         <v>0.5091454602891847</v>
@@ -12207,13 +12207,13 @@
         <v>0.57005636626502</v>
       </c>
       <c r="C456">
-        <v>0.856785143393558</v>
+        <v>0.8567851433935577</v>
       </c>
       <c r="D456">
-        <v>0.4389158051482982</v>
+        <v>0.4389158051482981</v>
       </c>
       <c r="E456">
-        <v>0.7626693074686695</v>
+        <v>0.7626693074686693</v>
       </c>
       <c r="F456">
         <v>0.5091454602891847</v>
@@ -12233,10 +12233,10 @@
         <v>0.5700563662650199</v>
       </c>
       <c r="C457">
-        <v>0.8567851433935579</v>
+        <v>0.8567851433935577</v>
       </c>
       <c r="D457">
-        <v>0.4389158051482982</v>
+        <v>0.4389158051482981</v>
       </c>
       <c r="E457">
         <v>0.7626693074686693</v>
@@ -12248,7 +12248,7 @@
         <v>0.7576234806140985</v>
       </c>
       <c r="H457">
-        <v>0.7281922969364015</v>
+        <v>0.7281922969364013</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12259,10 +12259,10 @@
         <v>0.5700563662650199</v>
       </c>
       <c r="C458">
-        <v>0.8567851433935579</v>
+        <v>0.8567851433935578</v>
       </c>
       <c r="D458">
-        <v>0.4389158051482982</v>
+        <v>0.4389158051482981</v>
       </c>
       <c r="E458">
         <v>0.7626693074686695</v>
@@ -12274,7 +12274,7 @@
         <v>0.7576234806140985</v>
       </c>
       <c r="H458">
-        <v>0.7281922969364016</v>
+        <v>0.7281922969364015</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12285,22 +12285,22 @@
         <v>0.5700563662650199</v>
       </c>
       <c r="C459">
-        <v>0.8567851433935579</v>
+        <v>0.8567851433935577</v>
       </c>
       <c r="D459">
         <v>0.4389158051482981</v>
       </c>
       <c r="E459">
-        <v>0.7626693074686695</v>
+        <v>0.7626693074686693</v>
       </c>
       <c r="F459">
         <v>0.5091454602891846</v>
       </c>
       <c r="G459">
-        <v>0.7576234806140982</v>
+        <v>0.7576234806140983</v>
       </c>
       <c r="H459">
-        <v>0.7281922969364015</v>
+        <v>0.7281922969364013</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12311,13 +12311,13 @@
         <v>0.5700563662650199</v>
       </c>
       <c r="C460">
-        <v>0.8567851433935579</v>
+        <v>0.8567851433935577</v>
       </c>
       <c r="D460">
-        <v>0.4389158051482981</v>
+        <v>0.4389158051482982</v>
       </c>
       <c r="E460">
-        <v>0.7626693074686695</v>
+        <v>0.7626693074686693</v>
       </c>
       <c r="F460">
         <v>0.5091454602891847</v>
@@ -12326,7 +12326,7 @@
         <v>0.7576234806140985</v>
       </c>
       <c r="H460">
-        <v>0.7281922969364016</v>
+        <v>0.7281922969364015</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12337,13 +12337,13 @@
         <v>0.57005636626502</v>
       </c>
       <c r="C461">
-        <v>0.8567851433935579</v>
+        <v>0.8567851433935578</v>
       </c>
       <c r="D461">
-        <v>0.4389158051482982</v>
+        <v>0.4389158051482981</v>
       </c>
       <c r="E461">
-        <v>0.7626693074686695</v>
+        <v>0.7626693074686693</v>
       </c>
       <c r="F461">
         <v>0.5091454602891847</v>
@@ -12363,13 +12363,13 @@
         <v>0.5700563662650199</v>
       </c>
       <c r="C462">
-        <v>0.8567851433935579</v>
+        <v>0.8567851433935578</v>
       </c>
       <c r="D462">
-        <v>0.4389158051482982</v>
+        <v>0.4389158051482981</v>
       </c>
       <c r="E462">
-        <v>0.7626693074686695</v>
+        <v>0.7626693074686693</v>
       </c>
       <c r="F462">
         <v>0.5091454602891847</v>
@@ -12378,7 +12378,7 @@
         <v>0.7576234806140985</v>
       </c>
       <c r="H462">
-        <v>0.7281922969364016</v>
+        <v>0.7281922969364015</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12398,7 +12398,7 @@
         <v>0.7414936345953882</v>
       </c>
       <c r="F463">
-        <v>0.5266241306780893</v>
+        <v>0.5266241306780894</v>
       </c>
       <c r="G463">
         <v>0.7389928423856846</v>
@@ -12424,13 +12424,13 @@
         <v>0.7414936345953882</v>
       </c>
       <c r="F464">
-        <v>0.5266241306780894</v>
+        <v>0.5266241306780896</v>
       </c>
       <c r="G464">
         <v>0.7389928423856846</v>
       </c>
       <c r="H464">
-        <v>0.7083779570078986</v>
+        <v>0.7083779570078987</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12438,13 +12438,13 @@
         <v>464</v>
       </c>
       <c r="B465">
-        <v>0.5894419204172482</v>
+        <v>0.5894419204172483</v>
       </c>
       <c r="C465">
-        <v>0.5816885650556011</v>
+        <v>0.5816885650556012</v>
       </c>
       <c r="D465">
-        <v>0.4460619656441532</v>
+        <v>0.4460619656441533</v>
       </c>
       <c r="E465">
         <v>0.5593977405392894</v>
@@ -12464,10 +12464,10 @@
         <v>465</v>
       </c>
       <c r="B466">
-        <v>0.5794945065954856</v>
+        <v>0.5794945065954857</v>
       </c>
       <c r="C466">
-        <v>0.6191184505630941</v>
+        <v>0.6191184505630942</v>
       </c>
       <c r="D466">
         <v>0.3794309099308373</v>
@@ -12479,10 +12479,10 @@
         <v>0.502364664721319</v>
       </c>
       <c r="G466">
-        <v>0.559914192833975</v>
+        <v>0.5599141928339751</v>
       </c>
       <c r="H466">
-        <v>0.5562203809870583</v>
+        <v>0.5562203809870584</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12496,7 +12496,7 @@
         <v>0.8239910595025938</v>
       </c>
       <c r="D467">
-        <v>0.5242044174272958</v>
+        <v>0.5242044174272957</v>
       </c>
       <c r="E467">
         <v>0.7414936345953882</v>
@@ -12519,13 +12519,13 @@
         <v>0.7573059580604723</v>
       </c>
       <c r="C468">
-        <v>0.9714312182517207</v>
+        <v>0.9714312182517205</v>
       </c>
       <c r="D468">
         <v>0.2886935373697748</v>
       </c>
       <c r="E468">
-        <v>0.882365990738381</v>
+        <v>0.8823659907383812</v>
       </c>
       <c r="F468">
         <v>0.6583289115128275</v>
@@ -12545,7 +12545,7 @@
         <v>0.7573059580604723</v>
       </c>
       <c r="C469">
-        <v>0.9714312182517207</v>
+        <v>0.9714312182517206</v>
       </c>
       <c r="D469">
         <v>0.2886935373697748</v>
@@ -12554,13 +12554,13 @@
         <v>0.882365990738381</v>
       </c>
       <c r="F469">
-        <v>0.6583289115128274</v>
+        <v>0.6583289115128275</v>
       </c>
       <c r="G469">
-        <v>0.8344155799540875</v>
+        <v>0.8344155799540874</v>
       </c>
       <c r="H469">
-        <v>0.8382633211899692</v>
+        <v>0.8382633211899693</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12571,7 +12571,7 @@
         <v>0.7573059580604724</v>
       </c>
       <c r="C470">
-        <v>0.9714312182517209</v>
+        <v>0.9714312182517205</v>
       </c>
       <c r="D470">
         <v>0.2886935373697748</v>
@@ -12580,13 +12580,13 @@
         <v>0.882365990738381</v>
       </c>
       <c r="F470">
-        <v>0.6583289115128274</v>
+        <v>0.6583289115128275</v>
       </c>
       <c r="G470">
-        <v>0.8344155799540877</v>
+        <v>0.8344155799540875</v>
       </c>
       <c r="H470">
-        <v>0.8382633211899692</v>
+        <v>0.8382633211899693</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12606,7 +12606,7 @@
         <v>0.7414936345953883</v>
       </c>
       <c r="F471">
-        <v>0.5266241306780894</v>
+        <v>0.5266241306780896</v>
       </c>
       <c r="G471">
         <v>0.7389928423856846</v>
@@ -12623,7 +12623,7 @@
         <v>0.5700563662650199</v>
       </c>
       <c r="C472">
-        <v>0.8567851433935579</v>
+        <v>0.8567851433935578</v>
       </c>
       <c r="D472">
         <v>0.4389158051482982</v>
@@ -12638,7 +12638,7 @@
         <v>0.7576234806140986</v>
       </c>
       <c r="H472">
-        <v>0.7281922969364016</v>
+        <v>0.7281922969364015</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12646,16 +12646,16 @@
         <v>472</v>
       </c>
       <c r="B473">
-        <v>0.5794945065954856</v>
+        <v>0.5794945065954857</v>
       </c>
       <c r="C473">
-        <v>0.6191184505630941</v>
+        <v>0.6191184505630942</v>
       </c>
       <c r="D473">
         <v>0.3794309099308373</v>
       </c>
       <c r="E473">
-        <v>0.5822626245391823</v>
+        <v>0.5822626245391824</v>
       </c>
       <c r="F473">
         <v>0.502364664721319</v>
@@ -12672,10 +12672,10 @@
         <v>473</v>
       </c>
       <c r="B474">
-        <v>0.5794945065954855</v>
+        <v>0.5794945065954856</v>
       </c>
       <c r="C474">
-        <v>0.6191184505630941</v>
+        <v>0.6191184505630942</v>
       </c>
       <c r="D474">
         <v>0.3794309099308373</v>
@@ -12690,7 +12690,7 @@
         <v>0.559914192833975</v>
       </c>
       <c r="H474">
-        <v>0.5562203809870583</v>
+        <v>0.5562203809870584</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12730,16 +12730,16 @@
         <v>0.5612871391359437</v>
       </c>
       <c r="D476">
-        <v>0.316512150227003</v>
+        <v>0.3165121502270031</v>
       </c>
       <c r="E476">
         <v>0.5085326411866781</v>
       </c>
       <c r="F476">
-        <v>0.3745007487187507</v>
+        <v>0.3745007487187508</v>
       </c>
       <c r="G476">
-        <v>0.5017095489926371</v>
+        <v>0.5017095489926372</v>
       </c>
       <c r="H476">
         <v>0.486634451814781</v>
@@ -12776,7 +12776,7 @@
         <v>477</v>
       </c>
       <c r="B478">
-        <v>0.8788483872139493</v>
+        <v>0.8788483872139494</v>
       </c>
       <c r="C478">
         <v>0.5971478118587551</v>
@@ -12802,16 +12802,16 @@
         <v>478</v>
       </c>
       <c r="B479">
-        <v>0.7941602471408081</v>
+        <v>0.7941602471408082</v>
       </c>
       <c r="C479">
-        <v>0.6952214014892448</v>
+        <v>0.6952214014892447</v>
       </c>
       <c r="D479">
         <v>0.6432508219131571</v>
       </c>
       <c r="E479">
-        <v>0.660019658064253</v>
+        <v>0.6600196580642529</v>
       </c>
       <c r="F479">
         <v>0.6734618174260889</v>
@@ -12828,7 +12828,7 @@
         <v>479</v>
       </c>
       <c r="B480">
-        <v>0.8590822091831244</v>
+        <v>0.8590822091831246</v>
       </c>
       <c r="C480">
         <v>0.7373150680738888</v>
@@ -12843,7 +12843,7 @@
         <v>0.7288638761772982</v>
       </c>
       <c r="G480">
-        <v>0.6882840569918418</v>
+        <v>0.6882840569918419</v>
       </c>
       <c r="H480">
         <v>0.6693512514818235</v>
@@ -12854,7 +12854,7 @@
         <v>480</v>
       </c>
       <c r="B481">
-        <v>0.8788483872139493</v>
+        <v>0.8788483872139494</v>
       </c>
       <c r="C481">
         <v>0.5971478118587551</v>
@@ -12880,7 +12880,7 @@
         <v>481</v>
       </c>
       <c r="B482">
-        <v>0.8788483872139493</v>
+        <v>0.8788483872139494</v>
       </c>
       <c r="C482">
         <v>0.5971478118587551</v>
@@ -12898,7 +12898,7 @@
         <v>0.5889211703474247</v>
       </c>
       <c r="H482">
-        <v>0.5899964828719462</v>
+        <v>0.5899964828719463</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12906,7 +12906,7 @@
         <v>482</v>
       </c>
       <c r="B483">
-        <v>0.8788483872139493</v>
+        <v>0.8788483872139495</v>
       </c>
       <c r="C483">
         <v>0.5971478118587551</v>
@@ -12924,7 +12924,7 @@
         <v>0.5889211703474247</v>
       </c>
       <c r="H483">
-        <v>0.5899964828719462</v>
+        <v>0.5899964828719463</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12932,7 +12932,7 @@
         <v>483</v>
       </c>
       <c r="B484">
-        <v>0.8788483872139493</v>
+        <v>0.8788483872139494</v>
       </c>
       <c r="C484">
         <v>0.5971478118587551</v>
@@ -12958,10 +12958,10 @@
         <v>484</v>
       </c>
       <c r="B485">
-        <v>0.8590822091831243</v>
+        <v>0.8590822091831245</v>
       </c>
       <c r="C485">
-        <v>0.7373150680738887</v>
+        <v>0.7373150680738888</v>
       </c>
       <c r="D485">
         <v>0.670111690356801</v>
@@ -12970,10 +12970,10 @@
         <v>0.7034524402354075</v>
       </c>
       <c r="F485">
-        <v>0.7288638761772981</v>
+        <v>0.7288638761772982</v>
       </c>
       <c r="G485">
-        <v>0.6882840569918417</v>
+        <v>0.6882840569918418</v>
       </c>
       <c r="H485">
         <v>0.6693512514818234</v>
@@ -12984,7 +12984,7 @@
         <v>485</v>
       </c>
       <c r="B486">
-        <v>0.8401795962010377</v>
+        <v>0.8401795962010378</v>
       </c>
       <c r="C486">
         <v>0.7149673954900798</v>
@@ -12996,13 +12996,13 @@
         <v>0.6846502283005856</v>
       </c>
       <c r="F486">
-        <v>0.71848685733323</v>
+        <v>0.7184868573332301</v>
       </c>
       <c r="G486">
-        <v>0.6729283633300428</v>
+        <v>0.6729283633300429</v>
       </c>
       <c r="H486">
-        <v>0.6540213234876835</v>
+        <v>0.6540213234876837</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13010,13 +13010,13 @@
         <v>486</v>
       </c>
       <c r="B487">
-        <v>0.8299362916380411</v>
+        <v>0.8299362916380412</v>
       </c>
       <c r="C487">
-        <v>0.6972880768587876</v>
+        <v>0.6972880768587875</v>
       </c>
       <c r="D487">
-        <v>0.5542397770606828</v>
+        <v>0.5542397770606829</v>
       </c>
       <c r="E487">
         <v>0.6617643849190771</v>
@@ -13025,7 +13025,7 @@
         <v>0.6950249911985722</v>
       </c>
       <c r="G487">
-        <v>0.6413684920685019</v>
+        <v>0.641368492068502</v>
       </c>
       <c r="H487">
         <v>0.6259334450825598</v>
@@ -13036,7 +13036,7 @@
         <v>487</v>
       </c>
       <c r="B488">
-        <v>0.7742463616472459</v>
+        <v>0.7742463616472463</v>
       </c>
       <c r="C488">
         <v>0.7262912185396493</v>
@@ -13048,13 +13048,13 @@
         <v>0.6784136745337157</v>
       </c>
       <c r="F488">
-        <v>0.6563050170415559</v>
+        <v>0.656305017041556</v>
       </c>
       <c r="G488">
         <v>0.6536675072383372</v>
       </c>
       <c r="H488">
-        <v>0.6415023064297043</v>
+        <v>0.6415023064297044</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13062,19 +13062,19 @@
         <v>488</v>
       </c>
       <c r="B489">
-        <v>0.7742463616472459</v>
+        <v>0.7742463616472464</v>
       </c>
       <c r="C489">
-        <v>0.7262912185396493</v>
+        <v>0.7262912185396494</v>
       </c>
       <c r="D489">
-        <v>0.5711028538935692</v>
+        <v>0.5711028538935691</v>
       </c>
       <c r="E489">
         <v>0.6784136745337157</v>
       </c>
       <c r="F489">
-        <v>0.656305017041556</v>
+        <v>0.6563050170415561</v>
       </c>
       <c r="G489">
         <v>0.6536675072383372</v>
@@ -13100,7 +13100,7 @@
         <v>0.8747113401351211</v>
       </c>
       <c r="F490">
-        <v>0.7940641908033091</v>
+        <v>0.7940641908033093</v>
       </c>
       <c r="G490">
         <v>0.8649644937277053</v>
@@ -13123,13 +13123,13 @@
         <v>0.6384390759276677</v>
       </c>
       <c r="E491">
-        <v>0.9094352364897383</v>
+        <v>0.9094352364897382</v>
       </c>
       <c r="F491">
-        <v>0.7707445081761158</v>
+        <v>0.7707445081761159</v>
       </c>
       <c r="G491">
-        <v>0.8960828543730586</v>
+        <v>0.8960828543730587</v>
       </c>
       <c r="H491">
         <v>0.8642534995771883</v>
@@ -13152,10 +13152,10 @@
         <v>0.8747113401351211</v>
       </c>
       <c r="F492">
-        <v>0.794064190803309</v>
+        <v>0.7940641908033091</v>
       </c>
       <c r="G492">
-        <v>0.8649644937277052</v>
+        <v>0.8649644937277053</v>
       </c>
       <c r="H492">
         <v>0.837230276390701</v>
@@ -13178,10 +13178,10 @@
         <v>0.8747113401351211</v>
       </c>
       <c r="F493">
-        <v>0.794064190803309</v>
+        <v>0.7940641908033091</v>
       </c>
       <c r="G493">
-        <v>0.8649644937277052</v>
+        <v>0.8649644937277053</v>
       </c>
       <c r="H493">
         <v>0.8372302763907009</v>
@@ -13207,7 +13207,7 @@
         <v>0.7940641908033091</v>
       </c>
       <c r="G494">
-        <v>0.8649644937277052</v>
+        <v>0.8649644937277053</v>
       </c>
       <c r="H494">
         <v>0.837230276390701</v>
@@ -13224,19 +13224,19 @@
         <v>1.036605472305101</v>
       </c>
       <c r="D495">
-        <v>0.306362071240026</v>
+        <v>0.3063620712400259</v>
       </c>
       <c r="E495">
-        <v>0.9246147437403328</v>
+        <v>0.9246147437403327</v>
       </c>
       <c r="F495">
         <v>0.6891777252876302</v>
       </c>
       <c r="G495">
-        <v>0.8841797654493022</v>
+        <v>0.8841797654493023</v>
       </c>
       <c r="H495">
-        <v>0.8700713587968725</v>
+        <v>0.8700713587968728</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13244,7 +13244,7 @@
         <v>495</v>
       </c>
       <c r="B496">
-        <v>0.856135951027861</v>
+        <v>0.8561359510278611</v>
       </c>
       <c r="C496">
         <v>1.112583266502178</v>
@@ -13253,13 +13253,13 @@
         <v>0.495506308913747</v>
       </c>
       <c r="E496">
-        <v>0.9876698800851825</v>
+        <v>0.9876698800851824</v>
       </c>
       <c r="F496">
-        <v>0.7260645024839759</v>
+        <v>0.726064502483976</v>
       </c>
       <c r="G496">
-        <v>0.9645215340632856</v>
+        <v>0.9645215340632858</v>
       </c>
       <c r="H496">
         <v>0.9345028760912059</v>
@@ -13288,7 +13288,7 @@
         <v>0.8841797654493022</v>
       </c>
       <c r="H497">
-        <v>0.8700713587968725</v>
+        <v>0.8700713587968728</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13296,7 +13296,7 @@
         <v>497</v>
       </c>
       <c r="B498">
-        <v>0.8196698112116771</v>
+        <v>0.8196698112116774</v>
       </c>
       <c r="C498">
         <v>1.035809687716325</v>
@@ -13308,13 +13308,13 @@
         <v>0.9310434025427482</v>
       </c>
       <c r="F498">
-        <v>0.6953893525157693</v>
+        <v>0.6953893525157695</v>
       </c>
       <c r="G498">
-        <v>0.8850682694149105</v>
+        <v>0.8850682694149106</v>
       </c>
       <c r="H498">
-        <v>0.8795825407783977</v>
+        <v>0.8795825407783978</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13322,7 +13322,7 @@
         <v>498</v>
       </c>
       <c r="B499">
-        <v>0.8196698112116773</v>
+        <v>0.8196698112116774</v>
       </c>
       <c r="C499">
         <v>1.035809687716325</v>
@@ -13331,10 +13331,10 @@
         <v>0.4611596643833663</v>
       </c>
       <c r="E499">
-        <v>0.9310434025427484</v>
+        <v>0.9310434025427483</v>
       </c>
       <c r="F499">
-        <v>0.6953893525157693</v>
+        <v>0.6953893525157696</v>
       </c>
       <c r="G499">
         <v>0.8850682694149106</v>
@@ -13348,7 +13348,7 @@
         <v>499</v>
       </c>
       <c r="B500">
-        <v>0.8196698112116773</v>
+        <v>0.8196698112116774</v>
       </c>
       <c r="C500">
         <v>1.035809687716325</v>
@@ -13357,10 +13357,10 @@
         <v>0.4611596643833663</v>
       </c>
       <c r="E500">
-        <v>0.9310434025427484</v>
+        <v>0.9310434025427482</v>
       </c>
       <c r="F500">
-        <v>0.6953893525157693</v>
+        <v>0.6953893525157695</v>
       </c>
       <c r="G500">
         <v>0.8850682694149106</v>
@@ -13389,7 +13389,7 @@
         <v>0.6896207167844964</v>
       </c>
       <c r="G501">
-        <v>0.6687495726169533</v>
+        <v>0.6687495726169534</v>
       </c>
       <c r="H501">
         <v>0.6698542426792045</v>
